--- a/data-lake/variable_key.xlsx
+++ b/data-lake/variable_key.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-lake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DC4C81-3845-455D-88C5-8A56E1558305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29C4938-36D5-4A33-B51A-ECE7306D354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DF7D7CC-01DB-4B77-91E2-7CCE474EE386}"/>
+    <workbookView xWindow="1040" yWindow="1040" windowWidth="14400" windowHeight="7590" activeTab="1" xr2:uid="{6DF7D7CC-01DB-4B77-91E2-7CCE474EE386}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
-    <sheet name="DOT" sheetId="4" r:id="rId2"/>
-    <sheet name="BOM" sheetId="3" r:id="rId3"/>
-    <sheet name="DWER" sheetId="2" r:id="rId4"/>
+    <sheet name="Model_TFV" sheetId="5" r:id="rId2"/>
+    <sheet name="DOT" sheetId="4" r:id="rId3"/>
+    <sheet name="BOM" sheetId="3" r:id="rId4"/>
+    <sheet name="DWER" sheetId="2" r:id="rId5"/>
+    <sheet name="Information" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="844">
   <si>
     <t>Units</t>
   </si>
@@ -1606,6 +1608,969 @@
   </si>
   <si>
     <t>mL</t>
+  </si>
+  <si>
+    <t>Programmatic</t>
+  </si>
+  <si>
+    <t>CF Name</t>
+  </si>
+  <si>
+    <t>CF Units</t>
+  </si>
+  <si>
+    <t>CF Conversion</t>
+  </si>
+  <si>
+    <t>e_coli</t>
+  </si>
+  <si>
+    <t>enterococci</t>
+  </si>
+  <si>
+    <t>salinity</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>turbidity</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>ammonium</t>
+  </si>
+  <si>
+    <t>nitrate</t>
+  </si>
+  <si>
+    <t>tn_tp_ratio</t>
+  </si>
+  <si>
+    <t>organic_nitrogen</t>
+  </si>
+  <si>
+    <t>organic_phosphorus</t>
+  </si>
+  <si>
+    <t>total_nitrogen</t>
+  </si>
+  <si>
+    <t>total_phosphorus</t>
+  </si>
+  <si>
+    <t>ruppia_biomass</t>
+  </si>
+  <si>
+    <t>reactive_silica</t>
+  </si>
+  <si>
+    <t>sediment_mass</t>
+  </si>
+  <si>
+    <t>resuspension_rate</t>
+  </si>
+  <si>
+    <t>nitrification_rate</t>
+  </si>
+  <si>
+    <t>denitrification_rate</t>
+  </si>
+  <si>
+    <t>annamox_rate</t>
+  </si>
+  <si>
+    <t>wind_direction</t>
+  </si>
+  <si>
+    <t>wind_speed</t>
+  </si>
+  <si>
+    <t>cloud_cover</t>
+  </si>
+  <si>
+    <t>flow_status</t>
+  </si>
+  <si>
+    <t>phaeophytin_a</t>
+  </si>
+  <si>
+    <t>total_alkalinity</t>
+  </si>
+  <si>
+    <t>secchi_depth</t>
+  </si>
+  <si>
+    <t>tide_status</t>
+  </si>
+  <si>
+    <t>max_discharge</t>
+  </si>
+  <si>
+    <t>mean_discharge</t>
+  </si>
+  <si>
+    <t>min_discharge</t>
+  </si>
+  <si>
+    <t>air_temperature</t>
+  </si>
+  <si>
+    <t>relative_humidity</t>
+  </si>
+  <si>
+    <t>horizontal_visibility</t>
+  </si>
+  <si>
+    <t>bottom_depth</t>
+  </si>
+  <si>
+    <t>tidal_height</t>
+  </si>
+  <si>
+    <t>water_age</t>
+  </si>
+  <si>
+    <t>adsorped_phosphate</t>
+  </si>
+  <si>
+    <t>conductivity</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>discharge</t>
+  </si>
+  <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>suspended_solids_1</t>
+  </si>
+  <si>
+    <t>suspended_solids_2</t>
+  </si>
+  <si>
+    <t>dnra_rate</t>
+  </si>
+  <si>
+    <t>chromophoric_dom</t>
+  </si>
+  <si>
+    <t>total_tkn</t>
+  </si>
+  <si>
+    <t>aws_visibility</t>
+  </si>
+  <si>
+    <t>sediment_mass_ss1</t>
+  </si>
+  <si>
+    <t>total_organic_carbon</t>
+  </si>
+  <si>
+    <t>total_suspended_solids</t>
+  </si>
+  <si>
+    <t>sediment_mass_ss2</t>
+  </si>
+  <si>
+    <t>suspended_solids_3</t>
+  </si>
+  <si>
+    <t>sediment_mass_ss3</t>
+  </si>
+  <si>
+    <t>filterable_reactive_phosphate</t>
+  </si>
+  <si>
+    <t>dissolved_organic_carbon</t>
+  </si>
+  <si>
+    <t>particulate_organic_carbon</t>
+  </si>
+  <si>
+    <t>dissolved_organic_nitrogen</t>
+  </si>
+  <si>
+    <t>particulate_organic_nitrogen</t>
+  </si>
+  <si>
+    <t>dissolved_organic_phosphorus</t>
+  </si>
+  <si>
+    <t>particulate_organic_phosphorus</t>
+  </si>
+  <si>
+    <t>phytoplankton_biomass_greens</t>
+  </si>
+  <si>
+    <t>phytoplankton_biomass_crypt</t>
+  </si>
+  <si>
+    <t>phytoplankton_biomass_diatom</t>
+  </si>
+  <si>
+    <t>phytoplankton_biomass_dino</t>
+  </si>
+  <si>
+    <t>filamentous_algae_floating</t>
+  </si>
+  <si>
+    <t>photosynthetically_active_radiation</t>
+  </si>
+  <si>
+    <t>ruppia_root_depth</t>
+  </si>
+  <si>
+    <t>sedimentation_velocity_ss1</t>
+  </si>
+  <si>
+    <t>sedimentation_rate_ss1</t>
+  </si>
+  <si>
+    <t>sedimentation_velocity_ss2</t>
+  </si>
+  <si>
+    <t>sedimentation_rate_ss2</t>
+  </si>
+  <si>
+    <t>sedimentation_velocity_ss3</t>
+  </si>
+  <si>
+    <t>sedimentation_rate_ss3</t>
+  </si>
+  <si>
+    <t>critical_shear_stress</t>
+  </si>
+  <si>
+    <t>sediment_fraction_ss1</t>
+  </si>
+  <si>
+    <t>sediment_fraction_ss2</t>
+  </si>
+  <si>
+    <t>sediment_fraction_ss3</t>
+  </si>
+  <si>
+    <t>sedimentation_rate_ss</t>
+  </si>
+  <si>
+    <t>resuspension_rate_ss</t>
+  </si>
+  <si>
+    <t>bottom_shear_stress</t>
+  </si>
+  <si>
+    <t>pip_sedimentation_rate</t>
+  </si>
+  <si>
+    <t>pip_resuspension_rate</t>
+  </si>
+  <si>
+    <t>frp_sorption_rate</t>
+  </si>
+  <si>
+    <t>poc_sedimentation_rate</t>
+  </si>
+  <si>
+    <t>pon_sedimentation_rate</t>
+  </si>
+  <si>
+    <t>pop_sedimentation_rate</t>
+  </si>
+  <si>
+    <t>sediment_om_fraction</t>
+  </si>
+  <si>
+    <t>poc_resuspension_rate</t>
+  </si>
+  <si>
+    <t>pon_resuspension_rate</t>
+  </si>
+  <si>
+    <t>pop_resuspension_rate</t>
+  </si>
+  <si>
+    <t>poc_hydrolysis_rate</t>
+  </si>
+  <si>
+    <t>pon_hydrolysis_rate</t>
+  </si>
+  <si>
+    <t>pop_hydrolysis_rate</t>
+  </si>
+  <si>
+    <t>doc_mineralisation_rate</t>
+  </si>
+  <si>
+    <t>don_mineralisation_rate</t>
+  </si>
+  <si>
+    <t>dop_mineralisation_rate</t>
+  </si>
+  <si>
+    <t>max_stage_height</t>
+  </si>
+  <si>
+    <t>mean_stage_height</t>
+  </si>
+  <si>
+    <t>min_stage_height</t>
+  </si>
+  <si>
+    <t>dew_point_temperature</t>
+  </si>
+  <si>
+    <t>max_wind_speed</t>
+  </si>
+  <si>
+    <t>station_level_pressure</t>
+  </si>
+  <si>
+    <t>chlorophyll_sample_volume</t>
+  </si>
+  <si>
+    <t>dissolved_organic_carbon_refractory</t>
+  </si>
+  <si>
+    <t>dissolved_organic_nitrogen_refractory</t>
+  </si>
+  <si>
+    <t>dissolved_organic_phosphorus_refractory</t>
+  </si>
+  <si>
+    <t>filamentous_algae_nitrogen_floating</t>
+  </si>
+  <si>
+    <t>filamentous_algae_phosphorus_floating</t>
+  </si>
+  <si>
+    <t>filamentous_algae_biomass_total</t>
+  </si>
+  <si>
+    <t>dic_dissolved_sediment_flux</t>
+  </si>
+  <si>
+    <t>frp_dissolved_sediment_flux</t>
+  </si>
+  <si>
+    <t>poc_dissolved_sediment_flux</t>
+  </si>
+  <si>
+    <t>doc_dissolved_sediment_flux</t>
+  </si>
+  <si>
+    <t>pon_dissolved_sediment_flux</t>
+  </si>
+  <si>
+    <t>don_dissolved_sediment_flux</t>
+  </si>
+  <si>
+    <t>pop_dissolved_sediment_flux</t>
+  </si>
+  <si>
+    <t>dop_dissolved_sediment_flux</t>
+  </si>
+  <si>
+    <t>ruppia_gross_primary_productivity</t>
+  </si>
+  <si>
+    <t>ruppia_net_primary_productivity</t>
+  </si>
+  <si>
+    <t>ruppia_leaf_area_index</t>
+  </si>
+  <si>
+    <t>ss_net_swi_flux</t>
+  </si>
+  <si>
+    <t>change_in_swi_position</t>
+  </si>
+  <si>
+    <t>si_dissolved_sediment_flux</t>
+  </si>
+  <si>
+    <t>din_atmospheric_deposition_flux</t>
+  </si>
+  <si>
+    <t>pip_net_swi_flux</t>
+  </si>
+  <si>
+    <t>dip_atmospheric_deposition_flux</t>
+  </si>
+  <si>
+    <t>sediment_total_organic_carbon</t>
+  </si>
+  <si>
+    <t>sediment_total_organic_nitrogen</t>
+  </si>
+  <si>
+    <t>sediment_total_organic_phosphorus</t>
+  </si>
+  <si>
+    <t>poc_net_swi_flux</t>
+  </si>
+  <si>
+    <t>doc_net_swi_flux</t>
+  </si>
+  <si>
+    <t>pon_net_swi_flux</t>
+  </si>
+  <si>
+    <t>don_net_swi_flux</t>
+  </si>
+  <si>
+    <t>pop_net_swi_flux</t>
+  </si>
+  <si>
+    <t>dop_net_swi_flux</t>
+  </si>
+  <si>
+    <t>doc_mineralisation_rate_anaerobic</t>
+  </si>
+  <si>
+    <t>doc_mineralisation_rate_denitrification</t>
+  </si>
+  <si>
+    <t>max_stage_height_ctf</t>
+  </si>
+  <si>
+    <t>mean_stage_height_ctf</t>
+  </si>
+  <si>
+    <t>min_stage_height_ctf</t>
+  </si>
+  <si>
+    <t>wet_bulb_air_temperature</t>
+  </si>
+  <si>
+    <t>cloud_amount_of_first_group_in_eighths</t>
+  </si>
+  <si>
+    <t>cloud_height_of_first_group</t>
+  </si>
+  <si>
+    <t>cloud_amount_of_second_group_in_eighths</t>
+  </si>
+  <si>
+    <t>cloud_height_of_second_group</t>
+  </si>
+  <si>
+    <t>cloud_amount_of_third_group_in_eighths</t>
+  </si>
+  <si>
+    <t>cloud_height_of_third_group</t>
+  </si>
+  <si>
+    <t>cloud_amount_of_fourth_group_in_eighths</t>
+  </si>
+  <si>
+    <t>cloud_height_of_fourth_group</t>
+  </si>
+  <si>
+    <t>ceilometer_cloud_amount_of_first_group</t>
+  </si>
+  <si>
+    <t>ceilometer_cloud_height_of_first_group</t>
+  </si>
+  <si>
+    <t>ceilometer_cloud_amount_of_second_group</t>
+  </si>
+  <si>
+    <t>ceilometer_cloud_height_of_second_group</t>
+  </si>
+  <si>
+    <t>ceilometer_cloud_amount_of_third_group</t>
+  </si>
+  <si>
+    <t>ceilometer_cloud_height_of_third_group</t>
+  </si>
+  <si>
+    <t>ceilometer_sky_clear_flag</t>
+  </si>
+  <si>
+    <t>present_weather_in_code</t>
+  </si>
+  <si>
+    <t>mean_sea_level_pressure</t>
+  </si>
+  <si>
+    <t>o2_dissolved_sediment_flux</t>
+  </si>
+  <si>
+    <t>nh4_dissolved_sediment_flux</t>
+  </si>
+  <si>
+    <t>no3_dissolved_sediment_flux</t>
+  </si>
+  <si>
+    <t>ruppia_o2_injection_rate</t>
+  </si>
+  <si>
+    <t>o2_atmospheric_flux</t>
+  </si>
+  <si>
+    <t>o2_dissolved_sediment_exchange_rate</t>
+  </si>
+  <si>
+    <t>o2_atmospheric_exchange_rate</t>
+  </si>
+  <si>
+    <t>tchl_a</t>
+  </si>
+  <si>
+    <t>tchl_b</t>
+  </si>
+  <si>
+    <t>tchl_c</t>
+  </si>
+  <si>
+    <t>ruppia_biomass_ag</t>
+  </si>
+  <si>
+    <t>ruppia_biomass_bg</t>
+  </si>
+  <si>
+    <t>o2_saturation</t>
+  </si>
+  <si>
+    <t>air_pressure</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>secchi_depth_of_sea_water</t>
+  </si>
+  <si>
+    <t>wind_to_direction</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>m s-1</t>
+  </si>
+  <si>
+    <t>wind_speed_of_gust</t>
+  </si>
+  <si>
+    <t>wet_bulb_temperature</t>
+  </si>
+  <si>
+    <t>TFV Variable Name</t>
+  </si>
+  <si>
+    <t>TFV Units</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>ECOLI_PASSIVE</t>
+  </si>
+  <si>
+    <t>ENTEROCOCCI_PASSIVE</t>
+  </si>
+  <si>
+    <t>TN_TP</t>
+  </si>
+  <si>
+    <t>SAL</t>
+  </si>
+  <si>
+    <t>TEMP</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_TOT_TN</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_TOT_TP</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_TOT_TOC</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_TOT_TSS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_TOT_TURBIDITY</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_TCHLA</t>
+  </si>
+  <si>
+    <t>WQ_MAC_RUPPIA</t>
+  </si>
+  <si>
+    <t>WQ_NCS_SS1</t>
+  </si>
+  <si>
+    <t>WQ_NCS_SS1_SED</t>
+  </si>
+  <si>
+    <t>WQ_NCS_SS2</t>
+  </si>
+  <si>
+    <t>WQ_NCS_SS2_SED</t>
+  </si>
+  <si>
+    <t>WQ_NCS_SS3</t>
+  </si>
+  <si>
+    <t>WQ_NCS_SS3_SED</t>
+  </si>
+  <si>
+    <t>WQ_TRC_AGE</t>
+  </si>
+  <si>
+    <t>WQ_OXY_OXY</t>
+  </si>
+  <si>
+    <t>WQ_SIL_RSI</t>
+  </si>
+  <si>
+    <t>WQ_NIT_AMM</t>
+  </si>
+  <si>
+    <t>WQ_NIT_NIT</t>
+  </si>
+  <si>
+    <t>WQ_PHS_FRP</t>
+  </si>
+  <si>
+    <t>WQ_PHS_FRP_ADS</t>
+  </si>
+  <si>
+    <t>WQ_OGM_DOC</t>
+  </si>
+  <si>
+    <t>WQ_OGM_DOCR</t>
+  </si>
+  <si>
+    <t>WQ_OGM_POC</t>
+  </si>
+  <si>
+    <t>WQ_OGM_DON</t>
+  </si>
+  <si>
+    <t>WQ_OGM_PON</t>
+  </si>
+  <si>
+    <t>WQ_OGM_DONR</t>
+  </si>
+  <si>
+    <t>WQ_OGM_DOP</t>
+  </si>
+  <si>
+    <t>WQ_OGM_POP</t>
+  </si>
+  <si>
+    <t>WQ_OGM_DOPR</t>
+  </si>
+  <si>
+    <t>WQ_PHY_GRN</t>
+  </si>
+  <si>
+    <t>WQ_PHY_CRYPT</t>
+  </si>
+  <si>
+    <t>WQ_PHY_DIATOM</t>
+  </si>
+  <si>
+    <t>WQ_PHY_DINO</t>
+  </si>
+  <si>
+    <t>WQ_MAG_ULVA_C</t>
+  </si>
+  <si>
+    <t>WQ_MAG_ULVA_C_IN</t>
+  </si>
+  <si>
+    <t>WQ_MAG_ULVA_C_IP</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_MAG_MA2</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_MA2_TMALG</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_MAG_TMALG</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_SDF_FSED_OXY</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_SDF_FSED_DIC</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_SDF_FSED_AMM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_SDF_FSED_NIT</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_SDF_FSED_FRP</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_SDF_FSED_POC</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_SDF_FSED_DOC</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_SDF_FSED_PON</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_SDF_FSED_DON</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_SDF_FSED_POP</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_SDF_FSED_DOP</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_MAC_PAR</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_MAC_GPP</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_MAC_NPP</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_MAC_MAC_BEN</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_MAC_MAC_LAI</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_MAC_MAC_AG</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_MAC_MAC_BG</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_MAC_MAC_ROOT_DEPTH</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_MAC_MAC_ROOT_O2</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_SS1_VVEL</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_SS1_SET</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_SS2_VVEL</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_SS2_SET</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_SS3_VVEL</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_SS3_SET</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_SS_SED</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_TAU_0</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_EPSILON</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_FS1</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_FS2</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_FS3</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_SET</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_SWI</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_SWI_DZ</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_RESUS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NCS_D_TAUB</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OXY_SAT</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OXY_OXY_DSF</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OXY_OXY_ATM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OXY_OXY_DSFV</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OXY_OXY_ATMV</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_SIL_DSF_RSI</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NIT_AMM_DSF</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NIT_NIT_DSF</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NIT_NITRIF</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NIT_DENIT</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NIT_ANAMMOX</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NIT_DNRA</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_NIT_DIN_ATM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHS_FRP_ADS_SET</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHS_FRP_ADS_RES</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHS_FRP_ADS_SWI</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHS_FRP_SRP</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHS_FRP_DSF</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHS_DIP_ATM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_POC_SET</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_PON_SET</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_POP_SET</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_OM_SED_FRAC</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_CDOM</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_TOC_SED</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_TON_SED</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_TOP_SED</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_POC_SWI</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_DOC_SWI</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_PON_SWI</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_DON_SWI</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_POP_SWI</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_DOP_SWI</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_POC_RES</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_PON_RES</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_POP_RES</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_POC_HYD</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_PON_HYD</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_POP_HYD</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_DOC_MIN</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_DON_MIN</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_DOP_MIN</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_DOC_ANAEROBIC</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OGM_DOC_DENIT</t>
+  </si>
+  <si>
+    <t>mmol C/m^4</t>
+  </si>
+  <si>
+    <t>mmol C/m^5</t>
+  </si>
+  <si>
+    <t>Model Variable Conversion</t>
+  </si>
+  <si>
+    <t>All units are converted back into the base units of the system.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>mmol /m^3</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +2680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1745,6 +2710,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2059,23 +3032,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D1833-63F5-4230-AD16-32E9E48F56BB}">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C180" sqref="C180"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>158</v>
       </c>
@@ -2088,8 +3065,20 @@
       <c r="D1" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>206</v>
       </c>
@@ -2102,8 +3091,11 @@
       <c r="D2" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>207</v>
       </c>
@@ -2116,8 +3108,11 @@
       <c r="D3" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>208</v>
       </c>
@@ -2130,8 +3125,11 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>209</v>
       </c>
@@ -2144,8 +3142,11 @@
       <c r="D5" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>210</v>
       </c>
@@ -2158,8 +3159,11 @@
       <c r="D6" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>211</v>
       </c>
@@ -2172,8 +3176,11 @@
       <c r="D7" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>212</v>
       </c>
@@ -2186,8 +3193,11 @@
       <c r="D8" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>213</v>
       </c>
@@ -2200,8 +3210,11 @@
       <c r="D9" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>214</v>
       </c>
@@ -2214,8 +3227,11 @@
       <c r="D10" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>215</v>
       </c>
@@ -2228,8 +3244,11 @@
       <c r="D11" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>216</v>
       </c>
@@ -2242,8 +3261,11 @@
       <c r="D12" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>217</v>
       </c>
@@ -2256,8 +3278,11 @@
       <c r="D13" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>218</v>
       </c>
@@ -2270,8 +3295,11 @@
       <c r="D14" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>219</v>
       </c>
@@ -2284,8 +3312,11 @@
       <c r="D15" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>220</v>
       </c>
@@ -2298,8 +3329,11 @@
       <c r="D16" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>221</v>
       </c>
@@ -2312,8 +3346,11 @@
       <c r="D17" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>222</v>
       </c>
@@ -2326,8 +3363,11 @@
       <c r="D18" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>223</v>
       </c>
@@ -2340,8 +3380,11 @@
       <c r="D19" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>224</v>
       </c>
@@ -2354,8 +3397,11 @@
       <c r="D20" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>225</v>
       </c>
@@ -2368,8 +3414,11 @@
       <c r="D21" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>226</v>
       </c>
@@ -2382,8 +3431,11 @@
       <c r="D22" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>227</v>
       </c>
@@ -2396,8 +3448,11 @@
       <c r="D23" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>228</v>
       </c>
@@ -2410,8 +3465,11 @@
       <c r="D24" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>229</v>
       </c>
@@ -2424,8 +3482,11 @@
       <c r="D25" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>230</v>
       </c>
@@ -2438,8 +3499,11 @@
       <c r="D26" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>231</v>
       </c>
@@ -2452,8 +3516,11 @@
       <c r="D27" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>232</v>
       </c>
@@ -2466,8 +3533,11 @@
       <c r="D28" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>233</v>
       </c>
@@ -2480,8 +3550,11 @@
       <c r="D29" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>234</v>
       </c>
@@ -2494,8 +3567,11 @@
       <c r="D30" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>235</v>
       </c>
@@ -2508,8 +3584,11 @@
       <c r="D31" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>236</v>
       </c>
@@ -2522,8 +3601,11 @@
       <c r="D32" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>237</v>
       </c>
@@ -2536,8 +3618,11 @@
       <c r="D33" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>238</v>
       </c>
@@ -2550,8 +3635,11 @@
       <c r="D34" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>239</v>
       </c>
@@ -2564,8 +3652,11 @@
       <c r="D35" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>240</v>
       </c>
@@ -2578,8 +3669,11 @@
       <c r="D36" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>241</v>
       </c>
@@ -2592,8 +3686,11 @@
       <c r="D37" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>242</v>
       </c>
@@ -2606,8 +3703,11 @@
       <c r="D38" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>243</v>
       </c>
@@ -2620,8 +3720,11 @@
       <c r="D39" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>244</v>
       </c>
@@ -2634,8 +3737,11 @@
       <c r="D40" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>245</v>
       </c>
@@ -2648,8 +3754,11 @@
       <c r="D41" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>246</v>
       </c>
@@ -2662,8 +3771,11 @@
       <c r="D42" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>247</v>
       </c>
@@ -2676,8 +3788,11 @@
       <c r="D43" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>248</v>
       </c>
@@ -2690,8 +3805,11 @@
       <c r="D44" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>249</v>
       </c>
@@ -2704,8 +3822,11 @@
       <c r="D45" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>250</v>
       </c>
@@ -2718,8 +3839,11 @@
       <c r="D46" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>251</v>
       </c>
@@ -2732,8 +3856,11 @@
       <c r="D47" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>252</v>
       </c>
@@ -2746,8 +3873,11 @@
       <c r="D48" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>253</v>
       </c>
@@ -2760,8 +3890,11 @@
       <c r="D49" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>254</v>
       </c>
@@ -2771,8 +3904,11 @@
       <c r="C50" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>255</v>
       </c>
@@ -2782,8 +3918,11 @@
       <c r="C51" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>256</v>
       </c>
@@ -2793,8 +3932,11 @@
       <c r="C52" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>257</v>
       </c>
@@ -2804,8 +3946,11 @@
       <c r="C53" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>258</v>
       </c>
@@ -2815,8 +3960,11 @@
       <c r="C54" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>259</v>
       </c>
@@ -2829,8 +3977,11 @@
       <c r="D55" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>260</v>
       </c>
@@ -2840,8 +3991,11 @@
       <c r="C56" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>261</v>
       </c>
@@ -2851,8 +4005,11 @@
       <c r="C57" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>262</v>
       </c>
@@ -2862,8 +4019,11 @@
       <c r="C58" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>263</v>
       </c>
@@ -2873,8 +4033,11 @@
       <c r="C59" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>264</v>
       </c>
@@ -2884,8 +4047,11 @@
       <c r="C60" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>265</v>
       </c>
@@ -2895,8 +4061,11 @@
       <c r="C61" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>266</v>
       </c>
@@ -2906,8 +4075,11 @@
       <c r="C62" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>267</v>
       </c>
@@ -2917,8 +4089,11 @@
       <c r="C63" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>268</v>
       </c>
@@ -2928,8 +4103,11 @@
       <c r="C64" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E64" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>269</v>
       </c>
@@ -2939,8 +4117,11 @@
       <c r="C65" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E65" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>270</v>
       </c>
@@ -2950,8 +4131,11 @@
       <c r="C66" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E66" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>271</v>
       </c>
@@ -2961,8 +4145,11 @@
       <c r="C67" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E67" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>272</v>
       </c>
@@ -2972,8 +4159,11 @@
       <c r="C68" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E68" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>273</v>
       </c>
@@ -2983,8 +4173,11 @@
       <c r="C69" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E69" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>274</v>
       </c>
@@ -2994,8 +4187,11 @@
       <c r="C70" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E70" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>275</v>
       </c>
@@ -3005,8 +4201,11 @@
       <c r="C71" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E71" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>276</v>
       </c>
@@ -3016,8 +4215,11 @@
       <c r="C72" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E72" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>277</v>
       </c>
@@ -3027,8 +4229,11 @@
       <c r="C73" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E73" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>278</v>
       </c>
@@ -3038,8 +4243,11 @@
       <c r="C74" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E74" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>279</v>
       </c>
@@ -3049,8 +4257,11 @@
       <c r="C75" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E75" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>280</v>
       </c>
@@ -3060,8 +4271,11 @@
       <c r="C76" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E76" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>281</v>
       </c>
@@ -3071,8 +4285,11 @@
       <c r="C77" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E77" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>282</v>
       </c>
@@ -3082,8 +4299,11 @@
       <c r="C78" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E78" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>283</v>
       </c>
@@ -3093,8 +4313,11 @@
       <c r="C79" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E79" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>284</v>
       </c>
@@ -3104,8 +4327,11 @@
       <c r="C80" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E80" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>285</v>
       </c>
@@ -3115,8 +4341,11 @@
       <c r="C81" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E81" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>286</v>
       </c>
@@ -3126,8 +4355,11 @@
       <c r="C82" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E82" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>287</v>
       </c>
@@ -3137,8 +4369,11 @@
       <c r="C83" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E83" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>288</v>
       </c>
@@ -3148,8 +4383,11 @@
       <c r="C84" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E84" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>289</v>
       </c>
@@ -3159,8 +4397,11 @@
       <c r="C85" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E85" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>290</v>
       </c>
@@ -3170,8 +4411,11 @@
       <c r="C86" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E86" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>291</v>
       </c>
@@ -3181,8 +4425,11 @@
       <c r="C87" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E87" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>292</v>
       </c>
@@ -3192,8 +4439,11 @@
       <c r="C88" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E88" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>293</v>
       </c>
@@ -3203,8 +4453,11 @@
       <c r="C89" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E89" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>294</v>
       </c>
@@ -3214,8 +4467,11 @@
       <c r="C90" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E90" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>295</v>
       </c>
@@ -3225,8 +4481,11 @@
       <c r="C91" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E91" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>296</v>
       </c>
@@ -3236,8 +4495,11 @@
       <c r="C92" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E92" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>297</v>
       </c>
@@ -3247,8 +4509,11 @@
       <c r="C93" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E93" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>298</v>
       </c>
@@ -3258,8 +4523,11 @@
       <c r="C94" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E94" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>299</v>
       </c>
@@ -3269,8 +4537,11 @@
       <c r="C95" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E95" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>300</v>
       </c>
@@ -3280,8 +4551,11 @@
       <c r="C96" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E96" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>301</v>
       </c>
@@ -3291,8 +4565,11 @@
       <c r="C97" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E97" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>302</v>
       </c>
@@ -3302,8 +4579,11 @@
       <c r="C98" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E98" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>303</v>
       </c>
@@ -3313,8 +4593,11 @@
       <c r="C99" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E99" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>304</v>
       </c>
@@ -3324,8 +4607,11 @@
       <c r="C100" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E100" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>305</v>
       </c>
@@ -3335,8 +4621,11 @@
       <c r="C101" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E101" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>306</v>
       </c>
@@ -3346,8 +4635,11 @@
       <c r="C102" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E102" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>307</v>
       </c>
@@ -3357,8 +4649,11 @@
       <c r="C103" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E103" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>308</v>
       </c>
@@ -3368,8 +4663,11 @@
       <c r="C104" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E104" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>309</v>
       </c>
@@ -3379,8 +4677,11 @@
       <c r="C105" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E105" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>310</v>
       </c>
@@ -3390,8 +4691,11 @@
       <c r="C106" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E106" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>311</v>
       </c>
@@ -3401,8 +4705,11 @@
       <c r="C107" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E107" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>312</v>
       </c>
@@ -3412,8 +4719,11 @@
       <c r="C108" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E108" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>313</v>
       </c>
@@ -3423,8 +4733,11 @@
       <c r="C109" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E109" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>314</v>
       </c>
@@ -3434,8 +4747,11 @@
       <c r="C110" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E110" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>315</v>
       </c>
@@ -3445,8 +4761,11 @@
       <c r="C111" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E111" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>316</v>
       </c>
@@ -3456,8 +4775,11 @@
       <c r="C112" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E112" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>317</v>
       </c>
@@ -3467,8 +4789,11 @@
       <c r="C113" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E113" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>318</v>
       </c>
@@ -3478,8 +4803,11 @@
       <c r="C114" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E114" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>319</v>
       </c>
@@ -3489,8 +4817,11 @@
       <c r="C115" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E115" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>320</v>
       </c>
@@ -3500,8 +4831,11 @@
       <c r="C116" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E116" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>321</v>
       </c>
@@ -3511,8 +4845,11 @@
       <c r="C117" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E117" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>322</v>
       </c>
@@ -3522,8 +4859,11 @@
       <c r="C118" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E118" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>323</v>
       </c>
@@ -3533,8 +4873,11 @@
       <c r="C119" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E119" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>324</v>
       </c>
@@ -3544,8 +4887,11 @@
       <c r="C120" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E120" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>325</v>
       </c>
@@ -3555,8 +4901,11 @@
       <c r="C121" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E121" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>326</v>
       </c>
@@ -3566,8 +4915,11 @@
       <c r="C122" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E122" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>327</v>
       </c>
@@ -3577,8 +4929,11 @@
       <c r="C123" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E123" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>328</v>
       </c>
@@ -3588,8 +4943,11 @@
       <c r="C124" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E124" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>329</v>
       </c>
@@ -3599,8 +4957,11 @@
       <c r="C125" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E125" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>330</v>
       </c>
@@ -3610,8 +4971,11 @@
       <c r="C126" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E126" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>331</v>
       </c>
@@ -3621,8 +4985,11 @@
       <c r="C127" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E127" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>332</v>
       </c>
@@ -3632,8 +4999,11 @@
       <c r="C128" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>333</v>
       </c>
@@ -3643,8 +5013,11 @@
       <c r="C129" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>380</v>
       </c>
@@ -3654,8 +5027,17 @@
       <c r="C130" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F130" t="s">
+        <v>704</v>
+      </c>
+      <c r="G130" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>381</v>
       </c>
@@ -3665,8 +5047,17 @@
       <c r="C131" s="4" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F131" t="s">
+        <v>549</v>
+      </c>
+      <c r="G131" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>386</v>
       </c>
@@ -3679,8 +5070,11 @@
       <c r="D132" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>387</v>
       </c>
@@ -3693,8 +5087,11 @@
       <c r="D133" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>389</v>
       </c>
@@ -3704,8 +5101,11 @@
       <c r="C134" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>392</v>
       </c>
@@ -3715,8 +5115,11 @@
       <c r="C135" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>395</v>
       </c>
@@ -3726,8 +5129,11 @@
       <c r="C136" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>397</v>
       </c>
@@ -3740,8 +5146,11 @@
       <c r="D137" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>401</v>
       </c>
@@ -3751,8 +5160,11 @@
       <c r="D138" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>403</v>
       </c>
@@ -3762,8 +5174,11 @@
       <c r="C139" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>406</v>
       </c>
@@ -3776,8 +5191,11 @@
       <c r="D140" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>408</v>
       </c>
@@ -3787,16 +5205,28 @@
       <c r="C141" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F141" t="s">
+        <v>703</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>422</v>
       </c>
@@ -3806,8 +5236,11 @@
       <c r="C143" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>423</v>
       </c>
@@ -3817,8 +5250,11 @@
       <c r="C144" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E144" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>424</v>
       </c>
@@ -3828,8 +5264,11 @@
       <c r="C145" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E145" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>425</v>
       </c>
@@ -3839,8 +5278,11 @@
       <c r="C146" s="7" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E146" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>426</v>
       </c>
@@ -3850,8 +5292,11 @@
       <c r="C147" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E147" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>427</v>
       </c>
@@ -3861,8 +5306,11 @@
       <c r="C148" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E148" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>428</v>
       </c>
@@ -3872,8 +5320,11 @@
       <c r="C149" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E149" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>429</v>
       </c>
@@ -3883,8 +5334,11 @@
       <c r="C150" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E150" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>430</v>
       </c>
@@ -3894,8 +5348,11 @@
       <c r="C151" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E151" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>431</v>
       </c>
@@ -3905,8 +5362,11 @@
       <c r="C152" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E152" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>460</v>
       </c>
@@ -3916,8 +5376,11 @@
       <c r="C153" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E153" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>461</v>
       </c>
@@ -3927,8 +5390,17 @@
       <c r="C154" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E154" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F154" t="s">
+        <v>559</v>
+      </c>
+      <c r="G154" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>462</v>
       </c>
@@ -3938,8 +5410,17 @@
       <c r="C155" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E155" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F155" t="s">
+        <v>708</v>
+      </c>
+      <c r="G155" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>463</v>
       </c>
@@ -3949,8 +5430,17 @@
       <c r="C156" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E156" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F156" t="s">
+        <v>628</v>
+      </c>
+      <c r="G156" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>464</v>
       </c>
@@ -3960,8 +5450,17 @@
       <c r="C157" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E157" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F157" t="s">
+        <v>560</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>465</v>
       </c>
@@ -3971,8 +5470,17 @@
       <c r="C158" s="4" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E158" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F158" t="s">
+        <v>707</v>
+      </c>
+      <c r="G158" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>466</v>
       </c>
@@ -3982,8 +5490,11 @@
       <c r="C159" s="10" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E159" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>467</v>
       </c>
@@ -3993,8 +5504,11 @@
       <c r="C160" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E160" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>468</v>
       </c>
@@ -4004,8 +5518,11 @@
       <c r="C161" s="10" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E161" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>469</v>
       </c>
@@ -4015,8 +5532,11 @@
       <c r="C162" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E162" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>470</v>
       </c>
@@ -4026,8 +5546,11 @@
       <c r="C163" s="10" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E163" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>471</v>
       </c>
@@ -4037,8 +5560,11 @@
       <c r="C164" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E164" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>472</v>
       </c>
@@ -4048,8 +5574,11 @@
       <c r="C165" s="10" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E165" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>473</v>
       </c>
@@ -4059,8 +5588,11 @@
       <c r="C166" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E166" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>474</v>
       </c>
@@ -4070,8 +5602,11 @@
       <c r="C167" s="10" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E167" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>475</v>
       </c>
@@ -4081,8 +5616,11 @@
       <c r="C168" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E168" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>476</v>
       </c>
@@ -4092,8 +5630,11 @@
       <c r="C169" s="10" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E169" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>477</v>
       </c>
@@ -4103,8 +5644,11 @@
       <c r="C170" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E170" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>478</v>
       </c>
@@ -4114,8 +5658,11 @@
       <c r="C171" s="10" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E171" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>479</v>
       </c>
@@ -4125,16 +5672,22 @@
       <c r="C172" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E172" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E173" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>481</v>
       </c>
@@ -4144,8 +5697,11 @@
       <c r="C174" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E174" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>482</v>
       </c>
@@ -4155,16 +5711,22 @@
       <c r="C175" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E175" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>483</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>484</v>
       </c>
@@ -4174,8 +5736,11 @@
       <c r="C177" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>485</v>
       </c>
@@ -4185,8 +5750,17 @@
       <c r="C178" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F178" t="s">
+        <v>700</v>
+      </c>
+      <c r="G178" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>486</v>
       </c>
@@ -4196,8 +5770,11 @@
       <c r="C179" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>493</v>
       </c>
@@ -4210,8 +5787,11 @@
       <c r="D180" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>495</v>
       </c>
@@ -4223,6 +5803,9 @@
       </c>
       <c r="D181" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -4233,6 +5816,4701 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3327CA4D-663D-443F-80DC-1A1E539BD38E}">
+  <dimension ref="A1:F283"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f>Key!A2</f>
+        <v>var00001</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Key!B2</f>
+        <v>E. coli</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Key!C2</f>
+        <v>cfu/100mL</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f>Key!A3</f>
+        <v>var00002</v>
+      </c>
+      <c r="B3" t="str">
+        <f>Key!B3</f>
+        <v>Enterococci</v>
+      </c>
+      <c r="C3" t="str">
+        <f>Key!C3</f>
+        <v>cfu/100mL</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f>Key!A4</f>
+        <v>var00003</v>
+      </c>
+      <c r="B4" t="str">
+        <f>Key!B4</f>
+        <v>TN:TP</v>
+      </c>
+      <c r="C4" t="str">
+        <f>Key!C4</f>
+        <v>mg N / mg P</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f>Key!A5</f>
+        <v>var00004</v>
+      </c>
+      <c r="B5" t="str">
+        <f>Key!B5</f>
+        <v>Organic Nitrogen</v>
+      </c>
+      <c r="C5" t="str">
+        <f>Key!C5</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f>Key!A6</f>
+        <v>var00005</v>
+      </c>
+      <c r="B6" t="str">
+        <f>Key!B6</f>
+        <v>Organic Phosphorus</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Key!C6</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="14">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f>Key!A7</f>
+        <v>var00006</v>
+      </c>
+      <c r="B7" t="str">
+        <f>Key!B7</f>
+        <v>Salinity</v>
+      </c>
+      <c r="C7" t="str">
+        <f>Key!C7</f>
+        <v>psu</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>Key!A8</f>
+        <v>var00007</v>
+      </c>
+      <c r="B8" t="str">
+        <f>Key!B8</f>
+        <v>Temperature</v>
+      </c>
+      <c r="C8" t="str">
+        <f>Key!C8</f>
+        <v>^{\circ}C</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f>Key!A9</f>
+        <v>var00008</v>
+      </c>
+      <c r="B9" t="str">
+        <f>Key!B9</f>
+        <v>Depth</v>
+      </c>
+      <c r="C9" t="str">
+        <f>Key!C9</f>
+        <v>m</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f>Key!A10</f>
+        <v>var00009</v>
+      </c>
+      <c r="B10" t="str">
+        <f>Key!B10</f>
+        <v>Total Nitrogen</v>
+      </c>
+      <c r="C10" t="str">
+        <f>Key!C10</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f>Key!A11</f>
+        <v>var00010</v>
+      </c>
+      <c r="B11" t="str">
+        <f>Key!B11</f>
+        <v>Total Phosphorus</v>
+      </c>
+      <c r="C11" t="str">
+        <f>Key!C11</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="F11" s="14">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f>Key!A12</f>
+        <v>var00011</v>
+      </c>
+      <c r="B12" t="str">
+        <f>Key!B12</f>
+        <v>Total Organic Carbon</v>
+      </c>
+      <c r="C12" t="str">
+        <f>Key!C12</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1.2000000048E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f>Key!A13</f>
+        <v>var00012</v>
+      </c>
+      <c r="B13" t="str">
+        <f>Key!B13</f>
+        <v>Total Suspended Solids</v>
+      </c>
+      <c r="C13" t="str">
+        <f>Key!C13</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f>Key!A14</f>
+        <v>var00013</v>
+      </c>
+      <c r="B14" t="str">
+        <f>Key!B14</f>
+        <v>Turbidity</v>
+      </c>
+      <c r="C14" t="str">
+        <f>Key!C14</f>
+        <v>NTU</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f>Key!A15</f>
+        <v>var00014</v>
+      </c>
+      <c r="B15" t="str">
+        <f>Key!B15</f>
+        <v>Chlorophyll-a</v>
+      </c>
+      <c r="C15" t="str">
+        <f>Key!C15</f>
+        <v>\mug/L</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f>Key!A16</f>
+        <v>var00015</v>
+      </c>
+      <c r="B16" t="str">
+        <f>Key!B16</f>
+        <v>Ruppia Biomass</v>
+      </c>
+      <c r="C16" t="str">
+        <f>Key!C16</f>
+        <v>mmol C/m^2</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f>Key!A17</f>
+        <v>var00016</v>
+      </c>
+      <c r="B17" t="str">
+        <f>Key!B17</f>
+        <v>Suspended Solids #1</v>
+      </c>
+      <c r="C17" t="str">
+        <f>Key!C17</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f>Key!A18</f>
+        <v>var00017</v>
+      </c>
+      <c r="B18" t="str">
+        <f>Key!B18</f>
+        <v>Sediment Mass (SS1)</v>
+      </c>
+      <c r="C18" t="str">
+        <f>Key!C18</f>
+        <v>g/m^2</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f>Key!A19</f>
+        <v>var00018</v>
+      </c>
+      <c r="B19" t="str">
+        <f>Key!B19</f>
+        <v>Suspended Solids #2</v>
+      </c>
+      <c r="C19" t="str">
+        <f>Key!C19</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f>Key!A20</f>
+        <v>var00019</v>
+      </c>
+      <c r="B20" t="str">
+        <f>Key!B20</f>
+        <v>Sediment Mass (SS2)</v>
+      </c>
+      <c r="C20" t="str">
+        <f>Key!C20</f>
+        <v>g/m^2</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f>Key!A21</f>
+        <v>var00020</v>
+      </c>
+      <c r="B21" t="str">
+        <f>Key!B21</f>
+        <v>Suspended Solids #3</v>
+      </c>
+      <c r="C21" t="str">
+        <f>Key!C21</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f>Key!A22</f>
+        <v>var00021</v>
+      </c>
+      <c r="B22" t="str">
+        <f>Key!B22</f>
+        <v>Sediment Mass (SS3)</v>
+      </c>
+      <c r="C22" t="str">
+        <f>Key!C22</f>
+        <v>g/m^2</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f>Key!A23</f>
+        <v>var00022</v>
+      </c>
+      <c r="B23" t="str">
+        <f>Key!B23</f>
+        <v>Water Age</v>
+      </c>
+      <c r="C23" t="str">
+        <f>Key!C23</f>
+        <v>days</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="17">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>Key!A24</f>
+        <v>var00023</v>
+      </c>
+      <c r="B24" t="str">
+        <f>Key!B24</f>
+        <v>Oxygen</v>
+      </c>
+      <c r="C24" t="str">
+        <f>Key!C24</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="F24" s="14">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f>Key!A25</f>
+        <v>var00024</v>
+      </c>
+      <c r="B25" t="str">
+        <f>Key!B25</f>
+        <v>Reactive Silica</v>
+      </c>
+      <c r="C25" t="str">
+        <f>Key!C25</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="F25" s="14">
+        <v>2.81E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f>Key!A26</f>
+        <v>var00025</v>
+      </c>
+      <c r="B26" t="str">
+        <f>Key!B26</f>
+        <v>Ammonium</v>
+      </c>
+      <c r="C26" t="str">
+        <f>Key!C26</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f>Key!A27</f>
+        <v>var00026</v>
+      </c>
+      <c r="B27" t="str">
+        <f>Key!B27</f>
+        <v>Nitrate</v>
+      </c>
+      <c r="C27" t="str">
+        <f>Key!C27</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f>Key!A28</f>
+        <v>var00027</v>
+      </c>
+      <c r="B28" t="str">
+        <f>Key!B28</f>
+        <v>Filterable Reactive Phosphate</v>
+      </c>
+      <c r="C28" t="str">
+        <f>Key!C28</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="F28" s="14">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f>Key!A29</f>
+        <v>var00028</v>
+      </c>
+      <c r="B29" t="str">
+        <f>Key!B29</f>
+        <v>Adsorped Phosphate</v>
+      </c>
+      <c r="C29" t="str">
+        <f>Key!C29</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="F29" s="14">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f>Key!A30</f>
+        <v>var00029</v>
+      </c>
+      <c r="B30" t="str">
+        <f>Key!B30</f>
+        <v>Dissolved Organic Carbon</v>
+      </c>
+      <c r="C30" t="str">
+        <f>Key!C30</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="F30" s="15">
+        <v>1.2000000048E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f>Key!A31</f>
+        <v>var00030</v>
+      </c>
+      <c r="B31" t="str">
+        <f>Key!B31</f>
+        <v>Dissolved Organic Carbon (refractory)</v>
+      </c>
+      <c r="C31" t="str">
+        <f>Key!C31</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="F31" s="15">
+        <v>1.2000000048E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f>Key!A32</f>
+        <v>var00031</v>
+      </c>
+      <c r="B32" t="str">
+        <f>Key!B32</f>
+        <v>Particulate Organic Carbon</v>
+      </c>
+      <c r="C32" t="str">
+        <f>Key!C32</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="F32" s="15">
+        <v>1.2000000048E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <f>Key!A33</f>
+        <v>var00032</v>
+      </c>
+      <c r="B33" t="str">
+        <f>Key!B33</f>
+        <v>Dissolved Organic Nitrogen</v>
+      </c>
+      <c r="C33" t="str">
+        <f>Key!C33</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <f>Key!A34</f>
+        <v>var00033</v>
+      </c>
+      <c r="B34" t="str">
+        <f>Key!B34</f>
+        <v>Particulate Organic Nitrogen</v>
+      </c>
+      <c r="C34" t="str">
+        <f>Key!C34</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <f>Key!A35</f>
+        <v>var00034</v>
+      </c>
+      <c r="B35" t="str">
+        <f>Key!B35</f>
+        <v>Dissolved Organic Nitrogen (refractory)</v>
+      </c>
+      <c r="C35" t="str">
+        <f>Key!C35</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="F35" s="16">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <f>Key!A36</f>
+        <v>var00035</v>
+      </c>
+      <c r="B36" t="str">
+        <f>Key!B36</f>
+        <v>Dissolved Organic Phosphorus</v>
+      </c>
+      <c r="C36" t="str">
+        <f>Key!C36</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="F36" s="14">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <f>Key!A37</f>
+        <v>var00036</v>
+      </c>
+      <c r="B37" t="str">
+        <f>Key!B37</f>
+        <v>Particulate Organic Phosphorus</v>
+      </c>
+      <c r="C37" t="str">
+        <f>Key!C37</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="F37" s="14">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f>Key!A38</f>
+        <v>var00037</v>
+      </c>
+      <c r="B38" t="str">
+        <f>Key!B38</f>
+        <v>Dissolved Organic Phosphorus (refractory)</v>
+      </c>
+      <c r="C38" t="str">
+        <f>Key!C38</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="F38" s="14">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f>Key!A39</f>
+        <v>var00038</v>
+      </c>
+      <c r="B39" t="str">
+        <f>Key!B39</f>
+        <v>Phytoplankton Biomass (greens)</v>
+      </c>
+      <c r="C39" t="str">
+        <f>Key!C39</f>
+        <v>mmol C/m^3</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f>Key!A40</f>
+        <v>var00039</v>
+      </c>
+      <c r="B40" t="str">
+        <f>Key!B40</f>
+        <v>Phytoplankton Biomass (crypt)</v>
+      </c>
+      <c r="C40" t="str">
+        <f>Key!C40</f>
+        <v>mmol C/m^3</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f>Key!A41</f>
+        <v>var00040</v>
+      </c>
+      <c r="B41" t="str">
+        <f>Key!B41</f>
+        <v>Phytoplankton Biomass (diatom)</v>
+      </c>
+      <c r="C41" t="str">
+        <f>Key!C41</f>
+        <v>mmol C/m^3</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <f>Key!A42</f>
+        <v>var00041</v>
+      </c>
+      <c r="B42" t="str">
+        <f>Key!B42</f>
+        <v>Phytoplankton Biomass (dino)</v>
+      </c>
+      <c r="C42" t="str">
+        <f>Key!C42</f>
+        <v>mmol C/m^3</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f>Key!A43</f>
+        <v>var00042</v>
+      </c>
+      <c r="B43" t="str">
+        <f>Key!B43</f>
+        <v>Filamentous Algae (floating)</v>
+      </c>
+      <c r="C43" t="str">
+        <f>Key!C43</f>
+        <v>mmol C/m^3</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f>Key!A44</f>
+        <v>var00043</v>
+      </c>
+      <c r="B44" t="str">
+        <f>Key!B44</f>
+        <v>Filamentous Algae Nitrogen (floating)</v>
+      </c>
+      <c r="C44" t="str">
+        <f>Key!C44</f>
+        <v>mmol N/m^3</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f>Key!A45</f>
+        <v>var00044</v>
+      </c>
+      <c r="B45" t="str">
+        <f>Key!B45</f>
+        <v>Filamentous Algae Phosphorus (floating)</v>
+      </c>
+      <c r="C45" t="str">
+        <f>Key!C45</f>
+        <v>mmol P/m^3</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f>Key!A46</f>
+        <v>var00045</v>
+      </c>
+      <c r="B46" t="str">
+        <f>Key!B46</f>
+        <v>Filamentous Algae Biomass (total)</v>
+      </c>
+      <c r="C46" t="str">
+        <f>Key!C46</f>
+        <v>g DW/m^2</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f>Key!A47</f>
+        <v>var00046</v>
+      </c>
+      <c r="B47" t="str">
+        <f>Key!B47</f>
+        <v>Filamentous Algae Biomass (total)</v>
+      </c>
+      <c r="C47" t="str">
+        <f>Key!C47</f>
+        <v>g DW/m^2</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f>Key!A48</f>
+        <v>var00047</v>
+      </c>
+      <c r="B48" t="str">
+        <f>Key!B48</f>
+        <v>Filamentous Algae Biomass (total)</v>
+      </c>
+      <c r="C48" t="str">
+        <f>Key!C48</f>
+        <v>g DW/m^2</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f>Key!A49</f>
+        <v>var00048</v>
+      </c>
+      <c r="B49" t="str">
+        <f>Key!B49</f>
+        <v>O2 Dissolved Sediment Flux</v>
+      </c>
+      <c r="C49" t="str">
+        <f>Key!C49</f>
+        <v>mmol O_2/m^2</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f>Key!A50</f>
+        <v>var00049</v>
+      </c>
+      <c r="B50" t="str">
+        <f>Key!B50</f>
+        <v>DIC Dissolved Sediment Flux</v>
+      </c>
+      <c r="C50" t="str">
+        <f>Key!C50</f>
+        <v>mmol C/m^2</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
+        <f>Key!A51</f>
+        <v>var00050</v>
+      </c>
+      <c r="B51" t="str">
+        <f>Key!B51</f>
+        <v>NH4 Dissolved Sediment Flux</v>
+      </c>
+      <c r="C51" t="str">
+        <f>Key!C51</f>
+        <v>mmol N/m^2</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
+        <f>Key!A52</f>
+        <v>var00051</v>
+      </c>
+      <c r="B52" t="str">
+        <f>Key!B52</f>
+        <v>NO3 Dissolved Sediment Flux</v>
+      </c>
+      <c r="C52" t="str">
+        <f>Key!C52</f>
+        <v>mmol N/m^2</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <f>Key!A53</f>
+        <v>var00052</v>
+      </c>
+      <c r="B53" t="str">
+        <f>Key!B53</f>
+        <v>FRP Dissolved Sediment Flux</v>
+      </c>
+      <c r="C53" t="str">
+        <f>Key!C53</f>
+        <v>mmol P/m^2</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <f>Key!A54</f>
+        <v>var00053</v>
+      </c>
+      <c r="B54" t="str">
+        <f>Key!B54</f>
+        <v>POC Dissolved Sediment Flux</v>
+      </c>
+      <c r="C54" t="str">
+        <f>Key!C54</f>
+        <v>mmol C/m^2</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <f>Key!A55</f>
+        <v>var00054</v>
+      </c>
+      <c r="B55" t="str">
+        <f>Key!B55</f>
+        <v>DOC Dissolved Sediment Flux</v>
+      </c>
+      <c r="C55" t="str">
+        <f>Key!C55</f>
+        <v>mmol C/m^2</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <f>Key!A56</f>
+        <v>var00055</v>
+      </c>
+      <c r="B56" t="str">
+        <f>Key!B56</f>
+        <v>PON Dissolved Sediment Flux</v>
+      </c>
+      <c r="C56" t="str">
+        <f>Key!C56</f>
+        <v>mmol N/m^2</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <f>Key!A57</f>
+        <v>var00056</v>
+      </c>
+      <c r="B57" t="str">
+        <f>Key!B57</f>
+        <v>DON Dissolved Sediment Flux</v>
+      </c>
+      <c r="C57" t="str">
+        <f>Key!C57</f>
+        <v>mmol N/m^2</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
+        <f>Key!A58</f>
+        <v>var00057</v>
+      </c>
+      <c r="B58" t="str">
+        <f>Key!B58</f>
+        <v>POP Dissolved Sediment Flux</v>
+      </c>
+      <c r="C58" t="str">
+        <f>Key!C58</f>
+        <v>mmol P/m^2</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="str">
+        <f>Key!A59</f>
+        <v>var00058</v>
+      </c>
+      <c r="B59" t="str">
+        <f>Key!B59</f>
+        <v>DOP Dissolved Sediment Flux</v>
+      </c>
+      <c r="C59" t="str">
+        <f>Key!C59</f>
+        <v>mmol P/m^2</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="str">
+        <f>Key!A60</f>
+        <v>var00059</v>
+      </c>
+      <c r="B60" t="str">
+        <f>Key!B60</f>
+        <v>Photosynthetically Active Radiation</v>
+      </c>
+      <c r="C60" t="str">
+        <f>Key!C60</f>
+        <v>W/m^2</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="str">
+        <f>Key!A61</f>
+        <v>var00060</v>
+      </c>
+      <c r="B61" t="str">
+        <f>Key!B61</f>
+        <v>Ruppia Gross Primary Productivity</v>
+      </c>
+      <c r="C61" t="str">
+        <f>Key!C61</f>
+        <v>mmol C/m^3/d</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="str">
+        <f>Key!A62</f>
+        <v>var00061</v>
+      </c>
+      <c r="B62" t="str">
+        <f>Key!B62</f>
+        <v>Ruppia Net Primary Productivity</v>
+      </c>
+      <c r="C62" t="str">
+        <f>Key!C62</f>
+        <v>mmol C/m^3/d</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="str">
+        <f>Key!A63</f>
+        <v>var00062</v>
+      </c>
+      <c r="B63" t="str">
+        <f>Key!B63</f>
+        <v>Ruppia Biomass</v>
+      </c>
+      <c r="C63" t="str">
+        <f>Key!C63</f>
+        <v>mmol C/m^2</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="str">
+        <f>Key!A64</f>
+        <v>var00063</v>
+      </c>
+      <c r="B64" t="str">
+        <f>Key!B64</f>
+        <v>Ruppia Leaf Area Index</v>
+      </c>
+      <c r="C64" t="str">
+        <f>Key!C64</f>
+        <v>m^2/m^2</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
+        <f>Key!A65</f>
+        <v>var00064</v>
+      </c>
+      <c r="B65" t="str">
+        <f>Key!B65</f>
+        <v>Ruppia Biomass (above-ground)</v>
+      </c>
+      <c r="C65" t="str">
+        <f>Key!C65</f>
+        <v>mmol C/m^2</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
+        <f>Key!A66</f>
+        <v>var00065</v>
+      </c>
+      <c r="B66" t="str">
+        <f>Key!B66</f>
+        <v>Ruppia Biomass (below-ground)</v>
+      </c>
+      <c r="C66" t="str">
+        <f>Key!C66</f>
+        <v>mmol C/m^2</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="str">
+        <f>Key!A67</f>
+        <v>var00066</v>
+      </c>
+      <c r="B67" t="str">
+        <f>Key!B67</f>
+        <v>Ruppia Root Depth</v>
+      </c>
+      <c r="C67" t="str">
+        <f>Key!C67</f>
+        <v>m</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="str">
+        <f>Key!A68</f>
+        <v>var00067</v>
+      </c>
+      <c r="B68" t="str">
+        <f>Key!B68</f>
+        <v>Ruppia O2 Injection Rate</v>
+      </c>
+      <c r="C68" t="str">
+        <f>Key!C68</f>
+        <v>mmol O_2/m^2</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="str">
+        <f>Key!A69</f>
+        <v>var00068</v>
+      </c>
+      <c r="B69" t="str">
+        <f>Key!B69</f>
+        <v>Sedimentation Velocity (SS1)</v>
+      </c>
+      <c r="C69" t="str">
+        <f>Key!C69</f>
+        <v>m/d</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F69" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="str">
+        <f>Key!A70</f>
+        <v>var00069</v>
+      </c>
+      <c r="B70" t="str">
+        <f>Key!B70</f>
+        <v>Sedimentation Rate (SS1)</v>
+      </c>
+      <c r="C70" t="str">
+        <f>Key!C70</f>
+        <v>g/m^3/d</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="str">
+        <f>Key!A71</f>
+        <v>var00070</v>
+      </c>
+      <c r="B71" t="str">
+        <f>Key!B71</f>
+        <v>Sedimentation Velocity (SS2)</v>
+      </c>
+      <c r="C71" t="str">
+        <f>Key!C71</f>
+        <v>m/d</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="str">
+        <f>Key!A72</f>
+        <v>var00071</v>
+      </c>
+      <c r="B72" t="str">
+        <f>Key!B72</f>
+        <v>Sedimentation Rate (SS2)</v>
+      </c>
+      <c r="C72" t="str">
+        <f>Key!C72</f>
+        <v>g/m^3/d</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="str">
+        <f>Key!A73</f>
+        <v>var00072</v>
+      </c>
+      <c r="B73" t="str">
+        <f>Key!B73</f>
+        <v>Sedimentation Velocity (SS3)</v>
+      </c>
+      <c r="C73" t="str">
+        <f>Key!C73</f>
+        <v>m/d</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="str">
+        <f>Key!A74</f>
+        <v>var00073</v>
+      </c>
+      <c r="B74" t="str">
+        <f>Key!B74</f>
+        <v>Sedimentation Rate (SS3)</v>
+      </c>
+      <c r="C74" t="str">
+        <f>Key!C74</f>
+        <v>g/m^3/d</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="str">
+        <f>Key!A75</f>
+        <v>var00074</v>
+      </c>
+      <c r="B75" t="str">
+        <f>Key!B75</f>
+        <v>Sediment Mass</v>
+      </c>
+      <c r="C75" t="str">
+        <f>Key!C75</f>
+        <v>g/m^2</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="str">
+        <f>Key!A76</f>
+        <v>var00075</v>
+      </c>
+      <c r="B76" t="str">
+        <f>Key!B76</f>
+        <v>Critical Shear Stress</v>
+      </c>
+      <c r="C76" t="str">
+        <f>Key!C76</f>
+        <v>N/m^2</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F76" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="str">
+        <f>Key!A77</f>
+        <v>var00076</v>
+      </c>
+      <c r="B77" t="str">
+        <f>Key!B77</f>
+        <v>Resuspension Rate</v>
+      </c>
+      <c r="C77" t="str">
+        <f>Key!C77</f>
+        <v>g/m^2/d</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="str">
+        <f>Key!A78</f>
+        <v>var00077</v>
+      </c>
+      <c r="B78" t="str">
+        <f>Key!B78</f>
+        <v>Sediment Fraction (SS1)</v>
+      </c>
+      <c r="C78" t="str">
+        <f>Key!C78</f>
+        <v>v/v</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F78" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="str">
+        <f>Key!A79</f>
+        <v>var00078</v>
+      </c>
+      <c r="B79" t="str">
+        <f>Key!B79</f>
+        <v>Sediment Fraction (SS2)</v>
+      </c>
+      <c r="C79" t="str">
+        <f>Key!C79</f>
+        <v>v/v</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="str">
+        <f>Key!A80</f>
+        <v>var00079</v>
+      </c>
+      <c r="B80" t="str">
+        <f>Key!B80</f>
+        <v>Sediment Fraction (SS3)</v>
+      </c>
+      <c r="C80" t="str">
+        <f>Key!C80</f>
+        <v>v/v</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F80" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="str">
+        <f>Key!A81</f>
+        <v>var00080</v>
+      </c>
+      <c r="B81" t="str">
+        <f>Key!B81</f>
+        <v>Sedimentation Rate (SS)</v>
+      </c>
+      <c r="C81" t="str">
+        <f>Key!C81</f>
+        <v>g/m^3/d</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F81" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="str">
+        <f>Key!A82</f>
+        <v>var00081</v>
+      </c>
+      <c r="B82" t="str">
+        <f>Key!B82</f>
+        <v>SS Net SWI Flux</v>
+      </c>
+      <c r="C82" t="str">
+        <f>Key!C82</f>
+        <v>g/m^2/d</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="str">
+        <f>Key!A83</f>
+        <v>var00082</v>
+      </c>
+      <c r="B83" t="str">
+        <f>Key!B83</f>
+        <v>Change in SWI Position</v>
+      </c>
+      <c r="C83" t="str">
+        <f>Key!C83</f>
+        <v>m</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="str">
+        <f>Key!A84</f>
+        <v>var00083</v>
+      </c>
+      <c r="B84" t="str">
+        <f>Key!B84</f>
+        <v>Resuspension Rate (SS)</v>
+      </c>
+      <c r="C84" t="str">
+        <f>Key!C84</f>
+        <v>g/m^2/d</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="str">
+        <f>Key!A85</f>
+        <v>var00084</v>
+      </c>
+      <c r="B85" t="str">
+        <f>Key!B85</f>
+        <v>Bottom Shear Stress</v>
+      </c>
+      <c r="C85" t="str">
+        <f>Key!C85</f>
+        <v>N/m^2</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F85" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="str">
+        <f>Key!A86</f>
+        <v>var00085</v>
+      </c>
+      <c r="B86" t="str">
+        <f>Key!B86</f>
+        <v>O2 Saturation</v>
+      </c>
+      <c r="C86" t="str">
+        <f>Key!C86</f>
+        <v>%</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F86" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="str">
+        <f>Key!A87</f>
+        <v>var00086</v>
+      </c>
+      <c r="B87" t="str">
+        <f>Key!B87</f>
+        <v>O2 Dissolved Sediment Flux</v>
+      </c>
+      <c r="C87" t="str">
+        <f>Key!C87</f>
+        <v>mmol O_2/m^2</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F87" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="str">
+        <f>Key!A88</f>
+        <v>var00087</v>
+      </c>
+      <c r="B88" t="str">
+        <f>Key!B88</f>
+        <v>O2 Atmospheric Flux</v>
+      </c>
+      <c r="C88" t="str">
+        <f>Key!C88</f>
+        <v>mmol O_2/m^2</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F88" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="str">
+        <f>Key!A89</f>
+        <v>var00088</v>
+      </c>
+      <c r="B89" t="str">
+        <f>Key!B89</f>
+        <v>O2 Dissolved Sediment Exchange Rate</v>
+      </c>
+      <c r="C89" t="str">
+        <f>Key!C89</f>
+        <v>mmol O_2/m^3</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F89" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="str">
+        <f>Key!A90</f>
+        <v>var00089</v>
+      </c>
+      <c r="B90" t="str">
+        <f>Key!B90</f>
+        <v>O2 Atmospheric Exchange Rate</v>
+      </c>
+      <c r="C90" t="str">
+        <f>Key!C90</f>
+        <v>mmol O_2/m^3</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F90" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="str">
+        <f>Key!A91</f>
+        <v>var00090</v>
+      </c>
+      <c r="B91" t="str">
+        <f>Key!B91</f>
+        <v>Si Dissolved Sediment Flux</v>
+      </c>
+      <c r="C91" t="str">
+        <f>Key!C91</f>
+        <v>mmol Si/m^2</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F91" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="str">
+        <f>Key!A92</f>
+        <v>var00091</v>
+      </c>
+      <c r="B92" t="str">
+        <f>Key!B92</f>
+        <v>NH4 Dissolved Sediment Flux</v>
+      </c>
+      <c r="C92" t="str">
+        <f>Key!C92</f>
+        <v>mmol N/m^2</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F92" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="str">
+        <f>Key!A93</f>
+        <v>var00092</v>
+      </c>
+      <c r="B93" t="str">
+        <f>Key!B93</f>
+        <v>NO3 Dissolved Sediment Flux</v>
+      </c>
+      <c r="C93" t="str">
+        <f>Key!C93</f>
+        <v>mmol N/m^2</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F93" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="str">
+        <f>Key!A94</f>
+        <v>var00093</v>
+      </c>
+      <c r="B94" t="str">
+        <f>Key!B94</f>
+        <v>Nitrification Rate</v>
+      </c>
+      <c r="C94" t="str">
+        <f>Key!C94</f>
+        <v>mmol N/m^3/d</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F94" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="str">
+        <f>Key!A95</f>
+        <v>var00094</v>
+      </c>
+      <c r="B95" t="str">
+        <f>Key!B95</f>
+        <v>Denitrification Rate</v>
+      </c>
+      <c r="C95" t="str">
+        <f>Key!C95</f>
+        <v>mmol N/m^3/d</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F95" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="str">
+        <f>Key!A96</f>
+        <v>var00095</v>
+      </c>
+      <c r="B96" t="str">
+        <f>Key!B96</f>
+        <v>Annamox Rate</v>
+      </c>
+      <c r="C96" t="str">
+        <f>Key!C96</f>
+        <v>mmol N/m^3/d</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F96" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" t="str">
+        <f>Key!A97</f>
+        <v>var00096</v>
+      </c>
+      <c r="B97" t="str">
+        <f>Key!B97</f>
+        <v>DNRA Rate</v>
+      </c>
+      <c r="C97" t="str">
+        <f>Key!C97</f>
+        <v>mmol N/m^3/d</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F97" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" t="str">
+        <f>Key!A98</f>
+        <v>var00097</v>
+      </c>
+      <c r="B98" t="str">
+        <f>Key!B98</f>
+        <v>DIN Atmospheric Deposition Flux</v>
+      </c>
+      <c r="C98" t="str">
+        <f>Key!C98</f>
+        <v>mmol N/m^2/d</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F98" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" t="str">
+        <f>Key!A99</f>
+        <v>var00098</v>
+      </c>
+      <c r="B99" t="str">
+        <f>Key!B99</f>
+        <v>PIP Sedimentation Rate</v>
+      </c>
+      <c r="C99" t="str">
+        <f>Key!C99</f>
+        <v>mmol P/m^3/d</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F99" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" t="str">
+        <f>Key!A100</f>
+        <v>var00099</v>
+      </c>
+      <c r="B100" t="str">
+        <f>Key!B100</f>
+        <v>PIP Resuspension Rate</v>
+      </c>
+      <c r="C100" t="str">
+        <f>Key!C100</f>
+        <v>mmol P/m^2/d</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" t="str">
+        <f>Key!A101</f>
+        <v>var00100</v>
+      </c>
+      <c r="B101" t="str">
+        <f>Key!B101</f>
+        <v>PIP Net SWI Flux</v>
+      </c>
+      <c r="C101" t="str">
+        <f>Key!C101</f>
+        <v>mmol P/m^2/d</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" t="str">
+        <f>Key!A102</f>
+        <v>var00101</v>
+      </c>
+      <c r="B102" t="str">
+        <f>Key!B102</f>
+        <v>FRP Sorption Rate</v>
+      </c>
+      <c r="C102" t="str">
+        <f>Key!C102</f>
+        <v>mmol P/m^3/d</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F102" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" t="str">
+        <f>Key!A103</f>
+        <v>var00102</v>
+      </c>
+      <c r="B103" t="str">
+        <f>Key!B103</f>
+        <v>FRP Dissolved Sediment Flux</v>
+      </c>
+      <c r="C103" t="str">
+        <f>Key!C103</f>
+        <v>mmol P/m^2/d</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F103" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" t="str">
+        <f>Key!A104</f>
+        <v>var00103</v>
+      </c>
+      <c r="B104" t="str">
+        <f>Key!B104</f>
+        <v>DIP Atmospheric Deposition Flux</v>
+      </c>
+      <c r="C104" t="str">
+        <f>Key!C104</f>
+        <v>mmol P/m^2/d</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" t="str">
+        <f>Key!A105</f>
+        <v>var00104</v>
+      </c>
+      <c r="B105" t="str">
+        <f>Key!B105</f>
+        <v>POC Sedimentation Rate</v>
+      </c>
+      <c r="C105" t="str">
+        <f>Key!C105</f>
+        <v>mmol C/m^3/d</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F105" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" t="str">
+        <f>Key!A106</f>
+        <v>var00105</v>
+      </c>
+      <c r="B106" t="str">
+        <f>Key!B106</f>
+        <v>PON Sedimentation Rate</v>
+      </c>
+      <c r="C106" t="str">
+        <f>Key!C106</f>
+        <v>mmol N/m^3/d</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F106" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" t="str">
+        <f>Key!A107</f>
+        <v>var00106</v>
+      </c>
+      <c r="B107" t="str">
+        <f>Key!B107</f>
+        <v>POP Sedimentation Rate</v>
+      </c>
+      <c r="C107" t="str">
+        <f>Key!C107</f>
+        <v>mmol P/m^3/d</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F107" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" t="str">
+        <f>Key!A108</f>
+        <v>var00107</v>
+      </c>
+      <c r="B108" t="str">
+        <f>Key!B108</f>
+        <v>Sediment OM Fraction</v>
+      </c>
+      <c r="C108" t="str">
+        <f>Key!C108</f>
+        <v>v/v</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F108" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" t="str">
+        <f>Key!A109</f>
+        <v>var00108</v>
+      </c>
+      <c r="B109" t="str">
+        <f>Key!B109</f>
+        <v>Chromophoric DOM</v>
+      </c>
+      <c r="C109" t="str">
+        <f>Key!C109</f>
+        <v>/m</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F109" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" t="str">
+        <f>Key!A110</f>
+        <v>var00109</v>
+      </c>
+      <c r="B110" t="str">
+        <f>Key!B110</f>
+        <v>Sediment Total Organic Carbon</v>
+      </c>
+      <c r="C110" t="str">
+        <f>Key!C110</f>
+        <v>mmol C/m^2</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" t="str">
+        <f>Key!A111</f>
+        <v>var00110</v>
+      </c>
+      <c r="B111" t="str">
+        <f>Key!B111</f>
+        <v>Sediment Total Organic Nitrogen</v>
+      </c>
+      <c r="C111" t="str">
+        <f>Key!C111</f>
+        <v>mmol N/m^2</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F111" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" t="str">
+        <f>Key!A112</f>
+        <v>var00111</v>
+      </c>
+      <c r="B112" t="str">
+        <f>Key!B112</f>
+        <v>Sediment Total Organic Phosphorus</v>
+      </c>
+      <c r="C112" t="str">
+        <f>Key!C112</f>
+        <v>mmol P/m^2</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F112" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" t="str">
+        <f>Key!A113</f>
+        <v>var00112</v>
+      </c>
+      <c r="B113" t="str">
+        <f>Key!B113</f>
+        <v>POC Net SWI Flux</v>
+      </c>
+      <c r="C113" t="str">
+        <f>Key!C113</f>
+        <v>mmol C/m^2/d</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F113" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" t="str">
+        <f>Key!A114</f>
+        <v>var00113</v>
+      </c>
+      <c r="B114" t="str">
+        <f>Key!B114</f>
+        <v>DOC Net SWI Flux</v>
+      </c>
+      <c r="C114" t="str">
+        <f>Key!C114</f>
+        <v>mmol C/m^2/d</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F114" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="str">
+        <f>Key!A115</f>
+        <v>var00114</v>
+      </c>
+      <c r="B115" t="str">
+        <f>Key!B115</f>
+        <v>PON Net SWI Flux</v>
+      </c>
+      <c r="C115" t="str">
+        <f>Key!C115</f>
+        <v>mmol N/m^2/d</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F115" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" t="str">
+        <f>Key!A116</f>
+        <v>var00115</v>
+      </c>
+      <c r="B116" t="str">
+        <f>Key!B116</f>
+        <v>DON Net SWI Flux</v>
+      </c>
+      <c r="C116" t="str">
+        <f>Key!C116</f>
+        <v>mmol N/m^2/d</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F116" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" t="str">
+        <f>Key!A117</f>
+        <v>var00116</v>
+      </c>
+      <c r="B117" t="str">
+        <f>Key!B117</f>
+        <v>POP Net SWI Flux</v>
+      </c>
+      <c r="C117" t="str">
+        <f>Key!C117</f>
+        <v>mmol P/m^2/d</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F117" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" t="str">
+        <f>Key!A118</f>
+        <v>var00117</v>
+      </c>
+      <c r="B118" t="str">
+        <f>Key!B118</f>
+        <v>DOP Net SWI Flux</v>
+      </c>
+      <c r="C118" t="str">
+        <f>Key!C118</f>
+        <v>mmol P/m^2/d</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F118" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" t="str">
+        <f>Key!A119</f>
+        <v>var00118</v>
+      </c>
+      <c r="B119" t="str">
+        <f>Key!B119</f>
+        <v>POC Resuspension Rate</v>
+      </c>
+      <c r="C119" t="str">
+        <f>Key!C119</f>
+        <v>mmol C/m^2/d</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F119" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" t="str">
+        <f>Key!A120</f>
+        <v>var00119</v>
+      </c>
+      <c r="B120" t="str">
+        <f>Key!B120</f>
+        <v>PON Resuspension Rate</v>
+      </c>
+      <c r="C120" t="str">
+        <f>Key!C120</f>
+        <v>mmol N/m^2/d</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F120" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" t="str">
+        <f>Key!A121</f>
+        <v>var00120</v>
+      </c>
+      <c r="B121" t="str">
+        <f>Key!B121</f>
+        <v>POP Resuspension Rate</v>
+      </c>
+      <c r="C121" t="str">
+        <f>Key!C121</f>
+        <v>mmol P/m^2/d</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F121" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" t="str">
+        <f>Key!A122</f>
+        <v>var00121</v>
+      </c>
+      <c r="B122" t="str">
+        <f>Key!B122</f>
+        <v>POC Hydrolysis Rate</v>
+      </c>
+      <c r="C122" t="str">
+        <f>Key!C122</f>
+        <v>mmol C/m^3/d</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F122" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" t="str">
+        <f>Key!A123</f>
+        <v>var00122</v>
+      </c>
+      <c r="B123" t="str">
+        <f>Key!B123</f>
+        <v>PON Hydrolysis Rate</v>
+      </c>
+      <c r="C123" t="str">
+        <f>Key!C123</f>
+        <v>mmol N/m^3/d</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F123" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" t="str">
+        <f>Key!A124</f>
+        <v>var00123</v>
+      </c>
+      <c r="B124" t="str">
+        <f>Key!B124</f>
+        <v>POP Hydrolysis Rate</v>
+      </c>
+      <c r="C124" t="str">
+        <f>Key!C124</f>
+        <v>mmol P/m^3/d</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F124" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" t="str">
+        <f>Key!A125</f>
+        <v>var00124</v>
+      </c>
+      <c r="B125" t="str">
+        <f>Key!B125</f>
+        <v>DOC Mineralisation Rate</v>
+      </c>
+      <c r="C125" t="str">
+        <f>Key!C125</f>
+        <v>mmol C/m^3/d</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F125" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" t="str">
+        <f>Key!A126</f>
+        <v>var00125</v>
+      </c>
+      <c r="B126" t="str">
+        <f>Key!B126</f>
+        <v>DON Mineralisation Rate</v>
+      </c>
+      <c r="C126" t="str">
+        <f>Key!C126</f>
+        <v>mmol N/m^3/d</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F126" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" t="str">
+        <f>Key!A127</f>
+        <v>var00126</v>
+      </c>
+      <c r="B127" t="str">
+        <f>Key!B127</f>
+        <v>DOP Mineralisation Rate</v>
+      </c>
+      <c r="C127" t="str">
+        <f>Key!C127</f>
+        <v>mmol P/m^3/d</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F127" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" t="str">
+        <f>Key!A128</f>
+        <v>var00127</v>
+      </c>
+      <c r="B128" t="str">
+        <f>Key!B128</f>
+        <v>DOC Mineralisation Rate (anaerobic)</v>
+      </c>
+      <c r="C128" t="str">
+        <f>Key!C128</f>
+        <v>mmol C/m^3/d</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F128" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" t="str">
+        <f>Key!A129</f>
+        <v>var00128</v>
+      </c>
+      <c r="B129" t="str">
+        <f>Key!B129</f>
+        <v>DOC Mineralisation Rate (denitrification)</v>
+      </c>
+      <c r="C129" t="str">
+        <f>Key!C129</f>
+        <v>mmol C/m^3/d</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F129" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" t="str">
+        <f>Key!A130</f>
+        <v>var00129</v>
+      </c>
+      <c r="B130" t="str">
+        <f>Key!B130</f>
+        <v>Wind Direction</v>
+      </c>
+      <c r="C130" t="str">
+        <f>Key!C130</f>
+        <v>ø</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" t="str">
+        <f>Key!A131</f>
+        <v>var00130</v>
+      </c>
+      <c r="B131" t="str">
+        <f>Key!B131</f>
+        <v>Wind Speed</v>
+      </c>
+      <c r="C131" t="str">
+        <f>Key!C131</f>
+        <v>m/s</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" t="str">
+        <f>Key!A132</f>
+        <v>var00131</v>
+      </c>
+      <c r="B132" t="str">
+        <f>Key!B132</f>
+        <v>Chlorophyll-b</v>
+      </c>
+      <c r="C132" t="str">
+        <f>Key!C132</f>
+        <v>\mug/L</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" t="str">
+        <f>Key!A133</f>
+        <v>var00132</v>
+      </c>
+      <c r="B133" t="str">
+        <f>Key!B133</f>
+        <v>Chlorophyll-c</v>
+      </c>
+      <c r="C133" t="str">
+        <f>Key!C133</f>
+        <v>\mug/L</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" t="str">
+        <f>Key!A134</f>
+        <v>var00133</v>
+      </c>
+      <c r="B134" t="str">
+        <f>Key!B134</f>
+        <v>Cloud Cover</v>
+      </c>
+      <c r="C134" t="str">
+        <f>Key!C134</f>
+        <v>%</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" t="str">
+        <f>Key!A135</f>
+        <v>var00134</v>
+      </c>
+      <c r="B135" t="str">
+        <f>Key!B135</f>
+        <v>Conductivity</v>
+      </c>
+      <c r="C135" t="str">
+        <f>Key!C135</f>
+        <v>\muS/cm</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" t="str">
+        <f>Key!A136</f>
+        <v>var00135</v>
+      </c>
+      <c r="B136" t="str">
+        <f>Key!B136</f>
+        <v>Flow Status</v>
+      </c>
+      <c r="C136" t="str">
+        <f>Key!C136</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" t="str">
+        <f>Key!A137</f>
+        <v>var00136</v>
+      </c>
+      <c r="B137" t="str">
+        <f>Key!B137</f>
+        <v>Total TKN</v>
+      </c>
+      <c r="C137" t="str">
+        <f>Key!C137</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" t="str">
+        <f>Key!A138</f>
+        <v>var00137</v>
+      </c>
+      <c r="B138" t="str">
+        <f>Key!B138</f>
+        <v>pH</v>
+      </c>
+      <c r="C138">
+        <f>Key!C138</f>
+        <v>0</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" t="str">
+        <f>Key!A139</f>
+        <v>var00138</v>
+      </c>
+      <c r="B139" t="str">
+        <f>Key!B139</f>
+        <v>Phaeophytin a</v>
+      </c>
+      <c r="C139" t="str">
+        <f>Key!C139</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" t="str">
+        <f>Key!A140</f>
+        <v>var00139</v>
+      </c>
+      <c r="B140" t="str">
+        <f>Key!B140</f>
+        <v>Total Alkalinity</v>
+      </c>
+      <c r="C140" t="str">
+        <f>Key!C140</f>
+        <v>mg/L</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" t="str">
+        <f>Key!A141</f>
+        <v>var00140</v>
+      </c>
+      <c r="B141" t="str">
+        <f>Key!B141</f>
+        <v>Secchi depth</v>
+      </c>
+      <c r="C141" t="str">
+        <f>Key!C141</f>
+        <v>m</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" t="str">
+        <f>Key!A142</f>
+        <v>var00141</v>
+      </c>
+      <c r="B142" t="str">
+        <f>Key!B142</f>
+        <v>Tide status</v>
+      </c>
+      <c r="C142">
+        <f>Key!C142</f>
+        <v>0</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" t="str">
+        <f>Key!A143</f>
+        <v>var00142</v>
+      </c>
+      <c r="B143" t="str">
+        <f>Key!B143</f>
+        <v>Max Discharge</v>
+      </c>
+      <c r="C143" t="str">
+        <f>Key!C143</f>
+        <v>m/s</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" t="str">
+        <f>Key!A144</f>
+        <v>var00143</v>
+      </c>
+      <c r="B144" t="str">
+        <f>Key!B144</f>
+        <v>Mean Discharge</v>
+      </c>
+      <c r="C144" t="str">
+        <f>Key!C144</f>
+        <v>m/s</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" t="str">
+        <f>Key!A145</f>
+        <v>var00144</v>
+      </c>
+      <c r="B145" t="str">
+        <f>Key!B145</f>
+        <v>Min Discharge</v>
+      </c>
+      <c r="C145" t="str">
+        <f>Key!C145</f>
+        <v>m/s</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" t="str">
+        <f>Key!A146</f>
+        <v>var00145</v>
+      </c>
+      <c r="B146" t="str">
+        <f>Key!B146</f>
+        <v>Discharge</v>
+      </c>
+      <c r="C146" t="str">
+        <f>Key!C146</f>
+        <v>ML</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" t="str">
+        <f>Key!A147</f>
+        <v>var00146</v>
+      </c>
+      <c r="B147" t="str">
+        <f>Key!B147</f>
+        <v>Max Stage Height CTF</v>
+      </c>
+      <c r="C147" t="str">
+        <f>Key!C147</f>
+        <v>m</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" t="str">
+        <f>Key!A148</f>
+        <v>var00147</v>
+      </c>
+      <c r="B148" t="str">
+        <f>Key!B148</f>
+        <v>Mean Stage Height CTF</v>
+      </c>
+      <c r="C148" t="str">
+        <f>Key!C148</f>
+        <v>m</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" t="str">
+        <f>Key!A149</f>
+        <v>var00148</v>
+      </c>
+      <c r="B149" t="str">
+        <f>Key!B149</f>
+        <v>Min Stage Height CTF</v>
+      </c>
+      <c r="C149" t="str">
+        <f>Key!C149</f>
+        <v>m</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" t="str">
+        <f>Key!A150</f>
+        <v>var00149</v>
+      </c>
+      <c r="B150" t="str">
+        <f>Key!B150</f>
+        <v>Max Stage Height</v>
+      </c>
+      <c r="C150" t="str">
+        <f>Key!C150</f>
+        <v>m</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" t="str">
+        <f>Key!A151</f>
+        <v>var00150</v>
+      </c>
+      <c r="B151" t="str">
+        <f>Key!B151</f>
+        <v>Mean Stage Height</v>
+      </c>
+      <c r="C151" t="str">
+        <f>Key!C151</f>
+        <v>m</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" t="str">
+        <f>Key!A152</f>
+        <v>var00151</v>
+      </c>
+      <c r="B152" t="str">
+        <f>Key!B152</f>
+        <v>Min Stage Height</v>
+      </c>
+      <c r="C152" t="str">
+        <f>Key!C152</f>
+        <v>m</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" t="str">
+        <f>Key!A153</f>
+        <v>var00152</v>
+      </c>
+      <c r="B153" t="str">
+        <f>Key!B153</f>
+        <v>Precipitation</v>
+      </c>
+      <c r="C153" t="str">
+        <f>Key!C153</f>
+        <v>m</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" t="str">
+        <f>Key!A154</f>
+        <v>var00153</v>
+      </c>
+      <c r="B154" t="str">
+        <f>Key!B154</f>
+        <v>Air Temperature</v>
+      </c>
+      <c r="C154" t="str">
+        <f>Key!C154</f>
+        <v>^{\circ}C</v>
+      </c>
+      <c r="D154" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" t="str">
+        <f>Key!A155</f>
+        <v>var00154</v>
+      </c>
+      <c r="B155" t="str">
+        <f>Key!B155</f>
+        <v>Wet Bulb Air Temperature</v>
+      </c>
+      <c r="C155" t="str">
+        <f>Key!C155</f>
+        <v>^{\circ}C</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" t="str">
+        <f>Key!A156</f>
+        <v>var00155</v>
+      </c>
+      <c r="B156" t="str">
+        <f>Key!B156</f>
+        <v>Dew Point Temperature</v>
+      </c>
+      <c r="C156" t="str">
+        <f>Key!C156</f>
+        <v>^{\circ}C</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" t="str">
+        <f>Key!A157</f>
+        <v>var00156</v>
+      </c>
+      <c r="B157" t="str">
+        <f>Key!B157</f>
+        <v>Relative Humidity</v>
+      </c>
+      <c r="C157" t="str">
+        <f>Key!C157</f>
+        <v>%</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" t="str">
+        <f>Key!A158</f>
+        <v>var00157</v>
+      </c>
+      <c r="B158" t="str">
+        <f>Key!B158</f>
+        <v>Max Wind Speed</v>
+      </c>
+      <c r="C158" t="str">
+        <f>Key!C158</f>
+        <v>m/s</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" t="str">
+        <f>Key!A159</f>
+        <v>var00158</v>
+      </c>
+      <c r="B159" t="str">
+        <f>Key!B159</f>
+        <v>Cloud amount of first group in eighths</v>
+      </c>
+      <c r="C159" t="str">
+        <f>Key!C159</f>
+        <v>oktas</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" t="str">
+        <f>Key!A160</f>
+        <v>var00159</v>
+      </c>
+      <c r="B160" t="str">
+        <f>Key!B160</f>
+        <v>Cloud height of first group</v>
+      </c>
+      <c r="C160" t="str">
+        <f>Key!C160</f>
+        <v>ft</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" t="str">
+        <f>Key!A161</f>
+        <v>var00160</v>
+      </c>
+      <c r="B161" t="str">
+        <f>Key!B161</f>
+        <v>Cloud amount of second group in eighths</v>
+      </c>
+      <c r="C161" t="str">
+        <f>Key!C161</f>
+        <v>oktas</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" t="str">
+        <f>Key!A162</f>
+        <v>var00161</v>
+      </c>
+      <c r="B162" t="str">
+        <f>Key!B162</f>
+        <v>Cloud height of second group</v>
+      </c>
+      <c r="C162" t="str">
+        <f>Key!C162</f>
+        <v>ft</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" t="str">
+        <f>Key!A163</f>
+        <v>var00162</v>
+      </c>
+      <c r="B163" t="str">
+        <f>Key!B163</f>
+        <v>Cloud amount of third group in eighths</v>
+      </c>
+      <c r="C163" t="str">
+        <f>Key!C163</f>
+        <v>oktas</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" t="str">
+        <f>Key!A164</f>
+        <v>var00163</v>
+      </c>
+      <c r="B164" t="str">
+        <f>Key!B164</f>
+        <v>Cloud height of third group</v>
+      </c>
+      <c r="C164" t="str">
+        <f>Key!C164</f>
+        <v>ft</v>
+      </c>
+      <c r="D164" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" t="str">
+        <f>Key!A165</f>
+        <v>var00164</v>
+      </c>
+      <c r="B165" t="str">
+        <f>Key!B165</f>
+        <v>Cloud amount of fourth group in eighths</v>
+      </c>
+      <c r="C165" t="str">
+        <f>Key!C165</f>
+        <v>oktas</v>
+      </c>
+      <c r="D165" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" t="str">
+        <f>Key!A166</f>
+        <v>var00165</v>
+      </c>
+      <c r="B166" t="str">
+        <f>Key!B166</f>
+        <v>Cloud height of fourth group</v>
+      </c>
+      <c r="C166" t="str">
+        <f>Key!C166</f>
+        <v>ft</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167" t="str">
+        <f>Key!A167</f>
+        <v>var00166</v>
+      </c>
+      <c r="B167" t="str">
+        <f>Key!B167</f>
+        <v>Ceilometer cloud amount of first group</v>
+      </c>
+      <c r="C167" t="str">
+        <f>Key!C167</f>
+        <v>oktas</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168" t="str">
+        <f>Key!A168</f>
+        <v>var00167</v>
+      </c>
+      <c r="B168" t="str">
+        <f>Key!B168</f>
+        <v>Ceilometer cloud height of first group</v>
+      </c>
+      <c r="C168" t="str">
+        <f>Key!C168</f>
+        <v>ft</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" t="str">
+        <f>Key!A169</f>
+        <v>var00168</v>
+      </c>
+      <c r="B169" t="str">
+        <f>Key!B169</f>
+        <v>Ceilometer cloud amount of second group</v>
+      </c>
+      <c r="C169" t="str">
+        <f>Key!C169</f>
+        <v>oktas</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" t="str">
+        <f>Key!A170</f>
+        <v>var00169</v>
+      </c>
+      <c r="B170" t="str">
+        <f>Key!B170</f>
+        <v>Ceilometer cloud height of second group</v>
+      </c>
+      <c r="C170" t="str">
+        <f>Key!C170</f>
+        <v>ft</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" t="str">
+        <f>Key!A171</f>
+        <v>var00170</v>
+      </c>
+      <c r="B171" t="str">
+        <f>Key!B171</f>
+        <v>Ceilometer cloud amount of third group</v>
+      </c>
+      <c r="C171" t="str">
+        <f>Key!C171</f>
+        <v>oktas</v>
+      </c>
+      <c r="D171" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" t="str">
+        <f>Key!A172</f>
+        <v>var00171</v>
+      </c>
+      <c r="B172" t="str">
+        <f>Key!B172</f>
+        <v>Ceilometer cloud height of third group</v>
+      </c>
+      <c r="C172" t="str">
+        <f>Key!C172</f>
+        <v>ft</v>
+      </c>
+      <c r="D172" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" t="str">
+        <f>Key!A173</f>
+        <v>var00172</v>
+      </c>
+      <c r="B173" t="str">
+        <f>Key!B173</f>
+        <v>Ceilometer sky clear flag</v>
+      </c>
+      <c r="C173">
+        <f>Key!C173</f>
+        <v>0</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" t="str">
+        <f>Key!A174</f>
+        <v>var00173</v>
+      </c>
+      <c r="B174" t="str">
+        <f>Key!B174</f>
+        <v>Horizontal visibility</v>
+      </c>
+      <c r="C174" t="str">
+        <f>Key!C174</f>
+        <v>km</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" t="str">
+        <f>Key!A175</f>
+        <v>var00174</v>
+      </c>
+      <c r="B175" t="str">
+        <f>Key!B175</f>
+        <v>AWS visibility</v>
+      </c>
+      <c r="C175" t="str">
+        <f>Key!C175</f>
+        <v>km</v>
+      </c>
+      <c r="D175" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" t="str">
+        <f>Key!A176</f>
+        <v>var00175</v>
+      </c>
+      <c r="B176" t="str">
+        <f>Key!B176</f>
+        <v>Present weather in code</v>
+      </c>
+      <c r="C176">
+        <f>Key!C176</f>
+        <v>0</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" t="str">
+        <f>Key!A177</f>
+        <v>var00176</v>
+      </c>
+      <c r="B177" t="str">
+        <f>Key!B177</f>
+        <v>Mean sea level pressure</v>
+      </c>
+      <c r="C177" t="str">
+        <f>Key!C177</f>
+        <v>hPa</v>
+      </c>
+      <c r="D177" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" t="str">
+        <f>Key!A178</f>
+        <v>var00177</v>
+      </c>
+      <c r="B178" t="str">
+        <f>Key!B178</f>
+        <v>Station level pressure</v>
+      </c>
+      <c r="C178" t="str">
+        <f>Key!C178</f>
+        <v>hPa</v>
+      </c>
+      <c r="D178" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" t="str">
+        <f>Key!A179</f>
+        <v>var00178</v>
+      </c>
+      <c r="B179" t="str">
+        <f>Key!B179</f>
+        <v>Chlorophyll sample volume</v>
+      </c>
+      <c r="C179" t="str">
+        <f>Key!C179</f>
+        <v>mL</v>
+      </c>
+      <c r="D179" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E179" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F179" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" t="str">
+        <f>Key!A180</f>
+        <v>var00179</v>
+      </c>
+      <c r="B180" t="str">
+        <f>Key!B180</f>
+        <v>Bottom Depth</v>
+      </c>
+      <c r="C180" t="str">
+        <f>Key!C180</f>
+        <v>m</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" t="str">
+        <f>Key!A181</f>
+        <v>var00180</v>
+      </c>
+      <c r="B181" t="str">
+        <f>Key!B181</f>
+        <v>Tidal Height</v>
+      </c>
+      <c r="C181" t="str">
+        <f>Key!C181</f>
+        <v>m</v>
+      </c>
+      <c r="D181" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D186" s="14"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="14"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D188" s="14"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D192" s="14"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="14"/>
+    </row>
+    <row r="193" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+    </row>
+    <row r="194" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D194" s="14"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="14"/>
+    </row>
+    <row r="195" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="14"/>
+    </row>
+    <row r="196" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="14"/>
+    </row>
+    <row r="197" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D197" s="14"/>
+      <c r="E197" s="14"/>
+      <c r="F197" s="14"/>
+    </row>
+    <row r="198" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D198" s="14"/>
+      <c r="E198" s="14"/>
+      <c r="F198" s="14"/>
+    </row>
+    <row r="199" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D199" s="14"/>
+      <c r="E199" s="14"/>
+      <c r="F199" s="14"/>
+    </row>
+    <row r="200" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D200" s="14"/>
+      <c r="E200" s="14"/>
+      <c r="F200" s="14"/>
+    </row>
+    <row r="201" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D201" s="14"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="14"/>
+    </row>
+    <row r="202" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14"/>
+    </row>
+    <row r="203" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D203" s="14"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+    </row>
+    <row r="204" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D204" s="14"/>
+      <c r="E204" s="14"/>
+      <c r="F204" s="14"/>
+    </row>
+    <row r="205" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D205" s="14"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="14"/>
+    </row>
+    <row r="206" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D206" s="14"/>
+      <c r="E206" s="14"/>
+      <c r="F206" s="14"/>
+    </row>
+    <row r="207" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D207" s="14"/>
+      <c r="E207" s="14"/>
+      <c r="F207" s="14"/>
+    </row>
+    <row r="208" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D208" s="14"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="14"/>
+    </row>
+    <row r="209" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D209" s="14"/>
+      <c r="E209" s="14"/>
+      <c r="F209" s="14"/>
+    </row>
+    <row r="210" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+      <c r="F210" s="14"/>
+    </row>
+    <row r="211" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D211" s="14"/>
+      <c r="E211" s="14"/>
+      <c r="F211" s="14"/>
+    </row>
+    <row r="212" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+    </row>
+    <row r="213" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D213" s="14"/>
+      <c r="E213" s="14"/>
+      <c r="F213" s="14"/>
+    </row>
+    <row r="214" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D214" s="14"/>
+      <c r="E214" s="14"/>
+      <c r="F214" s="14"/>
+    </row>
+    <row r="215" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D215" s="14"/>
+      <c r="E215" s="14"/>
+      <c r="F215" s="14"/>
+    </row>
+    <row r="216" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D216" s="14"/>
+      <c r="E216" s="14"/>
+      <c r="F216" s="14"/>
+    </row>
+    <row r="217" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D217" s="14"/>
+      <c r="E217" s="14"/>
+      <c r="F217" s="14"/>
+    </row>
+    <row r="218" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D218" s="14"/>
+      <c r="E218" s="14"/>
+      <c r="F218" s="14"/>
+    </row>
+    <row r="219" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D219" s="14"/>
+      <c r="E219" s="14"/>
+      <c r="F219" s="14"/>
+    </row>
+    <row r="220" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D220" s="14"/>
+      <c r="E220" s="14"/>
+      <c r="F220" s="14"/>
+    </row>
+    <row r="221" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D221" s="14"/>
+      <c r="E221" s="14"/>
+      <c r="F221" s="14"/>
+    </row>
+    <row r="222" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D222" s="14"/>
+      <c r="E222" s="14"/>
+      <c r="F222" s="14"/>
+    </row>
+    <row r="223" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D223" s="14"/>
+      <c r="E223" s="14"/>
+      <c r="F223" s="14"/>
+    </row>
+    <row r="224" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+      <c r="F224" s="14"/>
+    </row>
+    <row r="225" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D225" s="14"/>
+      <c r="E225" s="14"/>
+      <c r="F225" s="14"/>
+    </row>
+    <row r="226" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D226" s="14"/>
+      <c r="E226" s="14"/>
+      <c r="F226" s="14"/>
+    </row>
+    <row r="227" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D227" s="14"/>
+      <c r="E227" s="14"/>
+      <c r="F227" s="14"/>
+    </row>
+    <row r="228" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D228" s="14"/>
+      <c r="E228" s="14"/>
+      <c r="F228" s="14"/>
+    </row>
+    <row r="229" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D229" s="14"/>
+      <c r="E229" s="14"/>
+      <c r="F229" s="14"/>
+    </row>
+    <row r="230" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
+      <c r="F230" s="14"/>
+    </row>
+    <row r="231" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D231" s="14"/>
+      <c r="E231" s="14"/>
+      <c r="F231" s="14"/>
+    </row>
+    <row r="232" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D232" s="14"/>
+      <c r="E232" s="14"/>
+      <c r="F232" s="14"/>
+    </row>
+    <row r="233" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D233" s="14"/>
+      <c r="E233" s="14"/>
+      <c r="F233" s="14"/>
+    </row>
+    <row r="234" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D234" s="14"/>
+      <c r="E234" s="14"/>
+      <c r="F234" s="14"/>
+    </row>
+    <row r="235" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D235" s="14"/>
+      <c r="E235" s="14"/>
+      <c r="F235" s="14"/>
+    </row>
+    <row r="236" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D236" s="14"/>
+      <c r="E236" s="14"/>
+      <c r="F236" s="14"/>
+    </row>
+    <row r="237" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D237" s="14"/>
+      <c r="E237" s="14"/>
+      <c r="F237" s="14"/>
+    </row>
+    <row r="238" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D238" s="14"/>
+      <c r="E238" s="14"/>
+      <c r="F238" s="14"/>
+    </row>
+    <row r="239" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D239" s="14"/>
+      <c r="E239" s="14"/>
+      <c r="F239" s="14"/>
+    </row>
+    <row r="240" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D240" s="14"/>
+      <c r="E240" s="14"/>
+      <c r="F240" s="14"/>
+    </row>
+    <row r="241" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D241" s="14"/>
+      <c r="E241" s="14"/>
+      <c r="F241" s="14"/>
+    </row>
+    <row r="242" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D242" s="14"/>
+      <c r="E242" s="14"/>
+      <c r="F242" s="14"/>
+    </row>
+    <row r="243" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D243" s="14"/>
+      <c r="E243" s="14"/>
+      <c r="F243" s="14"/>
+    </row>
+    <row r="244" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D244" s="14"/>
+      <c r="E244" s="14"/>
+      <c r="F244" s="14"/>
+    </row>
+    <row r="245" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D245" s="14"/>
+      <c r="E245" s="14"/>
+      <c r="F245" s="14"/>
+    </row>
+    <row r="246" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D246" s="14"/>
+      <c r="E246" s="14"/>
+      <c r="F246" s="14"/>
+    </row>
+    <row r="247" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D247" s="14"/>
+      <c r="E247" s="14"/>
+      <c r="F247" s="14"/>
+    </row>
+    <row r="248" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D248" s="14"/>
+      <c r="E248" s="14"/>
+      <c r="F248" s="14"/>
+    </row>
+    <row r="249" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D249" s="14"/>
+      <c r="E249" s="14"/>
+      <c r="F249" s="14"/>
+    </row>
+    <row r="250" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D250" s="14"/>
+      <c r="E250" s="14"/>
+      <c r="F250" s="14"/>
+    </row>
+    <row r="251" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D251" s="14"/>
+      <c r="E251" s="14"/>
+      <c r="F251" s="14"/>
+    </row>
+    <row r="252" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D252" s="14"/>
+      <c r="E252" s="14"/>
+      <c r="F252" s="14"/>
+    </row>
+    <row r="253" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D253" s="14"/>
+      <c r="E253" s="14"/>
+      <c r="F253" s="14"/>
+    </row>
+    <row r="254" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D254" s="14"/>
+      <c r="E254" s="14"/>
+      <c r="F254" s="14"/>
+    </row>
+    <row r="255" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D255" s="14"/>
+      <c r="E255" s="14"/>
+      <c r="F255" s="14"/>
+    </row>
+    <row r="256" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D256" s="14"/>
+      <c r="E256" s="14"/>
+      <c r="F256" s="14"/>
+    </row>
+    <row r="257" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D257" s="14"/>
+      <c r="E257" s="14"/>
+      <c r="F257" s="14"/>
+    </row>
+    <row r="258" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D258" s="14"/>
+      <c r="E258" s="14"/>
+      <c r="F258" s="14"/>
+    </row>
+    <row r="259" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D259" s="14"/>
+      <c r="E259" s="14"/>
+      <c r="F259" s="14"/>
+    </row>
+    <row r="260" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D260" s="14"/>
+      <c r="E260" s="14"/>
+      <c r="F260" s="14"/>
+    </row>
+    <row r="261" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D261" s="14"/>
+      <c r="E261" s="14"/>
+      <c r="F261" s="14"/>
+    </row>
+    <row r="262" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D262" s="14"/>
+      <c r="E262" s="14"/>
+      <c r="F262" s="14"/>
+    </row>
+    <row r="263" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D263" s="14"/>
+      <c r="E263" s="14"/>
+      <c r="F263" s="14"/>
+    </row>
+    <row r="264" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D264" s="14"/>
+      <c r="E264" s="14"/>
+      <c r="F264" s="14"/>
+    </row>
+    <row r="265" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D265" s="14"/>
+      <c r="E265" s="14"/>
+      <c r="F265" s="14"/>
+    </row>
+    <row r="266" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D266" s="14"/>
+      <c r="E266" s="14"/>
+      <c r="F266" s="14"/>
+    </row>
+    <row r="267" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D267" s="14"/>
+      <c r="E267" s="14"/>
+      <c r="F267" s="14"/>
+    </row>
+    <row r="268" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D268" s="14"/>
+      <c r="E268" s="14"/>
+      <c r="F268" s="14"/>
+    </row>
+    <row r="269" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D269" s="14"/>
+      <c r="E269" s="14"/>
+      <c r="F269" s="14"/>
+    </row>
+    <row r="270" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D270" s="14"/>
+      <c r="E270" s="14"/>
+      <c r="F270" s="14"/>
+    </row>
+    <row r="271" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D271" s="14"/>
+      <c r="E271" s="14"/>
+      <c r="F271" s="14"/>
+    </row>
+    <row r="272" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D272" s="14"/>
+      <c r="E272" s="14"/>
+      <c r="F272" s="14"/>
+    </row>
+    <row r="273" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D273" s="14"/>
+      <c r="E273" s="14"/>
+      <c r="F273" s="14"/>
+    </row>
+    <row r="274" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D274" s="14"/>
+      <c r="E274" s="14"/>
+      <c r="F274" s="14"/>
+    </row>
+    <row r="275" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D275" s="14"/>
+      <c r="E275" s="14"/>
+      <c r="F275" s="14"/>
+    </row>
+    <row r="276" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D276" s="14"/>
+      <c r="E276" s="14"/>
+      <c r="F276" s="14"/>
+    </row>
+    <row r="277" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D277" s="14"/>
+      <c r="E277" s="14"/>
+      <c r="F277" s="14"/>
+    </row>
+    <row r="278" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D278" s="14"/>
+      <c r="E278" s="14"/>
+      <c r="F278" s="14"/>
+    </row>
+    <row r="279" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D279" s="14"/>
+      <c r="E279" s="14"/>
+      <c r="F279" s="14"/>
+    </row>
+    <row r="280" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D280" s="14"/>
+      <c r="E280" s="14"/>
+      <c r="F280" s="14"/>
+    </row>
+    <row r="281" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D281" s="14"/>
+      <c r="E281" s="14"/>
+      <c r="F281" s="14"/>
+    </row>
+    <row r="282" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D282" s="14"/>
+      <c r="E282" s="14"/>
+      <c r="F282" s="14"/>
+    </row>
+    <row r="283" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D283" s="14"/>
+      <c r="E283" s="14"/>
+      <c r="F283" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B891FCC8-6932-42EA-B0A0-1A3A06F7421B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -4240,14 +10518,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>374</v>
       </c>
@@ -4261,7 +10539,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>497</v>
       </c>
@@ -4283,7 +10561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618D0C58-8C8E-440E-A497-ABAD71259CF4}">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -4291,16 +10569,16 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>374</v>
       </c>
@@ -4314,7 +10592,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>432</v>
       </c>
@@ -4330,7 +10608,7 @@
         <v>Precipitation</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>433</v>
       </c>
@@ -4345,7 +10623,7 @@
         <v>Air Temperature</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>434</v>
       </c>
@@ -4360,7 +10638,7 @@
         <v>Wet Bulb Air Temperature</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>435</v>
       </c>
@@ -4375,7 +10653,7 @@
         <v>Dew Point Temperature</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>436</v>
       </c>
@@ -4390,7 +10668,7 @@
         <v>Relative Humidity</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>437</v>
       </c>
@@ -4406,7 +10684,7 @@
         <v>Wind Speed</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>438</v>
       </c>
@@ -4421,7 +10699,7 @@
         <v>Wind Direction</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>439</v>
       </c>
@@ -4437,7 +10715,7 @@
         <v>Max Wind Speed</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>440</v>
       </c>
@@ -4452,7 +10730,7 @@
         <v>Cloud amount of first group in eighths</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>441</v>
       </c>
@@ -4467,7 +10745,7 @@
         <v>Cloud height of first group</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>520</v>
       </c>
@@ -4482,7 +10760,7 @@
         <v>Cloud amount of second group in eighths</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>442</v>
       </c>
@@ -4497,7 +10775,7 @@
         <v>Cloud height of second group</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>443</v>
       </c>
@@ -4512,7 +10790,7 @@
         <v>Cloud amount of third group in eighths</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>444</v>
       </c>
@@ -4527,7 +10805,7 @@
         <v>Cloud height of third group</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>445</v>
       </c>
@@ -4542,7 +10820,7 @@
         <v>Cloud amount of fourth group in eighths</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>446</v>
       </c>
@@ -4557,7 +10835,7 @@
         <v>Cloud height of fourth group</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>447</v>
       </c>
@@ -4572,7 +10850,7 @@
         <v>Ceilometer cloud amount of first group</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>448</v>
       </c>
@@ -4587,7 +10865,7 @@
         <v>Ceilometer cloud height of first group</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>449</v>
       </c>
@@ -4602,7 +10880,7 @@
         <v>Ceilometer cloud amount of second group</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>450</v>
       </c>
@@ -4617,7 +10895,7 @@
         <v>Ceilometer cloud height of second group</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>451</v>
       </c>
@@ -4632,7 +10910,7 @@
         <v>Ceilometer cloud amount of third group</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>452</v>
       </c>
@@ -4647,7 +10925,7 @@
         <v>Ceilometer cloud height of third group</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>453</v>
       </c>
@@ -4662,7 +10940,7 @@
         <v>Ceilometer sky clear flag</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>454</v>
       </c>
@@ -4677,7 +10955,7 @@
         <v>Horizontal visibility</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>455</v>
       </c>
@@ -4692,7 +10970,7 @@
         <v>AWS visibility</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>456</v>
       </c>
@@ -4707,7 +10985,7 @@
         <v>Present weather in code</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>457</v>
       </c>
@@ -4722,7 +11000,7 @@
         <v>Mean sea level pressure</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>458</v>
       </c>
@@ -4743,7 +11021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F53C71-6126-496F-BF12-2421C1B2ABC6}">
   <dimension ref="A1:D41"/>
   <sheetViews>
@@ -4751,15 +11029,15 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="36.7265625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" style="2"/>
+    <col min="4" max="4" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>374</v>
       </c>
@@ -4773,7 +11051,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>334</v>
       </c>
@@ -4788,7 +11066,7 @@
         <v>Total Alkalinity</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>335</v>
       </c>
@@ -4803,7 +11081,7 @@
         <v>Bottom Depth</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>336</v>
       </c>
@@ -4818,7 +11096,7 @@
         <v>Dissolved Organic Carbon</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>337</v>
       </c>
@@ -4833,7 +11111,7 @@
         <v>Chlorophyll-a</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>338</v>
       </c>
@@ -4848,7 +11126,7 @@
         <v>Chlorophyll-b</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>339</v>
       </c>
@@ -4863,7 +11141,7 @@
         <v>Chlorophyll-c</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>340</v>
       </c>
@@ -4878,7 +11156,7 @@
         <v>Chlorophyll sample volume</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>341</v>
       </c>
@@ -4893,7 +11171,7 @@
         <v>Cloud Cover</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>342</v>
       </c>
@@ -4908,7 +11186,7 @@
         <v>Conductivity</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>343</v>
       </c>
@@ -4923,7 +11201,7 @@
         <v>Flow Status</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>344</v>
       </c>
@@ -4939,7 +11217,7 @@
         <v>Dissolved Organic Nitrogen</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>345</v>
       </c>
@@ -4955,7 +11233,7 @@
         <v>Nitrate</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>346</v>
       </c>
@@ -4971,7 +11249,7 @@
         <v>Total TKN</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>347</v>
       </c>
@@ -4987,7 +11265,7 @@
         <v>Total Nitrogen</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>348</v>
       </c>
@@ -5003,7 +11281,7 @@
         <v>Ammonium</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>349</v>
       </c>
@@ -5018,7 +11296,7 @@
         <v>O2 Saturation</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>350</v>
       </c>
@@ -5033,7 +11311,7 @@
         <v>Oxygen</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>351</v>
       </c>
@@ -5049,7 +11327,7 @@
         <v>Total Phosphorus</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>352</v>
       </c>
@@ -5064,7 +11342,7 @@
         <v>pH</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>353</v>
       </c>
@@ -5079,7 +11357,7 @@
         <v>Phaeophytin a</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>354</v>
       </c>
@@ -5095,7 +11373,7 @@
         <v>Filterable Reactive Phosphate</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>355</v>
       </c>
@@ -5110,7 +11388,7 @@
         <v>Salinity</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>356</v>
       </c>
@@ -5125,7 +11403,7 @@
         <v>Secchi depth</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>357</v>
       </c>
@@ -5141,7 +11419,7 @@
         <v>Reactive Silica</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>358</v>
       </c>
@@ -5156,7 +11434,7 @@
         <v>Total Suspended Solids</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>359</v>
       </c>
@@ -5171,7 +11449,7 @@
         <v>Temperature</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>360</v>
       </c>
@@ -5186,7 +11464,7 @@
         <v>Tide status</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>361</v>
       </c>
@@ -5201,7 +11479,7 @@
         <v>Turbidity</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>362</v>
       </c>
@@ -5216,7 +11494,7 @@
         <v>Wind Direction</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>363</v>
       </c>
@@ -5232,7 +11510,7 @@
         <v>Wind Speed</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>364</v>
       </c>
@@ -5247,7 +11525,7 @@
         <v>Max Discharge</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>365</v>
       </c>
@@ -5262,7 +11540,7 @@
         <v>Mean Discharge</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>366</v>
       </c>
@@ -5277,7 +11555,7 @@
         <v>Min Discharge</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>367</v>
       </c>
@@ -5292,7 +11570,7 @@
         <v>Discharge</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>368</v>
       </c>
@@ -5307,7 +11585,7 @@
         <v>Max Stage Height CTF</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>369</v>
       </c>
@@ -5322,7 +11600,7 @@
         <v>Mean Stage Height CTF</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>370</v>
       </c>
@@ -5337,7 +11615,7 @@
         <v>Min Stage Height CTF</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>371</v>
       </c>
@@ -5352,7 +11630,7 @@
         <v>Max Stage Height</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>372</v>
       </c>
@@ -5367,7 +11645,7 @@
         <v>Mean Stage Height</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>373</v>
       </c>
@@ -5386,4 +11664,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B6692B-9920-4E77-9D5B-6B101F30D414}">
+  <dimension ref="A3:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="52.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>840</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-lake/variable_key.xlsx
+++ b/data-lake/variable_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-lake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29C4938-36D5-4A33-B51A-ECE7306D354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668FDFC6-9708-42D6-BB99-2842996F4ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1040" windowWidth="14400" windowHeight="7590" activeTab="1" xr2:uid="{6DF7D7CC-01DB-4B77-91E2-7CCE474EE386}"/>
+    <workbookView xWindow="1380" yWindow="1380" windowWidth="14400" windowHeight="7590" xr2:uid="{6DF7D7CC-01DB-4B77-91E2-7CCE474EE386}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="DWER" sheetId="2" r:id="rId5"/>
     <sheet name="Information" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Key!$A$1:$H$181</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="848">
   <si>
     <t>Units</t>
   </si>
@@ -2571,6 +2574,18 @@
   </si>
   <si>
     <t>mmol /m^3</t>
+  </si>
+  <si>
+    <t>g kg-1</t>
+  </si>
+  <si>
+    <t>sea_water_salinity</t>
+  </si>
+  <si>
+    <t>sea_water_temperature</t>
+  </si>
+  <si>
+    <t>sea_water_turbidity</t>
   </si>
 </sst>
 </file>
@@ -3034,9 +3049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D1833-63F5-4230-AD16-32E9E48F56BB}">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3094,6 +3109,9 @@
       <c r="E2" s="1" t="s">
         <v>527</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -3111,6 +3129,9 @@
       <c r="E3" s="1" t="s">
         <v>528</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -3128,6 +3149,9 @@
       <c r="E4" s="1" t="s">
         <v>536</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -3145,6 +3169,9 @@
       <c r="E5" s="1" t="s">
         <v>537</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -3162,8 +3189,11 @@
       <c r="E6" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>211</v>
       </c>
@@ -3179,8 +3209,17 @@
       <c r="E7" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>212</v>
       </c>
@@ -3195,6 +3234,15 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>530</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-273.14999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3213,6 +3261,9 @@
       <c r="E9" s="1" t="s">
         <v>531</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -3230,6 +3281,9 @@
       <c r="E10" s="1" t="s">
         <v>539</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -3247,6 +3301,9 @@
       <c r="E11" s="1" t="s">
         <v>540</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -3264,6 +3321,9 @@
       <c r="E12" s="1" t="s">
         <v>577</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -3281,8 +3341,11 @@
       <c r="E13" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>218</v>
       </c>
@@ -3297,6 +3360,15 @@
       </c>
       <c r="E14" s="1" t="s">
         <v>532</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -3315,6 +3387,9 @@
       <c r="E15" s="1" t="s">
         <v>694</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -3332,8 +3407,11 @@
       <c r="E16" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>221</v>
       </c>
@@ -3349,8 +3427,11 @@
       <c r="E17" s="1" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>222</v>
       </c>
@@ -3366,8 +3447,11 @@
       <c r="E18" s="1" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>223</v>
       </c>
@@ -3383,8 +3467,11 @@
       <c r="E19" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>224</v>
       </c>
@@ -3400,8 +3487,11 @@
       <c r="E20" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>225</v>
       </c>
@@ -3417,8 +3507,11 @@
       <c r="E21" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>226</v>
       </c>
@@ -3434,8 +3527,11 @@
       <c r="E22" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>227</v>
       </c>
@@ -3451,8 +3547,11 @@
       <c r="E23" s="1" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>228</v>
       </c>
@@ -3468,8 +3567,11 @@
       <c r="E24" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>229</v>
       </c>
@@ -3485,8 +3587,11 @@
       <c r="E25" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>230</v>
       </c>
@@ -3502,8 +3607,11 @@
       <c r="E26" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>231</v>
       </c>
@@ -3519,8 +3627,11 @@
       <c r="E27" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>232</v>
       </c>
@@ -3536,8 +3647,11 @@
       <c r="E28" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>233</v>
       </c>
@@ -3553,8 +3667,11 @@
       <c r="E29" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>234</v>
       </c>
@@ -3570,8 +3687,11 @@
       <c r="E30" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>235</v>
       </c>
@@ -3587,8 +3707,11 @@
       <c r="E31" s="1" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>236</v>
       </c>
@@ -3604,8 +3727,11 @@
       <c r="E32" s="1" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>237</v>
       </c>
@@ -3621,8 +3747,11 @@
       <c r="E33" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>238</v>
       </c>
@@ -3638,8 +3767,11 @@
       <c r="E34" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>239</v>
       </c>
@@ -3655,8 +3787,11 @@
       <c r="E35" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>240</v>
       </c>
@@ -3672,8 +3807,11 @@
       <c r="E36" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>241</v>
       </c>
@@ -3689,8 +3827,11 @@
       <c r="E37" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>242</v>
       </c>
@@ -3706,8 +3847,11 @@
       <c r="E38" s="1" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>243</v>
       </c>
@@ -3723,8 +3867,11 @@
       <c r="E39" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>244</v>
       </c>
@@ -3740,8 +3887,11 @@
       <c r="E40" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>245</v>
       </c>
@@ -3757,8 +3907,11 @@
       <c r="E41" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>246</v>
       </c>
@@ -3774,8 +3927,11 @@
       <c r="E42" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>247</v>
       </c>
@@ -3791,8 +3947,11 @@
       <c r="E43" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>248</v>
       </c>
@@ -3808,8 +3967,11 @@
       <c r="E44" s="1" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>249</v>
       </c>
@@ -3825,8 +3987,11 @@
       <c r="E45" s="1" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>250</v>
       </c>
@@ -3842,8 +4007,11 @@
       <c r="E46" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>251</v>
       </c>
@@ -3859,8 +4027,11 @@
       <c r="E47" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>252</v>
       </c>
@@ -3876,8 +4047,11 @@
       <c r="E48" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>253</v>
       </c>
@@ -3893,8 +4067,11 @@
       <c r="E49" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>254</v>
       </c>
@@ -3907,8 +4084,11 @@
       <c r="E50" s="1" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>255</v>
       </c>
@@ -3921,8 +4101,11 @@
       <c r="E51" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>256</v>
       </c>
@@ -3935,8 +4118,11 @@
       <c r="E52" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>257</v>
       </c>
@@ -3949,8 +4135,11 @@
       <c r="E53" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>258</v>
       </c>
@@ -3963,8 +4152,11 @@
       <c r="E54" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>259</v>
       </c>
@@ -3980,8 +4172,11 @@
       <c r="E55" s="1" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>260</v>
       </c>
@@ -3994,8 +4189,11 @@
       <c r="E56" s="1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>261</v>
       </c>
@@ -4008,8 +4206,11 @@
       <c r="E57" s="1" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>262</v>
       </c>
@@ -4022,8 +4223,11 @@
       <c r="E58" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>263</v>
       </c>
@@ -4036,8 +4240,11 @@
       <c r="E59" s="1" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>264</v>
       </c>
@@ -4050,8 +4257,11 @@
       <c r="E60" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>265</v>
       </c>
@@ -4064,8 +4274,11 @@
       <c r="E61" s="1" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>266</v>
       </c>
@@ -4078,8 +4291,11 @@
       <c r="E62" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>267</v>
       </c>
@@ -4092,8 +4308,11 @@
       <c r="E63" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>268</v>
       </c>
@@ -4106,8 +4325,11 @@
       <c r="E64" s="1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>269</v>
       </c>
@@ -4120,8 +4342,11 @@
       <c r="E65" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>270</v>
       </c>
@@ -4134,8 +4359,11 @@
       <c r="E66" s="1" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>271</v>
       </c>
@@ -4148,8 +4376,11 @@
       <c r="E67" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>272</v>
       </c>
@@ -4162,8 +4393,11 @@
       <c r="E68" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>273</v>
       </c>
@@ -4176,8 +4410,11 @@
       <c r="E69" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>274</v>
       </c>
@@ -4190,8 +4427,11 @@
       <c r="E70" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>275</v>
       </c>
@@ -4204,8 +4444,11 @@
       <c r="E71" s="1" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>276</v>
       </c>
@@ -4218,8 +4461,11 @@
       <c r="E72" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>277</v>
       </c>
@@ -4232,8 +4478,11 @@
       <c r="E73" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>278</v>
       </c>
@@ -4246,8 +4495,11 @@
       <c r="E74" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>279</v>
       </c>
@@ -4260,8 +4512,11 @@
       <c r="E75" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>280</v>
       </c>
@@ -4274,8 +4529,11 @@
       <c r="E76" s="1" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>281</v>
       </c>
@@ -4288,8 +4546,11 @@
       <c r="E77" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>282</v>
       </c>
@@ -4302,8 +4563,11 @@
       <c r="E78" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>283</v>
       </c>
@@ -4316,8 +4580,11 @@
       <c r="E79" s="1" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>284</v>
       </c>
@@ -4330,8 +4597,11 @@
       <c r="E80" s="1" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>285</v>
       </c>
@@ -4344,8 +4614,11 @@
       <c r="E81" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>286</v>
       </c>
@@ -4358,8 +4631,11 @@
       <c r="E82" s="1" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>287</v>
       </c>
@@ -4372,8 +4648,11 @@
       <c r="E83" s="1" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>288</v>
       </c>
@@ -4386,8 +4665,11 @@
       <c r="E84" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>289</v>
       </c>
@@ -4400,8 +4682,11 @@
       <c r="E85" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>290</v>
       </c>
@@ -4414,8 +4699,11 @@
       <c r="E86" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>291</v>
       </c>
@@ -4428,8 +4716,11 @@
       <c r="E87" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>292</v>
       </c>
@@ -4442,8 +4733,11 @@
       <c r="E88" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>293</v>
       </c>
@@ -4456,8 +4750,11 @@
       <c r="E89" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>294</v>
       </c>
@@ -4470,8 +4767,11 @@
       <c r="E90" s="1" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>295</v>
       </c>
@@ -4484,8 +4784,11 @@
       <c r="E91" s="1" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>296</v>
       </c>
@@ -4498,8 +4801,11 @@
       <c r="E92" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>297</v>
       </c>
@@ -4512,8 +4818,11 @@
       <c r="E93" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>298</v>
       </c>
@@ -4526,8 +4835,11 @@
       <c r="E94" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>299</v>
       </c>
@@ -4540,8 +4852,11 @@
       <c r="E95" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>300</v>
       </c>
@@ -4554,8 +4869,11 @@
       <c r="E96" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>301</v>
       </c>
@@ -4568,8 +4886,11 @@
       <c r="E97" s="1" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>302</v>
       </c>
@@ -4582,8 +4903,11 @@
       <c r="E98" s="1" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>303</v>
       </c>
@@ -4596,8 +4920,11 @@
       <c r="E99" s="1" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>304</v>
       </c>
@@ -4610,8 +4937,11 @@
       <c r="E100" s="1" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>305</v>
       </c>
@@ -4624,8 +4954,11 @@
       <c r="E101" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>306</v>
       </c>
@@ -4638,8 +4971,11 @@
       <c r="E102" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>307</v>
       </c>
@@ -4652,8 +4988,11 @@
       <c r="E103" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>308</v>
       </c>
@@ -4666,8 +5005,11 @@
       <c r="E104" s="1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>309</v>
       </c>
@@ -4680,8 +5022,11 @@
       <c r="E105" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>310</v>
       </c>
@@ -4694,8 +5039,11 @@
       <c r="E106" s="1" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>311</v>
       </c>
@@ -4708,8 +5056,11 @@
       <c r="E107" s="1" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>312</v>
       </c>
@@ -4722,8 +5073,11 @@
       <c r="E108" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>313</v>
       </c>
@@ -4736,8 +5090,11 @@
       <c r="E109" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>314</v>
       </c>
@@ -4750,8 +5107,11 @@
       <c r="E110" s="1" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>315</v>
       </c>
@@ -4764,8 +5124,11 @@
       <c r="E111" s="1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>316</v>
       </c>
@@ -4778,8 +5141,11 @@
       <c r="E112" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>317</v>
       </c>
@@ -4792,8 +5158,11 @@
       <c r="E113" s="1" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>318</v>
       </c>
@@ -4806,8 +5175,11 @@
       <c r="E114" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>319</v>
       </c>
@@ -4820,8 +5192,11 @@
       <c r="E115" s="1" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>320</v>
       </c>
@@ -4834,8 +5209,11 @@
       <c r="E116" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>321</v>
       </c>
@@ -4848,8 +5226,11 @@
       <c r="E117" s="1" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>322</v>
       </c>
@@ -4862,8 +5243,11 @@
       <c r="E118" s="1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>323</v>
       </c>
@@ -4876,8 +5260,11 @@
       <c r="E119" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>324</v>
       </c>
@@ -4890,8 +5277,11 @@
       <c r="E120" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>325</v>
       </c>
@@ -4904,8 +5294,11 @@
       <c r="E121" s="1" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>326</v>
       </c>
@@ -4918,8 +5311,11 @@
       <c r="E122" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>327</v>
       </c>
@@ -4932,8 +5328,11 @@
       <c r="E123" s="1" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>328</v>
       </c>
@@ -4946,8 +5345,11 @@
       <c r="E124" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>329</v>
       </c>
@@ -4960,8 +5362,11 @@
       <c r="E125" s="1" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>330</v>
       </c>
@@ -4974,8 +5379,11 @@
       <c r="E126" s="1" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>331</v>
       </c>
@@ -4988,8 +5396,11 @@
       <c r="E127" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>332</v>
       </c>
@@ -5001,6 +5412,9 @@
       </c>
       <c r="E128" s="1" t="s">
         <v>664</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -5016,6 +5430,9 @@
       <c r="E129" s="1" t="s">
         <v>665</v>
       </c>
+      <c r="F129" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="130" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
@@ -5073,6 +5490,9 @@
       <c r="E132" s="1" t="s">
         <v>695</v>
       </c>
+      <c r="F132" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
@@ -5090,6 +5510,9 @@
       <c r="E133" s="1" t="s">
         <v>696</v>
       </c>
+      <c r="F133" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
@@ -5104,6 +5527,9 @@
       <c r="E134" s="1" t="s">
         <v>550</v>
       </c>
+      <c r="F134" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -5118,6 +5544,9 @@
       <c r="E135" s="1" t="s">
         <v>566</v>
       </c>
+      <c r="F135" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
@@ -5132,6 +5561,9 @@
       <c r="E136" s="1" t="s">
         <v>551</v>
       </c>
+      <c r="F136" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
@@ -5149,6 +5581,9 @@
       <c r="E137" s="1" t="s">
         <v>574</v>
       </c>
+      <c r="F137" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
@@ -5163,6 +5598,9 @@
       <c r="E138" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="F138" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
@@ -5177,6 +5615,9 @@
       <c r="E139" s="1" t="s">
         <v>552</v>
       </c>
+      <c r="F139" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
@@ -5194,6 +5635,9 @@
       <c r="E140" s="1" t="s">
         <v>553</v>
       </c>
+      <c r="F140" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="141" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
@@ -5225,6 +5669,9 @@
       <c r="E142" s="1" t="s">
         <v>555</v>
       </c>
+      <c r="F142" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
@@ -5239,6 +5686,9 @@
       <c r="E143" s="1" t="s">
         <v>556</v>
       </c>
+      <c r="F143" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
@@ -5253,6 +5703,9 @@
       <c r="E144" s="1" t="s">
         <v>557</v>
       </c>
+      <c r="F144" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
@@ -5267,6 +5720,9 @@
       <c r="E145" s="1" t="s">
         <v>558</v>
       </c>
+      <c r="F145" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
@@ -5281,6 +5737,9 @@
       <c r="E146" s="1" t="s">
         <v>568</v>
       </c>
+      <c r="F146" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -5295,6 +5754,9 @@
       <c r="E147" s="1" t="s">
         <v>666</v>
       </c>
+      <c r="F147" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
@@ -5309,6 +5771,9 @@
       <c r="E148" s="1" t="s">
         <v>667</v>
       </c>
+      <c r="F148" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
@@ -5323,6 +5788,9 @@
       <c r="E149" s="1" t="s">
         <v>668</v>
       </c>
+      <c r="F149" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
@@ -5337,6 +5805,9 @@
       <c r="E150" s="1" t="s">
         <v>625</v>
       </c>
+      <c r="F150" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
@@ -5351,6 +5822,9 @@
       <c r="E151" s="1" t="s">
         <v>626</v>
       </c>
+      <c r="F151" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
@@ -5365,6 +5839,9 @@
       <c r="E152" s="1" t="s">
         <v>627</v>
       </c>
+      <c r="F152" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
@@ -5379,6 +5856,9 @@
       <c r="E153" s="1" t="s">
         <v>569</v>
       </c>
+      <c r="F153" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="154" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
@@ -5493,6 +5973,9 @@
       <c r="E159" s="1" t="s">
         <v>670</v>
       </c>
+      <c r="F159" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
@@ -5507,8 +5990,11 @@
       <c r="E160" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>468</v>
       </c>
@@ -5521,8 +6007,11 @@
       <c r="E161" s="1" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>469</v>
       </c>
@@ -5535,8 +6024,11 @@
       <c r="E162" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>470</v>
       </c>
@@ -5549,8 +6041,11 @@
       <c r="E163" s="1" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>471</v>
       </c>
@@ -5563,8 +6058,11 @@
       <c r="E164" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>472</v>
       </c>
@@ -5577,8 +6075,11 @@
       <c r="E165" s="1" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>473</v>
       </c>
@@ -5591,8 +6092,11 @@
       <c r="E166" s="1" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>474</v>
       </c>
@@ -5605,8 +6109,11 @@
       <c r="E167" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>475</v>
       </c>
@@ -5619,8 +6126,11 @@
       <c r="E168" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>476</v>
       </c>
@@ -5633,8 +6143,11 @@
       <c r="E169" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>477</v>
       </c>
@@ -5647,8 +6160,11 @@
       <c r="E170" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>478</v>
       </c>
@@ -5661,8 +6177,11 @@
       <c r="E171" s="1" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>479</v>
       </c>
@@ -5675,8 +6194,11 @@
       <c r="E172" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>480</v>
       </c>
@@ -5686,8 +6208,11 @@
       <c r="E173" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>481</v>
       </c>
@@ -5700,8 +6225,11 @@
       <c r="E174" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>482</v>
       </c>
@@ -5714,8 +6242,11 @@
       <c r="E175" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>483</v>
       </c>
@@ -5724,6 +6255,9 @@
       </c>
       <c r="E176" s="1" t="s">
         <v>685</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -5739,6 +6273,9 @@
       <c r="E177" s="1" t="s">
         <v>686</v>
       </c>
+      <c r="F177" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="178" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
@@ -5773,6 +6310,9 @@
       <c r="E179" s="1" t="s">
         <v>631</v>
       </c>
+      <c r="F179" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -5790,6 +6330,9 @@
       <c r="E180" s="1" t="s">
         <v>562</v>
       </c>
+      <c r="F180" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
@@ -5807,8 +6350,12 @@
       <c r="E181" s="1" t="s">
         <v>563</v>
       </c>
+      <c r="F181" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H181" xr:uid="{407D1833-63F5-4230-AD16-32E9E48F56BB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5819,7 +6366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3327CA4D-663D-443F-80DC-1A1E539BD38E}">
   <dimension ref="A1:F283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>

--- a/data-lake/variable_key.xlsx
+++ b/data-lake/variable_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-lake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC4F887-EF22-4723-B351-1E180B5AF3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6AE736-EC7D-471F-8135-77936DB857F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6DF7D7CC-01DB-4B77-91E2-7CCE474EE386}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{6DF7D7CC-01DB-4B77-91E2-7CCE474EE386}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Information" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Key!$A$1:$H$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Key!$A$1:$J$181</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="1120">
   <si>
     <t>Units</t>
   </si>
@@ -3311,6 +3311,99 @@
   </si>
   <si>
     <t>E coli</t>
+  </si>
+  <si>
+    <t>LaTex Units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>µS/cm</t>
+  </si>
+  <si>
+    <t>µg/L</t>
+  </si>
+  <si>
+    <t>µg/l</t>
+  </si>
+  <si>
+    <t>SH Category</t>
+  </si>
+  <si>
+    <t>BIO_BLUE_GREEN_ALGAE</t>
+  </si>
+  <si>
+    <t>BIO_CHLOROPHYLL_TOTAL</t>
+  </si>
+  <si>
+    <t>NUT_AMMONIA</t>
+  </si>
+  <si>
+    <t>NUT_NITROGEN_TOTAL</t>
+  </si>
+  <si>
+    <t>NUT_NITRATE</t>
+  </si>
+  <si>
+    <t>NUT_NITROGEN_DISOLVED_ORGANIC</t>
+  </si>
+  <si>
+    <t>NUT_NITROGEN_PARTICULATE_ORGANIC</t>
+  </si>
+  <si>
+    <t>NUT_PHOSPHORUS_TOTAL</t>
+  </si>
+  <si>
+    <t>NUT_PHOSPHATE</t>
+  </si>
+  <si>
+    <t>NUT_PHOSPHORUS_DISOLVED_ORGANIC</t>
+  </si>
+  <si>
+    <t>NUT_PHOSPHORUS_PARTICULATE_ORGANIC</t>
+  </si>
+  <si>
+    <t>NUT_SEDIMENT_SUSPENDED</t>
+  </si>
+  <si>
+    <t>MET_AIR_TEMP</t>
+  </si>
+  <si>
+    <t>MET_HUM</t>
+  </si>
+  <si>
+    <t>MET_PRESSURE</t>
+  </si>
+  <si>
+    <t>MET_WIND_SPD</t>
+  </si>
+  <si>
+    <t>MET_WIND_DIR</t>
+  </si>
+  <si>
+    <t>MET_CLOUD_COVER</t>
+  </si>
+  <si>
+    <t>WTR_LEVEL</t>
+  </si>
+  <si>
+    <t>WTR_PAR</t>
+  </si>
+  <si>
+    <t>WTR_SALINITY</t>
+  </si>
+  <si>
+    <t>WTR_TEMP</t>
+  </si>
+  <si>
+    <t>WTR_DEPTH</t>
+  </si>
+  <si>
+    <t>MET_RAIN</t>
+  </si>
+  <si>
+    <t>WTR_DENSITY</t>
   </si>
 </sst>
 </file>
@@ -3791,11 +3884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D1833-63F5-4230-AD16-32E9E48F56BB}">
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:J220"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3804,14 +3897,16 @@
     <col min="2" max="2" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
@@ -3825,19 +3920,25 @@
         <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>205</v>
       </c>
@@ -3851,13 +3952,16 @@
         <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>206</v>
       </c>
@@ -3871,13 +3975,16 @@
         <v>160</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>207</v>
       </c>
@@ -3891,13 +3998,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>208</v>
       </c>
@@ -3911,13 +4021,16 @@
         <v>161</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>209</v>
       </c>
@@ -3931,13 +4044,16 @@
         <v>162</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>210</v>
       </c>
@@ -3951,19 +4067,25 @@
         <v>163</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>844</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="I7" s="17" t="s">
         <v>843</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>211</v>
       </c>
@@ -3971,25 +4093,31 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>1090</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>845</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="I8" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
         <v>-273.14999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>212</v>
       </c>
@@ -4003,13 +4131,19 @@
         <v>165</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>213</v>
       </c>
@@ -4023,13 +4157,19 @@
         <v>166</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>214</v>
       </c>
@@ -4042,14 +4182,20 @@
       <c r="D11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>215</v>
       </c>
@@ -4062,14 +4208,17 @@
       <c r="D12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>216</v>
       </c>
@@ -4082,14 +4231,20 @@
       <c r="D13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>217</v>
       </c>
@@ -4102,20 +4257,23 @@
       <c r="D14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="H14" s="17" t="s">
         <v>846</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>218</v>
       </c>
@@ -4123,19 +4281,25 @@
         <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>1093</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>219</v>
       </c>
@@ -4148,14 +4312,17 @@
       <c r="D16" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>220</v>
       </c>
@@ -4169,13 +4336,16 @@
         <v>173</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>221</v>
       </c>
@@ -4189,13 +4359,16 @@
         <v>174</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>222</v>
       </c>
@@ -4209,13 +4382,16 @@
         <v>175</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>223</v>
       </c>
@@ -4229,13 +4405,16 @@
         <v>176</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H20" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>224</v>
       </c>
@@ -4249,13 +4428,16 @@
         <v>177</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>225</v>
       </c>
@@ -4269,13 +4451,16 @@
         <v>178</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>226</v>
       </c>
@@ -4289,13 +4474,16 @@
         <v>179</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>227</v>
       </c>
@@ -4309,13 +4497,16 @@
         <v>180</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H24" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>228</v>
       </c>
@@ -4329,13 +4520,16 @@
         <v>181</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H25" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>229</v>
       </c>
@@ -4349,13 +4543,19 @@
         <v>182</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>230</v>
       </c>
@@ -4369,13 +4569,19 @@
         <v>183</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>231</v>
       </c>
@@ -4388,14 +4594,20 @@
       <c r="D28" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>232</v>
       </c>
@@ -4408,14 +4620,17 @@
       <c r="D29" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H29" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>233</v>
       </c>
@@ -4428,14 +4643,17 @@
       <c r="D30" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H30" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>234</v>
       </c>
@@ -4448,14 +4666,17 @@
       <c r="D31" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H31" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>235</v>
       </c>
@@ -4468,14 +4689,17 @@
       <c r="D32" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H32" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>236</v>
       </c>
@@ -4488,14 +4712,20 @@
       <c r="D33" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>237</v>
       </c>
@@ -4508,14 +4738,20 @@
       <c r="D34" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>238</v>
       </c>
@@ -4528,14 +4764,17 @@
       <c r="D35" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H35" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>239</v>
       </c>
@@ -4548,14 +4787,20 @@
       <c r="D36" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>240</v>
       </c>
@@ -4568,14 +4813,20 @@
       <c r="D37" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>241</v>
       </c>
@@ -4588,14 +4839,17 @@
       <c r="D38" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H38" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>242</v>
       </c>
@@ -4608,14 +4862,20 @@
       <c r="D39" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>243</v>
       </c>
@@ -4628,14 +4888,17 @@
       <c r="D40" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H40" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>244</v>
       </c>
@@ -4648,14 +4911,17 @@
       <c r="D41" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H41" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>245</v>
       </c>
@@ -4668,14 +4934,17 @@
       <c r="D42" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H42" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>246</v>
       </c>
@@ -4688,14 +4957,17 @@
       <c r="D43" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H43" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>247</v>
       </c>
@@ -4708,14 +4980,17 @@
       <c r="D44" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H44" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>248</v>
       </c>
@@ -4728,14 +5003,17 @@
       <c r="D45" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H45" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>249</v>
       </c>
@@ -4749,13 +5027,16 @@
         <v>202</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H46" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>250</v>
       </c>
@@ -4769,13 +5050,16 @@
         <v>202</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H47" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>251</v>
       </c>
@@ -4789,13 +5073,16 @@
         <v>202</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H48" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>252</v>
       </c>
@@ -4808,14 +5095,17 @@
       <c r="D49" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H49" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>253</v>
       </c>
@@ -4825,14 +5115,17 @@
       <c r="C50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H50" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>254</v>
       </c>
@@ -4842,14 +5135,17 @@
       <c r="C51" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H51" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>255</v>
       </c>
@@ -4859,14 +5155,17 @@
       <c r="C52" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H52" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>256</v>
       </c>
@@ -4876,14 +5175,17 @@
       <c r="C53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H53" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>257</v>
       </c>
@@ -4893,14 +5195,17 @@
       <c r="C54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H54" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>258</v>
       </c>
@@ -4913,14 +5218,17 @@
       <c r="D55" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H55" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>259</v>
       </c>
@@ -4930,14 +5238,17 @@
       <c r="C56" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H56" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>260</v>
       </c>
@@ -4947,14 +5258,17 @@
       <c r="C57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H57" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>261</v>
       </c>
@@ -4964,14 +5278,17 @@
       <c r="C58" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H58" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>262</v>
       </c>
@@ -4981,14 +5298,17 @@
       <c r="C59" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H59" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>263</v>
       </c>
@@ -4998,14 +5318,17 @@
       <c r="C60" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H60" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>264</v>
       </c>
@@ -5015,14 +5338,17 @@
       <c r="C61" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H61" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>265</v>
       </c>
@@ -5032,14 +5358,17 @@
       <c r="C62" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H62" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>266</v>
       </c>
@@ -5049,14 +5378,17 @@
       <c r="C63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H63" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>267</v>
       </c>
@@ -5066,14 +5398,17 @@
       <c r="C64" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H64" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>268</v>
       </c>
@@ -5083,14 +5418,17 @@
       <c r="C65" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H65" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>269</v>
       </c>
@@ -5100,14 +5438,17 @@
       <c r="C66" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H66" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>270</v>
       </c>
@@ -5117,14 +5458,17 @@
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H67" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>271</v>
       </c>
@@ -5134,14 +5478,17 @@
       <c r="C68" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H68" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>272</v>
       </c>
@@ -5151,14 +5498,17 @@
       <c r="C69" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H69" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>273</v>
       </c>
@@ -5168,14 +5518,17 @@
       <c r="C70" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H70" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>274</v>
       </c>
@@ -5185,14 +5538,17 @@
       <c r="C71" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H71" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>275</v>
       </c>
@@ -5202,14 +5558,17 @@
       <c r="C72" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H72" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>276</v>
       </c>
@@ -5219,14 +5578,17 @@
       <c r="C73" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H73" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>277</v>
       </c>
@@ -5236,14 +5598,17 @@
       <c r="C74" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H74" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>278</v>
       </c>
@@ -5254,13 +5619,16 @@
         <v>26</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H75" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>279</v>
       </c>
@@ -5271,13 +5639,16 @@
         <v>95</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H76" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>280</v>
       </c>
@@ -5288,13 +5659,16 @@
         <v>97</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H77" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>281</v>
       </c>
@@ -5305,13 +5679,16 @@
         <v>99</v>
       </c>
       <c r="E78" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H78" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>282</v>
       </c>
@@ -5322,13 +5699,16 @@
         <v>99</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H79" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>283</v>
       </c>
@@ -5339,13 +5719,16 @@
         <v>99</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H80" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>284</v>
       </c>
@@ -5355,14 +5738,17 @@
       <c r="C81" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H81" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>285</v>
       </c>
@@ -5372,14 +5758,17 @@
       <c r="C82" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H82" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>286</v>
       </c>
@@ -5389,14 +5778,17 @@
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H83" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>287</v>
       </c>
@@ -5407,13 +5799,16 @@
         <v>97</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H84" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>288</v>
       </c>
@@ -5424,13 +5819,16 @@
         <v>95</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H85" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>289</v>
       </c>
@@ -5441,13 +5839,16 @@
         <v>108</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H86" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>290</v>
       </c>
@@ -5457,14 +5858,17 @@
       <c r="C87" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H87" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>291</v>
       </c>
@@ -5474,14 +5878,17 @@
       <c r="C88" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H88" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>292</v>
       </c>
@@ -5491,14 +5898,17 @@
       <c r="C89" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H89" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>293</v>
       </c>
@@ -5508,14 +5918,17 @@
       <c r="C90" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H90" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>294</v>
       </c>
@@ -5525,14 +5938,17 @@
       <c r="C91" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H91" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>295</v>
       </c>
@@ -5542,14 +5958,17 @@
       <c r="C92" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H92" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>296</v>
       </c>
@@ -5559,14 +5978,17 @@
       <c r="C93" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H93" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>297</v>
       </c>
@@ -5576,14 +5998,17 @@
       <c r="C94" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H94" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>298</v>
       </c>
@@ -5593,14 +6018,17 @@
       <c r="C95" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H95" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>299</v>
       </c>
@@ -5610,14 +6038,17 @@
       <c r="C96" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H96" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>300</v>
       </c>
@@ -5627,14 +6058,17 @@
       <c r="C97" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H97" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>301</v>
       </c>
@@ -5644,14 +6078,17 @@
       <c r="C98" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H98" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>302</v>
       </c>
@@ -5661,14 +6098,17 @@
       <c r="C99" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H99" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>303</v>
       </c>
@@ -5678,14 +6118,17 @@
       <c r="C100" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H100" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>304</v>
       </c>
@@ -5695,14 +6138,17 @@
       <c r="C101" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H101" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>305</v>
       </c>
@@ -5712,14 +6158,17 @@
       <c r="C102" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H102" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>306</v>
       </c>
@@ -5729,14 +6178,17 @@
       <c r="C103" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H103" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>307</v>
       </c>
@@ -5746,14 +6198,17 @@
       <c r="C104" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H104" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>308</v>
       </c>
@@ -5763,14 +6218,17 @@
       <c r="C105" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H105" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>309</v>
       </c>
@@ -5780,14 +6238,17 @@
       <c r="C106" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H106" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>310</v>
       </c>
@@ -5797,14 +6258,17 @@
       <c r="C107" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H107" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>311</v>
       </c>
@@ -5814,14 +6278,17 @@
       <c r="C108" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H108" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>312</v>
       </c>
@@ -5831,14 +6298,17 @@
       <c r="C109" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H109" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>313</v>
       </c>
@@ -5848,14 +6318,17 @@
       <c r="C110" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H110" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>314</v>
       </c>
@@ -5865,14 +6338,17 @@
       <c r="C111" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H111" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>315</v>
       </c>
@@ -5882,14 +6358,17 @@
       <c r="C112" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H112" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>316</v>
       </c>
@@ -5899,14 +6378,17 @@
       <c r="C113" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E113" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H113" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>317</v>
       </c>
@@ -5916,14 +6398,17 @@
       <c r="C114" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H114" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>318</v>
       </c>
@@ -5933,14 +6418,17 @@
       <c r="C115" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H115" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>319</v>
       </c>
@@ -5950,14 +6438,17 @@
       <c r="C116" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H116" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>320</v>
       </c>
@@ -5967,14 +6458,17 @@
       <c r="C117" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H117" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>321</v>
       </c>
@@ -5984,14 +6478,17 @@
       <c r="C118" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H118" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>322</v>
       </c>
@@ -6001,14 +6498,17 @@
       <c r="C119" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H119" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>323</v>
       </c>
@@ -6018,14 +6518,17 @@
       <c r="C120" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H120" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>324</v>
       </c>
@@ -6035,14 +6538,17 @@
       <c r="C121" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H121" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>325</v>
       </c>
@@ -6052,14 +6558,17 @@
       <c r="C122" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H122" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>326</v>
       </c>
@@ -6069,14 +6578,17 @@
       <c r="C123" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H123" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>327</v>
       </c>
@@ -6086,14 +6598,17 @@
       <c r="C124" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H124" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>328</v>
       </c>
@@ -6103,14 +6618,17 @@
       <c r="C125" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H125" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>329</v>
       </c>
@@ -6120,14 +6638,17 @@
       <c r="C126" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H126" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>330</v>
       </c>
@@ -6137,14 +6658,17 @@
       <c r="C127" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H127" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>331</v>
       </c>
@@ -6154,14 +6678,17 @@
       <c r="C128" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>332</v>
       </c>
@@ -6171,14 +6698,17 @@
       <c r="C129" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H129" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>379</v>
       </c>
@@ -6189,16 +6719,22 @@
         <v>507</v>
       </c>
       <c r="E130" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H130" t="s">
         <v>703</v>
       </c>
-      <c r="G130" t="s">
+      <c r="I130" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>380</v>
       </c>
@@ -6208,17 +6744,23 @@
       <c r="C131" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H131" t="s">
         <v>548</v>
       </c>
-      <c r="G131" t="s">
+      <c r="I131" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>385</v>
       </c>
@@ -6226,19 +6768,22 @@
         <v>381</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>21</v>
+        <v>1092</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>386</v>
       </c>
@@ -6246,19 +6791,22 @@
         <v>382</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>21</v>
+        <v>1092</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>388</v>
       </c>
@@ -6268,14 +6816,20 @@
       <c r="C134" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E134" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G134" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>391</v>
       </c>
@@ -6283,16 +6837,19 @@
         <v>389</v>
       </c>
       <c r="C135" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>394</v>
       </c>
@@ -6303,13 +6860,16 @@
         <v>393</v>
       </c>
       <c r="E136" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>396</v>
       </c>
@@ -6323,13 +6883,16 @@
         <v>397</v>
       </c>
       <c r="E137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>400</v>
       </c>
@@ -6339,14 +6902,14 @@
       <c r="D138" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>402</v>
       </c>
@@ -6357,13 +6920,16 @@
         <v>6</v>
       </c>
       <c r="E139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>405</v>
       </c>
@@ -6377,13 +6943,16 @@
         <v>404</v>
       </c>
       <c r="E140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H140" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>407</v>
       </c>
@@ -6394,30 +6963,33 @@
         <v>13</v>
       </c>
       <c r="E141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="F141" t="s">
+      <c r="H141" t="s">
         <v>702</v>
       </c>
-      <c r="G141" t="s">
+      <c r="I141" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>421</v>
       </c>
@@ -6428,13 +7000,16 @@
         <v>378</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>422</v>
       </c>
@@ -6445,13 +7020,16 @@
         <v>378</v>
       </c>
       <c r="E144" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>423</v>
       </c>
@@ -6462,13 +7040,16 @@
         <v>378</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>424</v>
       </c>
@@ -6478,14 +7059,17 @@
       <c r="C146" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E146" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>425</v>
       </c>
@@ -6495,14 +7079,17 @@
       <c r="C147" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H147" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>426</v>
       </c>
@@ -6512,14 +7099,17 @@
       <c r="C148" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H148" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>427</v>
       </c>
@@ -6529,14 +7119,17 @@
       <c r="C149" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H149" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>428</v>
       </c>
@@ -6546,14 +7139,17 @@
       <c r="C150" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H150" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>429</v>
       </c>
@@ -6563,14 +7159,17 @@
       <c r="C151" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>430</v>
       </c>
@@ -6580,14 +7179,17 @@
       <c r="C152" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>459</v>
       </c>
@@ -6597,14 +7199,20 @@
       <c r="C153" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G153" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>460</v>
       </c>
@@ -6612,19 +7220,25 @@
         <v>486</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H154" t="s">
         <v>558</v>
       </c>
-      <c r="G154" t="s">
+      <c r="I154" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>461</v>
       </c>
@@ -6632,19 +7246,22 @@
         <v>487</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="F155" t="s">
+      <c r="H155" t="s">
         <v>707</v>
       </c>
-      <c r="G155" t="s">
+      <c r="I155" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>462</v>
       </c>
@@ -6652,19 +7269,22 @@
         <v>488</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="F156" t="s">
+      <c r="H156" t="s">
         <v>627</v>
       </c>
-      <c r="G156" t="s">
+      <c r="I156" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>463</v>
       </c>
@@ -6675,16 +7295,22 @@
         <v>108</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H157" t="s">
         <v>559</v>
       </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>464</v>
       </c>
@@ -6694,17 +7320,20 @@
       <c r="C158" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="F158" t="s">
+      <c r="H158" t="s">
         <v>706</v>
       </c>
-      <c r="G158" t="s">
+      <c r="I158" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>465</v>
       </c>
@@ -6714,14 +7343,17 @@
       <c r="C159" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>466</v>
       </c>
@@ -6732,13 +7364,16 @@
         <v>505</v>
       </c>
       <c r="E160" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H160" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>467</v>
       </c>
@@ -6748,14 +7383,17 @@
       <c r="C161" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H161" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>468</v>
       </c>
@@ -6766,13 +7404,16 @@
         <v>505</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H162" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>469</v>
       </c>
@@ -6782,14 +7423,17 @@
       <c r="C163" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H163" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>470</v>
       </c>
@@ -6800,13 +7444,16 @@
         <v>505</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H164" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>471</v>
       </c>
@@ -6816,14 +7463,17 @@
       <c r="C165" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H165" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>472</v>
       </c>
@@ -6834,13 +7484,16 @@
         <v>505</v>
       </c>
       <c r="E166" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H166" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>473</v>
       </c>
@@ -6850,14 +7503,17 @@
       <c r="C167" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E167" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H167" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>474</v>
       </c>
@@ -6868,13 +7524,16 @@
         <v>505</v>
       </c>
       <c r="E168" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H168" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>475</v>
       </c>
@@ -6884,14 +7543,17 @@
       <c r="C169" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H169" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>476</v>
       </c>
@@ -6902,13 +7564,16 @@
         <v>505</v>
       </c>
       <c r="E170" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H170" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>477</v>
       </c>
@@ -6918,14 +7583,17 @@
       <c r="C171" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E171" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H171" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>478</v>
       </c>
@@ -6936,27 +7604,30 @@
         <v>505</v>
       </c>
       <c r="E172" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H172" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="F173" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H173" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>480</v>
       </c>
@@ -6967,13 +7638,16 @@
         <v>504</v>
       </c>
       <c r="E174" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H174" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>481</v>
       </c>
@@ -6984,27 +7658,30 @@
         <v>504</v>
       </c>
       <c r="E175" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F175" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H175" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>482</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="F176" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H176" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>483</v>
       </c>
@@ -7015,13 +7692,16 @@
         <v>503</v>
       </c>
       <c r="E177" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H177" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>484</v>
       </c>
@@ -7032,16 +7712,22 @@
         <v>503</v>
       </c>
       <c r="E178" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="F178" t="s">
+      <c r="G178" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H178" t="s">
         <v>699</v>
       </c>
-      <c r="G178" t="s">
+      <c r="I178" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>485</v>
       </c>
@@ -7052,13 +7738,16 @@
         <v>521</v>
       </c>
       <c r="E179" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H179" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>492</v>
       </c>
@@ -7072,13 +7761,16 @@
         <v>165</v>
       </c>
       <c r="E180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H180" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>494</v>
       </c>
@@ -7092,13 +7784,19 @@
         <v>13</v>
       </c>
       <c r="E181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G181" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>900</v>
       </c>
@@ -7108,11 +7806,17 @@
       <c r="C182" s="17" t="s">
         <v>899</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E182" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>903</v>
       </c>
@@ -7122,11 +7826,14 @@
       <c r="C183" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E183" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>904</v>
       </c>
@@ -7136,11 +7843,14 @@
       <c r="C184" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E184" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>905</v>
       </c>
@@ -7150,11 +7860,14 @@
       <c r="C185" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E185" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>906</v>
       </c>
@@ -7164,11 +7877,14 @@
       <c r="C186" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E186" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>907</v>
       </c>
@@ -7178,11 +7894,14 @@
       <c r="C187" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E187" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>908</v>
       </c>
@@ -7192,11 +7911,14 @@
       <c r="C188" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E188" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>909</v>
       </c>
@@ -7206,11 +7928,14 @@
       <c r="C189" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E189" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>910</v>
       </c>
@@ -7220,11 +7945,14 @@
       <c r="C190" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E190" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>911</v>
       </c>
@@ -7234,11 +7962,14 @@
       <c r="C191" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E191" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>912</v>
       </c>
@@ -7248,11 +7979,14 @@
       <c r="C192" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E192" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>925</v>
       </c>
@@ -7262,11 +7996,14 @@
       <c r="C193" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E193" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>926</v>
       </c>
@@ -7276,11 +8013,14 @@
       <c r="C194" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E194" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>927</v>
       </c>
@@ -7290,11 +8030,14 @@
       <c r="C195" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E195" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>928</v>
       </c>
@@ -7304,11 +8047,14 @@
       <c r="C196" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E196" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>929</v>
       </c>
@@ -7318,11 +8064,14 @@
       <c r="C197" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E197" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>930</v>
       </c>
@@ -7332,11 +8081,14 @@
       <c r="C198" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E198" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>931</v>
       </c>
@@ -7346,11 +8098,14 @@
       <c r="C199" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E199" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>934</v>
       </c>
@@ -7360,11 +8115,14 @@
       <c r="C200" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E200" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>936</v>
       </c>
@@ -7374,11 +8132,14 @@
       <c r="C201" s="21" t="s">
         <v>967</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E201" s="21" t="s">
+        <v>967</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>938</v>
       </c>
@@ -7388,11 +8149,14 @@
       <c r="C202" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E202" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>939</v>
       </c>
@@ -7402,11 +8166,14 @@
       <c r="C203" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E203" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>940</v>
       </c>
@@ -7416,11 +8183,14 @@
       <c r="C204" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E204" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>941</v>
       </c>
@@ -7430,11 +8200,14 @@
       <c r="C205" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E205" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>942</v>
       </c>
@@ -7444,11 +8217,14 @@
       <c r="C206" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="F206" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E206" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>944</v>
       </c>
@@ -7458,11 +8234,14 @@
       <c r="C207" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E207" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>947</v>
       </c>
@@ -7472,11 +8251,14 @@
       <c r="C208" s="15" t="s">
         <v>945</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E208" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>948</v>
       </c>
@@ -7486,11 +8268,14 @@
       <c r="C209" s="15" t="s">
         <v>946</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E209" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>950</v>
       </c>
@@ -7500,11 +8285,14 @@
       <c r="C210" s="15" t="s">
         <v>949</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E210" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>951</v>
       </c>
@@ -7514,11 +8302,14 @@
       <c r="C211" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E211" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>952</v>
       </c>
@@ -7528,11 +8319,14 @@
       <c r="C212" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="F212" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E212" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>953</v>
       </c>
@@ -7542,11 +8336,14 @@
       <c r="C213" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E213" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>954</v>
       </c>
@@ -7556,11 +8353,14 @@
       <c r="C214" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E214" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>955</v>
       </c>
@@ -7570,11 +8370,14 @@
       <c r="C215" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E215" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>956</v>
       </c>
@@ -7584,11 +8387,14 @@
       <c r="C216" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="F216" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E216" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>1074</v>
       </c>
@@ -7598,14 +8404,18 @@
       <c r="C217" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="E217" s="17" t="s">
+      <c r="E217" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F217" s="17" t="s">
         <v>1073</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G217" s="17"/>
+      <c r="H217" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>1076</v>
       </c>
@@ -7616,13 +8426,16 @@
         <v>1078</v>
       </c>
       <c r="E218" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F218" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="H218" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>1082</v>
       </c>
@@ -7632,14 +8445,20 @@
       <c r="C219" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="E219" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="F219" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G219" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>1083</v>
       </c>
@@ -7650,14 +8469,17 @@
         <v>1087</v>
       </c>
       <c r="E220" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="F220" s="1" t="s">
+      <c r="H220" s="1" t="s">
         <v>840</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H181" xr:uid="{407D1833-63F5-4230-AD16-32E9E48F56BB}"/>
+  <autoFilter ref="A1:J181" xr:uid="{407D1833-63F5-4230-AD16-32E9E48F56BB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7668,7 +8490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3327CA4D-663D-443F-80DC-1A1E539BD38E}">
   <dimension ref="A1:F283"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
@@ -7851,7 +8673,7 @@
       </c>
       <c r="C8" t="str">
         <f>Key!C8</f>
-        <v>^{\circ}C</v>
+        <v>C</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>715</v>
@@ -8012,7 +8834,7 @@
       </c>
       <c r="C15" t="str">
         <f>Key!C15</f>
-        <v>\mug/L</v>
+        <v>µg/l</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>721</v>
@@ -10703,7 +11525,7 @@
       </c>
       <c r="C132" t="str">
         <f>Key!C132</f>
-        <v>\mug/L</v>
+        <v>µg/L</v>
       </c>
       <c r="D132" s="14" t="s">
         <v>840</v>
@@ -10726,7 +11548,7 @@
       </c>
       <c r="C133" t="str">
         <f>Key!C133</f>
-        <v>\mug/L</v>
+        <v>µg/L</v>
       </c>
       <c r="D133" s="14" t="s">
         <v>840</v>
@@ -10772,7 +11594,7 @@
       </c>
       <c r="C135" t="str">
         <f>Key!C135</f>
-        <v>\muS/cm</v>
+        <v>µS/cm</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>840</v>
@@ -11209,7 +12031,7 @@
       </c>
       <c r="C154" t="str">
         <f>Key!C154</f>
-        <v>^{\circ}C</v>
+        <v>C</v>
       </c>
       <c r="D154" s="14" t="s">
         <v>840</v>
@@ -11232,7 +12054,7 @@
       </c>
       <c r="C155" t="str">
         <f>Key!C155</f>
-        <v>^{\circ}C</v>
+        <v>C</v>
       </c>
       <c r="D155" s="14" t="s">
         <v>840</v>
@@ -11255,7 +12077,7 @@
       </c>
       <c r="C156" t="str">
         <f>Key!C156</f>
-        <v>^{\circ}C</v>
+        <v>C</v>
       </c>
       <c r="D156" s="14" t="s">
         <v>840</v>
@@ -12949,8 +13771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E5E19A-8269-4B75-9F84-B2CE294BEEE9}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-lake/variable_key.xlsx
+++ b/data-lake/variable_key.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-lake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6AE736-EC7D-471F-8135-77936DB857F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D42CC5-975F-40D4-8EC9-B933A4610F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{6DF7D7CC-01DB-4B77-91E2-7CCE474EE386}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="8" xr2:uid="{6DF7D7CC-01DB-4B77-91E2-7CCE474EE386}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
     <sheet name="Model_TFV" sheetId="5" r:id="rId2"/>
     <sheet name="MAFRL" sheetId="8" r:id="rId3"/>
-    <sheet name="THEME5" sheetId="7" r:id="rId4"/>
-    <sheet name="DOT" sheetId="4" r:id="rId5"/>
-    <sheet name="BOM" sheetId="3" r:id="rId6"/>
-    <sheet name="DWER" sheetId="2" r:id="rId7"/>
-    <sheet name="Information" sheetId="6" r:id="rId8"/>
+    <sheet name="IMOSBGC" sheetId="9" r:id="rId4"/>
+    <sheet name="IMOSPROFILE" sheetId="10" r:id="rId5"/>
+    <sheet name="THEME5" sheetId="7" r:id="rId6"/>
+    <sheet name="DOT" sheetId="4" r:id="rId7"/>
+    <sheet name="BOM" sheetId="3" r:id="rId8"/>
+    <sheet name="DWER" sheetId="2" r:id="rId9"/>
+    <sheet name="Information" sheetId="6" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Key!$A$1:$J$181</definedName>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1312">
   <si>
     <t>Units</t>
   </si>
@@ -3404,6 +3406,582 @@
   </si>
   <si>
     <t>WTR_DENSITY</t>
+  </si>
+  <si>
+    <t>SecchiDepth_m</t>
+  </si>
+  <si>
+    <t>Salinity_flag</t>
+  </si>
+  <si>
+    <t>DIC_umolkg</t>
+  </si>
+  <si>
+    <t>DIC_flag</t>
+  </si>
+  <si>
+    <t>Alkalinity_umolkg</t>
+  </si>
+  <si>
+    <t>Alkalinity_flag</t>
+  </si>
+  <si>
+    <t>Oxygen_umolL</t>
+  </si>
+  <si>
+    <t>Oxygen_flag</t>
+  </si>
+  <si>
+    <t>Ammonium_umolL</t>
+  </si>
+  <si>
+    <t>Ammonium_flag</t>
+  </si>
+  <si>
+    <t>Nitrate_umolL</t>
+  </si>
+  <si>
+    <t>Nitrate_flag</t>
+  </si>
+  <si>
+    <t>Nitrite_umolL</t>
+  </si>
+  <si>
+    <t>Nitrite_flag</t>
+  </si>
+  <si>
+    <t>Phosphate_umoL</t>
+  </si>
+  <si>
+    <t>Phosphate_flag</t>
+  </si>
+  <si>
+    <t>Silicate_umolL</t>
+  </si>
+  <si>
+    <t>Silicate_flag</t>
+  </si>
+  <si>
+    <t>TSSorganic_mgL</t>
+  </si>
+  <si>
+    <t>TSSinorganic_mgL</t>
+  </si>
+  <si>
+    <t>TSS_mgL</t>
+  </si>
+  <si>
+    <t>TSSall_flag</t>
+  </si>
+  <si>
+    <t>Prochlorococcus_cellsmL</t>
+  </si>
+  <si>
+    <t>Prochlorococcus_flag</t>
+  </si>
+  <si>
+    <t>Synechococcus_cellsmL</t>
+  </si>
+  <si>
+    <t>Synechococcus_flag</t>
+  </si>
+  <si>
+    <t>Picoeukaryotes_cellsmL</t>
+  </si>
+  <si>
+    <t>Picoeukaryotes_flag</t>
+  </si>
+  <si>
+    <t>Allo_mgm3</t>
+  </si>
+  <si>
+    <t>AlphaBetaCar_mgm3</t>
+  </si>
+  <si>
+    <t>Anth_mgm3</t>
+  </si>
+  <si>
+    <t>Asta_mgm3</t>
+  </si>
+  <si>
+    <t>BetaBetaCar_mgm3</t>
+  </si>
+  <si>
+    <t>BetaEpiCar_mgm3</t>
+  </si>
+  <si>
+    <t>Butfuco_mgm3</t>
+  </si>
+  <si>
+    <t>Cantha_mgm3</t>
+  </si>
+  <si>
+    <t>CphlA_mgm3</t>
+  </si>
+  <si>
+    <t>CphlB_mgm3</t>
+  </si>
+  <si>
+    <t>CphlC1_mgm3</t>
+  </si>
+  <si>
+    <t>CphlC2_mgm3</t>
+  </si>
+  <si>
+    <t>CphlC3_mgm3</t>
+  </si>
+  <si>
+    <t>CphlC1C2_mgm3</t>
+  </si>
+  <si>
+    <t>CphlideA_mgm3</t>
+  </si>
+  <si>
+    <t>Diadchr_mgm3</t>
+  </si>
+  <si>
+    <t>Diadino_mgm3</t>
+  </si>
+  <si>
+    <t>Diato_mgm3</t>
+  </si>
+  <si>
+    <t>Dino_mgm3</t>
+  </si>
+  <si>
+    <t>DvCphlA+CphlA_mgm3</t>
+  </si>
+  <si>
+    <t>DvCphlA_mgm3</t>
+  </si>
+  <si>
+    <t>DvCphlB+CphlB_mgm3</t>
+  </si>
+  <si>
+    <t>DvCphlB_mgm3</t>
+  </si>
+  <si>
+    <t>Echin_mgm3</t>
+  </si>
+  <si>
+    <t>Fuco_mgm3</t>
+  </si>
+  <si>
+    <t>Gyro_mgm3</t>
+  </si>
+  <si>
+    <t>Hexfuco_mgm3</t>
+  </si>
+  <si>
+    <t>Ketohexfuco_mgm3</t>
+  </si>
+  <si>
+    <t>Lut_mgm3</t>
+  </si>
+  <si>
+    <t>Lyco_mgm3</t>
+  </si>
+  <si>
+    <t>MgDvp_mgm3</t>
+  </si>
+  <si>
+    <t>Neo_mgm3</t>
+  </si>
+  <si>
+    <t>Perid_mgm3</t>
+  </si>
+  <si>
+    <t>PhideA_mgm3</t>
+  </si>
+  <si>
+    <t>PhytinA_mgm3</t>
+  </si>
+  <si>
+    <t>PhytinB_mgm3</t>
+  </si>
+  <si>
+    <t>Pras_mgm3</t>
+  </si>
+  <si>
+    <t>PyrophideA_mgm3</t>
+  </si>
+  <si>
+    <t>PyrophytinA_mgm3</t>
+  </si>
+  <si>
+    <t>Viola_mgm3</t>
+  </si>
+  <si>
+    <t>Zea_mgm3</t>
+  </si>
+  <si>
+    <t>Pigments_flag</t>
+  </si>
+  <si>
+    <t>AustralianMicrobiomeId</t>
+  </si>
+  <si>
+    <t>var00220</t>
+  </si>
+  <si>
+    <t>var00221</t>
+  </si>
+  <si>
+    <t>var00222</t>
+  </si>
+  <si>
+    <t>var00223</t>
+  </si>
+  <si>
+    <t>var00224</t>
+  </si>
+  <si>
+    <t>var00225</t>
+  </si>
+  <si>
+    <t>var00226</t>
+  </si>
+  <si>
+    <t>var00227</t>
+  </si>
+  <si>
+    <t>var00228</t>
+  </si>
+  <si>
+    <t>var00229</t>
+  </si>
+  <si>
+    <t>var00230</t>
+  </si>
+  <si>
+    <t>var00231</t>
+  </si>
+  <si>
+    <t>var00232</t>
+  </si>
+  <si>
+    <t>var00233</t>
+  </si>
+  <si>
+    <t>var00234</t>
+  </si>
+  <si>
+    <t>var00235</t>
+  </si>
+  <si>
+    <t>var00236</t>
+  </si>
+  <si>
+    <t>var00237</t>
+  </si>
+  <si>
+    <t>var00238</t>
+  </si>
+  <si>
+    <t>var00239</t>
+  </si>
+  <si>
+    <t>var00240</t>
+  </si>
+  <si>
+    <t>var00241</t>
+  </si>
+  <si>
+    <t>var00242</t>
+  </si>
+  <si>
+    <t>var00243</t>
+  </si>
+  <si>
+    <t>var00244</t>
+  </si>
+  <si>
+    <t>var00245</t>
+  </si>
+  <si>
+    <t>var00246</t>
+  </si>
+  <si>
+    <t>var00247</t>
+  </si>
+  <si>
+    <t>var00248</t>
+  </si>
+  <si>
+    <t>var00249</t>
+  </si>
+  <si>
+    <t>var00250</t>
+  </si>
+  <si>
+    <t>var00251</t>
+  </si>
+  <si>
+    <t>var00252</t>
+  </si>
+  <si>
+    <t>var00253</t>
+  </si>
+  <si>
+    <t>var00254</t>
+  </si>
+  <si>
+    <t>var00255</t>
+  </si>
+  <si>
+    <t>var00256</t>
+  </si>
+  <si>
+    <t>var00257</t>
+  </si>
+  <si>
+    <t>var00258</t>
+  </si>
+  <si>
+    <t>var00259</t>
+  </si>
+  <si>
+    <t>var00260</t>
+  </si>
+  <si>
+    <t>var00261</t>
+  </si>
+  <si>
+    <t>var00262</t>
+  </si>
+  <si>
+    <t>var00263</t>
+  </si>
+  <si>
+    <t>var00264</t>
+  </si>
+  <si>
+    <t>var00265</t>
+  </si>
+  <si>
+    <t>Prochlorococcus</t>
+  </si>
+  <si>
+    <t>cellsmL</t>
+  </si>
+  <si>
+    <t>Synechococcus</t>
+  </si>
+  <si>
+    <t>Picoeukaryotes</t>
+  </si>
+  <si>
+    <t>Allo</t>
+  </si>
+  <si>
+    <t>mgm3</t>
+  </si>
+  <si>
+    <t>AlphaBetaCar</t>
+  </si>
+  <si>
+    <t>Anth</t>
+  </si>
+  <si>
+    <t>Asta</t>
+  </si>
+  <si>
+    <t>BetaBetaCar</t>
+  </si>
+  <si>
+    <t>BetaEpiCar</t>
+  </si>
+  <si>
+    <t>Butfuco</t>
+  </si>
+  <si>
+    <t>Cantha</t>
+  </si>
+  <si>
+    <t>CphlA</t>
+  </si>
+  <si>
+    <t>CphlB</t>
+  </si>
+  <si>
+    <t>CphlC1</t>
+  </si>
+  <si>
+    <t>CphlC2</t>
+  </si>
+  <si>
+    <t>CphlC3</t>
+  </si>
+  <si>
+    <t>CphlC1C2</t>
+  </si>
+  <si>
+    <t>CphlideA</t>
+  </si>
+  <si>
+    <t>Diadchr</t>
+  </si>
+  <si>
+    <t>Diadino</t>
+  </si>
+  <si>
+    <t>Diato</t>
+  </si>
+  <si>
+    <t>Dino</t>
+  </si>
+  <si>
+    <t>DvCphlA+CphlA</t>
+  </si>
+  <si>
+    <t>DvCphlA</t>
+  </si>
+  <si>
+    <t>DvCphlB+CphlB</t>
+  </si>
+  <si>
+    <t>DvCphlB</t>
+  </si>
+  <si>
+    <t>Echin</t>
+  </si>
+  <si>
+    <t>Fuco</t>
+  </si>
+  <si>
+    <t>Gyro</t>
+  </si>
+  <si>
+    <t>Hexfuco</t>
+  </si>
+  <si>
+    <t>Ketohexfuco</t>
+  </si>
+  <si>
+    <t>Lut</t>
+  </si>
+  <si>
+    <t>Lyco</t>
+  </si>
+  <si>
+    <t>MgDvp</t>
+  </si>
+  <si>
+    <t>Neo</t>
+  </si>
+  <si>
+    <t>Perid</t>
+  </si>
+  <si>
+    <t>PhideA</t>
+  </si>
+  <si>
+    <t>PhytinA</t>
+  </si>
+  <si>
+    <t>PhytinB</t>
+  </si>
+  <si>
+    <t>Pras</t>
+  </si>
+  <si>
+    <t>PyrophideA</t>
+  </si>
+  <si>
+    <t>PyrophytinA</t>
+  </si>
+  <si>
+    <t>Viola</t>
+  </si>
+  <si>
+    <t>Zea</t>
+  </si>
+  <si>
+    <t>Nitrite</t>
+  </si>
+  <si>
+    <t>TSSorganic</t>
+  </si>
+  <si>
+    <t>TSSinorganic</t>
+  </si>
+  <si>
+    <t>var00266</t>
+  </si>
+  <si>
+    <t>DIC</t>
+  </si>
+  <si>
+    <t>var00267</t>
+  </si>
+  <si>
+    <t>DvCphlA_CphlA</t>
+  </si>
+  <si>
+    <t>DvCphlB_CphlB</t>
+  </si>
+  <si>
+    <t>PRES_REL</t>
+  </si>
+  <si>
+    <t>PRES_REL_quality_control</t>
+  </si>
+  <si>
+    <t>TEMP_quality_control</t>
+  </si>
+  <si>
+    <t>PSAL</t>
+  </si>
+  <si>
+    <t>PSAL_quality_control</t>
+  </si>
+  <si>
+    <t>DOX2</t>
+  </si>
+  <si>
+    <t>DOX2_quality_control</t>
+  </si>
+  <si>
+    <t>TURB</t>
+  </si>
+  <si>
+    <t>TURB_quality_control</t>
+  </si>
+  <si>
+    <t>CHLF</t>
+  </si>
+  <si>
+    <t>CHLF_quality_control</t>
+  </si>
+  <si>
+    <t>CHLU</t>
+  </si>
+  <si>
+    <t>CHLU_quality_control</t>
+  </si>
+  <si>
+    <t>CPHL</t>
+  </si>
+  <si>
+    <t>CPHL_quality_control</t>
+  </si>
+  <si>
+    <t>CNDC</t>
+  </si>
+  <si>
+    <t>CNDC_quality_control</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>DESC_quality_control</t>
+  </si>
+  <si>
+    <t>DENS</t>
+  </si>
+  <si>
+    <t>DENS_quality_control</t>
   </si>
 </sst>
 </file>
@@ -3884,11 +4462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D1833-63F5-4230-AD16-32E9E48F56BB}">
-  <dimension ref="A1:J220"/>
+  <dimension ref="A1:J268"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8478,6 +9056,822 @@
         <v>840</v>
       </c>
     </row>
+    <row r="221" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B221" s="17" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F221" s="17" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B222" s="17" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F222" s="17" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B223" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F223" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B224" s="17" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F224" s="17" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B225" s="17" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F225" s="17" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B226" s="17" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F226" s="17" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B227" s="17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F227" s="17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B228" s="17" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F228" s="17" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B229" s="17" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F229" s="17" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B230" s="17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F230" s="17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B231" s="17" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F231" s="17" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B232" s="17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F232" s="17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B233" s="17" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F233" s="17" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B234" s="17" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F234" s="17" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B235" s="17" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F235" s="17" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B236" s="17" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F236" s="17" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B237" s="17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F237" s="17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B238" s="17" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F238" s="17" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B239" s="17" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F239" s="17" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B240" s="17" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F240" s="17" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B241" s="17" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F241" s="17" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B242" s="17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F242" s="17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B243" s="17" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F243" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B244" s="17" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F244" s="17" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B245" s="17" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F245" s="17" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B246" s="17" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F246" s="17" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B247" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F247" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B248" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F248" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B249" s="17" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F249" s="17" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B250" s="17" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F250" s="17" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B251" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F251" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B252" s="17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F252" s="17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B253" s="17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F253" s="17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B254" s="17" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F254" s="17" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B255" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F255" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B256" s="17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F256" s="17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B257" s="17" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F257" s="17" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B258" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F258" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B259" s="17" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F259" s="17" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B260" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F260" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B261" s="17" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F261" s="17" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B262" s="17" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F262" s="17" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B263" s="17" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F263" s="17" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B264" s="17" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F264" s="17" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B265" s="17" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F265" s="17" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B266" s="17" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F266" s="17" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B267" s="17" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F267" s="17" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J181" xr:uid="{407D1833-63F5-4230-AD16-32E9E48F56BB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8486,12 +9880,40 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B6692B-9920-4E77-9D5B-6B101F30D414}">
+  <dimension ref="A3:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3327CA4D-663D-443F-80DC-1A1E539BD38E}">
   <dimension ref="A1:F283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+    <sheetView topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8590,7 +10012,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8613,7 +10035,8 @@
         <v>49</v>
       </c>
       <c r="F5" s="16">
-        <v>1.4E-2</v>
+        <f>1000/14</f>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8636,7 +10059,8 @@
         <v>49</v>
       </c>
       <c r="F6" s="14">
-        <v>3.1E-2</v>
+        <f>1000/31</f>
+        <v>32.258064516129032</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8727,8 +10151,9 @@
       <c r="E10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="14">
-        <v>1.4E-2</v>
+      <c r="F10" s="16">
+        <f>1000/14</f>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8750,8 +10175,9 @@
       <c r="E11" s="14" t="s">
         <v>836</v>
       </c>
-      <c r="F11" s="14">
-        <v>3.1E-2</v>
+      <c r="F11" s="17">
+        <f>1000/31</f>
+        <v>32.258064516129032</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8774,7 +10200,8 @@
         <v>837</v>
       </c>
       <c r="F12" s="15">
-        <v>1.2000000048E-2</v>
+        <f>1000/12</f>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9027,7 +10454,7 @@
         <v>32</v>
       </c>
       <c r="F23" s="17">
-        <v>1.1574074074074073E-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9050,7 +10477,8 @@
         <v>842</v>
       </c>
       <c r="F24" s="14">
-        <v>3.2000000000000001E-2</v>
+        <f>1000/32</f>
+        <v>31.25</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9072,8 +10500,8 @@
       <c r="E25" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="F25" s="14">
-        <v>2.81E-2</v>
+      <c r="F25" s="17">
+        <v>35.587188609999998</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9095,8 +10523,9 @@
       <c r="E26" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="F26" s="14">
-        <v>1.4E-2</v>
+      <c r="F26" s="16">
+        <f>1000/14</f>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -9118,8 +10547,9 @@
       <c r="E27" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="F27" s="14">
-        <v>1.4E-2</v>
+      <c r="F27" s="16">
+        <f>1000/14</f>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -9141,8 +10571,9 @@
       <c r="E28" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="F28" s="14">
-        <v>3.1E-2</v>
+      <c r="F28" s="17">
+        <f>1000/31</f>
+        <v>32.258064516129032</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -9164,8 +10595,9 @@
       <c r="E29" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="F29" s="14">
-        <v>3.1E-2</v>
+      <c r="F29" s="17">
+        <f>1000/31</f>
+        <v>32.258064516129032</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9188,7 +10620,8 @@
         <v>842</v>
       </c>
       <c r="F30" s="15">
-        <v>1.2000000048E-2</v>
+        <f>1000/12</f>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -9211,7 +10644,8 @@
         <v>842</v>
       </c>
       <c r="F31" s="15">
-        <v>1.2000000048E-2</v>
+        <f>1000/12</f>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9234,7 +10668,8 @@
         <v>842</v>
       </c>
       <c r="F32" s="15">
-        <v>1.2000000048E-2</v>
+        <f>1000/12</f>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9257,7 +10692,8 @@
         <v>842</v>
       </c>
       <c r="F33" s="16">
-        <v>1.4E-2</v>
+        <f>1000/14</f>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9280,7 +10716,8 @@
         <v>842</v>
       </c>
       <c r="F34" s="16">
-        <v>1.4E-2</v>
+        <f>1000/14</f>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9303,7 +10740,8 @@
         <v>842</v>
       </c>
       <c r="F35" s="16">
-        <v>1.4E-2</v>
+        <f>1000/14</f>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -9325,8 +10763,9 @@
       <c r="E36" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="F36" s="14">
-        <v>3.1E-2</v>
+      <c r="F36" s="17">
+        <f>1000/31</f>
+        <v>32.258064516129032</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9348,8 +10787,9 @@
       <c r="E37" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="F37" s="14">
-        <v>3.1E-2</v>
+      <c r="F37" s="17">
+        <f>1000/31</f>
+        <v>32.258064516129032</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -9371,8 +10811,9 @@
       <c r="E38" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="F38" s="14">
-        <v>3.1E-2</v>
+      <c r="F38" s="17">
+        <f>1000/31</f>
+        <v>32.258064516129032</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -13446,261 +14887,981 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D221" s="14"/>
-      <c r="E221" s="14"/>
-      <c r="F221" s="14"/>
+      <c r="A221" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B221" s="17" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D221" s="17" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F221" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D222" s="14"/>
-      <c r="E222" s="14"/>
-      <c r="F222" s="14"/>
+      <c r="A222" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B222" s="17" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F222" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D223" s="14"/>
-      <c r="E223" s="14"/>
-      <c r="F223" s="14"/>
+      <c r="A223" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B223" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D223" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F223" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D224" s="14"/>
-      <c r="E224" s="14"/>
-      <c r="F224" s="14"/>
-    </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D225" s="14"/>
-      <c r="E225" s="14"/>
-      <c r="F225" s="14"/>
-    </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D226" s="14"/>
-      <c r="E226" s="14"/>
-      <c r="F226" s="14"/>
-    </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D227" s="14"/>
-      <c r="E227" s="14"/>
-      <c r="F227" s="14"/>
-    </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D228" s="14"/>
-      <c r="E228" s="14"/>
-      <c r="F228" s="14"/>
-    </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D229" s="14"/>
-      <c r="E229" s="14"/>
-      <c r="F229" s="14"/>
-    </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D230" s="14"/>
-      <c r="E230" s="14"/>
-      <c r="F230" s="14"/>
-    </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D231" s="14"/>
-      <c r="E231" s="14"/>
-      <c r="F231" s="14"/>
-    </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D232" s="14"/>
-      <c r="E232" s="14"/>
-      <c r="F232" s="14"/>
-    </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D233" s="14"/>
-      <c r="E233" s="14"/>
-      <c r="F233" s="14"/>
-    </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D234" s="14"/>
-      <c r="E234" s="14"/>
-      <c r="F234" s="14"/>
-    </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D235" s="14"/>
-      <c r="E235" s="14"/>
-      <c r="F235" s="14"/>
-    </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D236" s="14"/>
-      <c r="E236" s="14"/>
-      <c r="F236" s="14"/>
-    </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D237" s="14"/>
-      <c r="E237" s="14"/>
-      <c r="F237" s="14"/>
-    </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D238" s="14"/>
-      <c r="E238" s="14"/>
-      <c r="F238" s="14"/>
-    </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D239" s="14"/>
-      <c r="E239" s="14"/>
-      <c r="F239" s="14"/>
-    </row>
-    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D240" s="14"/>
-      <c r="E240" s="14"/>
-      <c r="F240" s="14"/>
-    </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D241" s="14"/>
-      <c r="E241" s="14"/>
-      <c r="F241" s="14"/>
-    </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D242" s="14"/>
-      <c r="E242" s="14"/>
-      <c r="F242" s="14"/>
-    </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D243" s="14"/>
-      <c r="E243" s="14"/>
-      <c r="F243" s="14"/>
-    </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D244" s="14"/>
-      <c r="E244" s="14"/>
-      <c r="F244" s="14"/>
-    </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D245" s="14"/>
-      <c r="E245" s="14"/>
-      <c r="F245" s="14"/>
-    </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D246" s="14"/>
-      <c r="E246" s="14"/>
-      <c r="F246" s="14"/>
-    </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D247" s="14"/>
-      <c r="E247" s="14"/>
-      <c r="F247" s="14"/>
-    </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D248" s="14"/>
-      <c r="E248" s="14"/>
-      <c r="F248" s="14"/>
-    </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D249" s="14"/>
-      <c r="E249" s="14"/>
-      <c r="F249" s="14"/>
-    </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D250" s="14"/>
-      <c r="E250" s="14"/>
-      <c r="F250" s="14"/>
-    </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D251" s="14"/>
-      <c r="E251" s="14"/>
-      <c r="F251" s="14"/>
-    </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D252" s="14"/>
-      <c r="E252" s="14"/>
-      <c r="F252" s="14"/>
-    </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D253" s="14"/>
-      <c r="E253" s="14"/>
-      <c r="F253" s="14"/>
-    </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D254" s="14"/>
-      <c r="E254" s="14"/>
-      <c r="F254" s="14"/>
-    </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D255" s="14"/>
-      <c r="E255" s="14"/>
-      <c r="F255" s="14"/>
-    </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D256" s="14"/>
-      <c r="E256" s="14"/>
-      <c r="F256" s="14"/>
-    </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D257" s="14"/>
-      <c r="E257" s="14"/>
-      <c r="F257" s="14"/>
-    </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D258" s="14"/>
-      <c r="E258" s="14"/>
-      <c r="F258" s="14"/>
-    </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D259" s="14"/>
-      <c r="E259" s="14"/>
-      <c r="F259" s="14"/>
-    </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D260" s="14"/>
-      <c r="E260" s="14"/>
-      <c r="F260" s="14"/>
-    </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D261" s="14"/>
-      <c r="E261" s="14"/>
-      <c r="F261" s="14"/>
-    </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D262" s="14"/>
-      <c r="E262" s="14"/>
-      <c r="F262" s="14"/>
-    </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D263" s="14"/>
-      <c r="E263" s="14"/>
-      <c r="F263" s="14"/>
-    </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D264" s="14"/>
-      <c r="E264" s="14"/>
-      <c r="F264" s="14"/>
-    </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D265" s="14"/>
-      <c r="E265" s="14"/>
-      <c r="F265" s="14"/>
-    </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D266" s="14"/>
-      <c r="E266" s="14"/>
-      <c r="F266" s="14"/>
-    </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D267" s="14"/>
-      <c r="E267" s="14"/>
-      <c r="F267" s="14"/>
-    </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D268" s="14"/>
-      <c r="E268" s="14"/>
-      <c r="F268" s="14"/>
-    </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B224" s="17" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F224" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B225" s="17" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D225" s="17" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F225" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B226" s="17" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F226" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B227" s="17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D227" s="17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F227" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B228" s="17" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F228" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B229" s="17" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F229" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B230" s="17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F230" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B231" s="17" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D231" s="17" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F231" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B232" s="17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D232" s="17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F232" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B233" s="17" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D233" s="17" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F233" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B234" s="17" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D234" s="17" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F234" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B235" s="17" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F235" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B236" s="17" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D236" s="17" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F236" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B237" s="17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D237" s="17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F237" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B238" s="17" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D238" s="17" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F238" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B239" s="17" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D239" s="17" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F239" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B240" s="17" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D240" s="17" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F240" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B241" s="17" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D241" s="17" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F241" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B242" s="17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D242" s="17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F242" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B243" s="17" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D243" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F243" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B244" s="17" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F244" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B245" s="17" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F245" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B246" s="17" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F246" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B247" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F247" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B248" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F248" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B249" s="17" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F249" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B250" s="17" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D250" s="17" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F250" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B251" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D251" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F251" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B252" s="17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F252" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B253" s="17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D253" s="17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F253" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B254" s="17" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F254" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B255" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D255" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F255" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B256" s="17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D256" s="17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F256" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B257" s="17" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D257" s="17" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F257" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B258" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D258" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F258" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B259" s="17" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B260" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D260" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B261" s="17" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B262" s="17" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D262" s="17" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F262" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B263" s="17" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D263" s="17" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F263" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B264" s="17" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D264" s="17" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F264" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B265" s="17" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" s="17" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F265" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B266" s="17" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" s="17" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F266" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B267" s="17" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" s="17" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F267" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F268" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D269" s="14"/>
       <c r="E269" s="14"/>
       <c r="F269" s="14"/>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D270" s="14"/>
       <c r="E270" s="14"/>
       <c r="F270" s="14"/>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D271" s="14"/>
       <c r="E271" s="14"/>
       <c r="F271" s="14"/>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D272" s="14"/>
       <c r="E272" s="14"/>
       <c r="F272" s="14"/>
@@ -13771,8 +15932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E5E19A-8269-4B75-9F84-B2CE294BEEE9}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13809,7 +15970,7 @@
         <v>227</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>VLOOKUP(C2,Key!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C2,Key!$A$2:$B934,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E2" t="s">
@@ -13827,7 +15988,7 @@
         <v>1071</v>
       </c>
       <c r="D3" s="2" t="e">
-        <f>VLOOKUP(C3,Key!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C3,Key!$A$2:$B935,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E3" t="s">
@@ -13845,7 +16006,7 @@
         <v>1071</v>
       </c>
       <c r="D4" s="2" t="e">
-        <f>VLOOKUP(C4,Key!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C4,Key!$A$2:$B936,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -13863,7 +16024,7 @@
         <v>1071</v>
       </c>
       <c r="D5" s="2" t="e">
-        <f>VLOOKUP(C5,Key!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C5,Key!$A$2:$B936,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -13881,7 +16042,7 @@
         <v>1071</v>
       </c>
       <c r="D6" s="2" t="e">
-        <f>VLOOKUP(C6,Key!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C6,Key!$A$2:$B937,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -13899,7 +16060,7 @@
         <v>1071</v>
       </c>
       <c r="D7" s="2" t="e">
-        <f>VLOOKUP(C7,Key!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C7,Key!$A$2:$B938,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E7" s="17" t="s">
@@ -13917,7 +16078,7 @@
         <v>1071</v>
       </c>
       <c r="D8" s="2" t="e">
-        <f>VLOOKUP(C8,Key!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C8,Key!$A$2:$B939,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E8" s="17" t="s">
@@ -13935,7 +16096,7 @@
         <v>1071</v>
       </c>
       <c r="D9" s="2" t="e">
-        <f>VLOOKUP(C9,Key!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C9,Key!$A$2:$B940,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -13953,7 +16114,7 @@
         <v>1071</v>
       </c>
       <c r="D10" s="2" t="e">
-        <f>VLOOKUP(C10,Key!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C10,Key!$A$2:$B941,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -13971,7 +16132,7 @@
         <v>1071</v>
       </c>
       <c r="D11" s="2" t="e">
-        <f>VLOOKUP(C11,Key!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C11,Key!$A$2:$B942,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E11" s="17" t="s">
@@ -13989,7 +16150,7 @@
         <v>1071</v>
       </c>
       <c r="D12" s="2" t="e">
-        <f>VLOOKUP(C12,Key!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C12,Key!$A$2:$B943,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E12" s="17" t="s">
@@ -14008,7 +16169,7 @@
         <v>229</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f>VLOOKUP(C13,Key!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C13,Key!$A$2:$B944,2,TRUE)</f>
         <v>Ammonium</v>
       </c>
       <c r="E13" s="17" t="s">
@@ -14026,7 +16187,7 @@
         <v>1074</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f>VLOOKUP(C14,Key!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C14,Key!$A$2:$B945,2,TRUE)</f>
         <v>light attenuation coefficient</v>
       </c>
       <c r="E14" s="17" t="s">
@@ -14044,7 +16205,7 @@
         <v>1074</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f>VLOOKUP(C15,Key!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C15,Key!$A$2:$B946,2,TRUE)</f>
         <v>light attenuation coefficient</v>
       </c>
       <c r="E15" s="17" t="s">
@@ -14062,7 +16223,7 @@
         <v>1076</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f>VLOOKUP(C16,Key!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C16,Key!$A$2:$B947,2,TRUE)</f>
         <v>cell</v>
       </c>
       <c r="E16" s="17" t="s">
@@ -14080,7 +16241,7 @@
         <v>218</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f>VLOOKUP(C17,Key!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C17,Key!$A$2:$B948,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
       <c r="E17" s="17" t="s">
@@ -14098,7 +16259,7 @@
         <v>218</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f>VLOOKUP(C18,Key!$A$2:$B955,2,TRUE)</f>
+        <f>VLOOKUP(C18,Key!$A$2:$B949,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
       <c r="E18" s="17" t="s">
@@ -14116,7 +16277,7 @@
         <v>385</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f>VLOOKUP(C19,Key!$A$2:$B956,2,TRUE)</f>
+        <f>VLOOKUP(C19,Key!$A$2:$B950,2,TRUE)</f>
         <v>Chlorophyll-b</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -14134,7 +16295,7 @@
         <v>386</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f>VLOOKUP(C20,Key!$A$2:$B957,2,TRUE)</f>
+        <f>VLOOKUP(C20,Key!$A$2:$B951,2,TRUE)</f>
         <v>Chlorophyll-c</v>
       </c>
       <c r="E20" s="17" t="s">
@@ -14152,7 +16313,7 @@
         <v>218</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f>VLOOKUP(C21,Key!$A$2:$B958,2,TRUE)</f>
+        <f>VLOOKUP(C21,Key!$A$2:$B952,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
       <c r="E21" s="17" t="s">
@@ -14170,7 +16331,7 @@
         <v>218</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f>VLOOKUP(C22,Key!$A$2:$B959,2,TRUE)</f>
+        <f>VLOOKUP(C22,Key!$A$2:$B953,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
       <c r="E22" s="17" t="s">
@@ -14188,7 +16349,7 @@
         <v>391</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f>VLOOKUP(C23,Key!$A$2:$B960,2,TRUE)</f>
+        <f>VLOOKUP(C23,Key!$A$2:$B954,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
       <c r="E23" s="17" t="s">
@@ -14206,7 +16367,7 @@
         <v>391</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f>VLOOKUP(C24,Key!$A$2:$B961,2,TRUE)</f>
+        <f>VLOOKUP(C24,Key!$A$2:$B955,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
       <c r="E24" s="17" t="s">
@@ -14224,7 +16385,7 @@
         <v>391</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f>VLOOKUP(C25,Key!$A$2:$B962,2,TRUE)</f>
+        <f>VLOOKUP(C25,Key!$A$2:$B956,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
       <c r="E25" s="17" t="s">
@@ -14242,7 +16403,7 @@
         <v>391</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f>VLOOKUP(C26,Key!$A$2:$B963,2,TRUE)</f>
+        <f>VLOOKUP(C26,Key!$A$2:$B957,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
       <c r="E26" s="17" t="s">
@@ -14260,7 +16421,7 @@
         <v>1071</v>
       </c>
       <c r="D27" s="2" t="e">
-        <f>VLOOKUP(C27,Key!$A$2:$B965,2,TRUE)</f>
+        <f>VLOOKUP(C27,Key!$A$2:$B959,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E27" s="17" t="s">
@@ -14278,7 +16439,7 @@
         <v>227</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f>VLOOKUP(C28,Key!$A$2:$B966,2,TRUE)</f>
+        <f>VLOOKUP(C28,Key!$A$2:$B960,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E28" s="17" t="s">
@@ -14296,7 +16457,7 @@
         <v>227</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f>VLOOKUP(C29,Key!$A$2:$B967,2,TRUE)</f>
+        <f>VLOOKUP(C29,Key!$A$2:$B961,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E29" s="17" t="s">
@@ -14314,7 +16475,7 @@
         <v>227</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f>VLOOKUP(C30,Key!$A$2:$B968,2,TRUE)</f>
+        <f>VLOOKUP(C30,Key!$A$2:$B962,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E30" s="17" t="s">
@@ -14332,7 +16493,7 @@
         <v>227</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f>VLOOKUP(C31,Key!$A$2:$B969,2,TRUE)</f>
+        <f>VLOOKUP(C31,Key!$A$2:$B963,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E31" s="17" t="s">
@@ -14350,7 +16511,7 @@
         <v>227</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f>VLOOKUP(C32,Key!$A$2:$B970,2,TRUE)</f>
+        <f>VLOOKUP(C32,Key!$A$2:$B964,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E32" s="17" t="s">
@@ -14368,7 +16529,7 @@
         <v>289</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f>VLOOKUP(C33,Key!$A$2:$B971,2,TRUE)</f>
+        <f>VLOOKUP(C33,Key!$A$2:$B965,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
       <c r="E33" s="17" t="s">
@@ -14386,7 +16547,7 @@
         <v>227</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f>VLOOKUP(C34,Key!$A$2:$B972,2,TRUE)</f>
+        <f>VLOOKUP(C34,Key!$A$2:$B966,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E34" s="17" t="s">
@@ -14404,7 +16565,7 @@
         <v>227</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f>VLOOKUP(C35,Key!$A$2:$B973,2,TRUE)</f>
+        <f>VLOOKUP(C35,Key!$A$2:$B967,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E35" s="17" t="s">
@@ -14422,7 +16583,7 @@
         <v>227</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f>VLOOKUP(C36,Key!$A$2:$B974,2,TRUE)</f>
+        <f>VLOOKUP(C36,Key!$A$2:$B968,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E36" s="17" t="s">
@@ -14440,7 +16601,7 @@
         <v>289</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f>VLOOKUP(C37,Key!$A$2:$B975,2,TRUE)</f>
+        <f>VLOOKUP(C37,Key!$A$2:$B969,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
       <c r="E37" s="17" t="s">
@@ -14458,7 +16619,7 @@
         <v>227</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f>VLOOKUP(C38,Key!$A$2:$B976,2,TRUE)</f>
+        <f>VLOOKUP(C38,Key!$A$2:$B970,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E38" s="17" t="s">
@@ -14476,7 +16637,7 @@
         <v>1071</v>
       </c>
       <c r="D39" s="2" t="e">
-        <f>VLOOKUP(C39,Key!$A$2:$B977,2,TRUE)</f>
+        <f>VLOOKUP(C39,Key!$A$2:$B971,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E39" s="17" t="s">
@@ -14494,7 +16655,7 @@
         <v>1082</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f>VLOOKUP(C40,Key!$A$2:$B979,2,TRUE)</f>
+        <f>VLOOKUP(C40,Key!$A$2:$B973,2,TRUE)</f>
         <v>density</v>
       </c>
       <c r="E40" s="17" t="s">
@@ -14512,7 +16673,7 @@
         <v>1082</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f>VLOOKUP(C41,Key!$A$2:$B980,2,TRUE)</f>
+        <f>VLOOKUP(C41,Key!$A$2:$B974,2,TRUE)</f>
         <v>density</v>
       </c>
       <c r="E41" s="17" t="s">
@@ -14530,7 +16691,7 @@
         <v>227</v>
       </c>
       <c r="D42" s="2" t="str">
-        <f>VLOOKUP(C42,Key!$A$2:$B981,2,TRUE)</f>
+        <f>VLOOKUP(C42,Key!$A$2:$B975,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E42" s="17" t="s">
@@ -14548,7 +16709,7 @@
         <v>227</v>
       </c>
       <c r="D43" s="2" t="str">
-        <f>VLOOKUP(C43,Key!$A$2:$B982,2,TRUE)</f>
+        <f>VLOOKUP(C43,Key!$A$2:$B976,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
       <c r="E43" s="17" t="s">
@@ -14566,7 +16727,7 @@
         <v>1083</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f>VLOOKUP(C44,Key!$A$2:$B983,2,TRUE)</f>
+        <f>VLOOKUP(C44,Key!$A$2:$B977,2,TRUE)</f>
         <v>fluorescence</v>
       </c>
       <c r="E44" s="17" t="s">
@@ -14584,7 +16745,7 @@
         <v>1083</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f>VLOOKUP(C45,Key!$A$2:$B984,2,TRUE)</f>
+        <f>VLOOKUP(C45,Key!$A$2:$B978,2,TRUE)</f>
         <v>fluorescence</v>
       </c>
       <c r="E45" s="17" t="s">
@@ -14602,7 +16763,7 @@
         <v>1083</v>
       </c>
       <c r="D46" s="2" t="str">
-        <f>VLOOKUP(C46,Key!$A$2:$B985,2,TRUE)</f>
+        <f>VLOOKUP(C46,Key!$A$2:$B979,2,TRUE)</f>
         <v>fluorescence</v>
       </c>
       <c r="E46" s="17" t="s">
@@ -14620,7 +16781,7 @@
         <v>1083</v>
       </c>
       <c r="D47" s="2" t="str">
-        <f>VLOOKUP(C47,Key!$A$2:$B986,2,TRUE)</f>
+        <f>VLOOKUP(C47,Key!$A$2:$B980,2,TRUE)</f>
         <v>fluorescence</v>
       </c>
       <c r="E47" s="17" t="s">
@@ -14638,7 +16799,7 @@
         <v>1074</v>
       </c>
       <c r="D48" s="2" t="str">
-        <f>VLOOKUP(C48,Key!$A$2:$B987,2,TRUE)</f>
+        <f>VLOOKUP(C48,Key!$A$2:$B981,2,TRUE)</f>
         <v>light attenuation coefficient</v>
       </c>
       <c r="E48" s="17" t="s">
@@ -14656,7 +16817,7 @@
         <v>1074</v>
       </c>
       <c r="D49" s="2" t="str">
-        <f>VLOOKUP(C49,Key!$A$2:$B988,2,TRUE)</f>
+        <f>VLOOKUP(C49,Key!$A$2:$B982,2,TRUE)</f>
         <v>light attenuation coefficient</v>
       </c>
       <c r="E49" s="17" t="s">
@@ -14674,7 +16835,7 @@
         <v>1071</v>
       </c>
       <c r="D50" s="2" t="e">
-        <f>VLOOKUP(C50,Key!$A$2:$B989,2,TRUE)</f>
+        <f>VLOOKUP(C50,Key!$A$2:$B983,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E50" s="17" t="s">
@@ -14692,7 +16853,7 @@
         <v>1074</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f>VLOOKUP(C51,Key!$A$2:$B990,2,TRUE)</f>
+        <f>VLOOKUP(C51,Key!$A$2:$B984,2,TRUE)</f>
         <v>light attenuation coefficient</v>
       </c>
       <c r="E51" s="17" t="s">
@@ -14710,7 +16871,7 @@
         <v>1071</v>
       </c>
       <c r="D52" s="2" t="e">
-        <f>VLOOKUP(C52,Key!$A$2:$B991,2,TRUE)</f>
+        <f>VLOOKUP(C52,Key!$A$2:$B985,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E52" s="17" t="s">
@@ -14729,7 +16890,7 @@
         <v>229</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f>VLOOKUP(C53,Key!$A$2:$B992,2,TRUE)</f>
+        <f>VLOOKUP(C53,Key!$A$2:$B986,2,TRUE)</f>
         <v>Ammonium</v>
       </c>
       <c r="E53" s="17" t="s">
@@ -14748,7 +16909,7 @@
         <v>230</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f>VLOOKUP(C54,Key!$A$2:$B993,2,TRUE)</f>
+        <f>VLOOKUP(C54,Key!$A$2:$B987,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
       <c r="E54" s="17" t="s">
@@ -14767,7 +16928,7 @@
         <v>208</v>
       </c>
       <c r="D55" s="2" t="str">
-        <f>VLOOKUP(C55,Key!$A$2:$B994,2,TRUE)</f>
+        <f>VLOOKUP(C55,Key!$A$2:$B988,2,TRUE)</f>
         <v>Organic Nitrogen</v>
       </c>
       <c r="E55" s="17" t="s">
@@ -14786,7 +16947,7 @@
         <v>213</v>
       </c>
       <c r="D56" s="2" t="str">
-        <f>VLOOKUP(C56,Key!$A$2:$B995,2,TRUE)</f>
+        <f>VLOOKUP(C56,Key!$A$2:$B989,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
       <c r="E56" s="17" t="s">
@@ -14805,7 +16966,7 @@
         <v>230</v>
       </c>
       <c r="D57" s="2" t="str">
-        <f>VLOOKUP(C57,Key!$A$2:$B996,2,TRUE)</f>
+        <f>VLOOKUP(C57,Key!$A$2:$B990,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
       <c r="E57" s="17" t="s">
@@ -14824,7 +16985,7 @@
         <v>230</v>
       </c>
       <c r="D58" s="2" t="str">
-        <f>VLOOKUP(C58,Key!$A$2:$B997,2,TRUE)</f>
+        <f>VLOOKUP(C58,Key!$A$2:$B991,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
       <c r="E58" s="17" t="s">
@@ -14843,7 +17004,7 @@
         <v>230</v>
       </c>
       <c r="D59" s="2" t="str">
-        <f>VLOOKUP(C59,Key!$A$2:$B998,2,TRUE)</f>
+        <f>VLOOKUP(C59,Key!$A$2:$B992,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
       <c r="E59" s="17" t="s">
@@ -14862,7 +17023,7 @@
         <v>231</v>
       </c>
       <c r="D60" s="2" t="str">
-        <f>VLOOKUP(C60,Key!$A$2:$B999,2,TRUE)</f>
+        <f>VLOOKUP(C60,Key!$A$2:$B993,2,TRUE)</f>
         <v>Filterable Reactive Phosphate</v>
       </c>
       <c r="E60" s="17" t="s">
@@ -14881,7 +17042,7 @@
         <v>231</v>
       </c>
       <c r="D61" s="2" t="str">
-        <f>VLOOKUP(C61,Key!$A$2:$B1000,2,TRUE)</f>
+        <f>VLOOKUP(C61,Key!$A$2:$B994,2,TRUE)</f>
         <v>Filterable Reactive Phosphate</v>
       </c>
       <c r="E61" s="17" t="s">
@@ -14900,7 +17061,7 @@
         <v>209</v>
       </c>
       <c r="D62" s="2" t="str">
-        <f>VLOOKUP(C62,Key!$A$2:$B1001,2,TRUE)</f>
+        <f>VLOOKUP(C62,Key!$A$2:$B995,2,TRUE)</f>
         <v>Organic Phosphorus</v>
       </c>
       <c r="E62" s="17" t="s">
@@ -14919,7 +17080,7 @@
         <v>214</v>
       </c>
       <c r="D63" s="2" t="str">
-        <f>VLOOKUP(C63,Key!$A$2:$B1002,2,TRUE)</f>
+        <f>VLOOKUP(C63,Key!$A$2:$B996,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="E63" s="17" t="s">
@@ -14938,7 +17099,7 @@
         <v>231</v>
       </c>
       <c r="D64" s="2" t="str">
-        <f>VLOOKUP(C64,Key!$A$2:$B1003,2,TRUE)</f>
+        <f>VLOOKUP(C64,Key!$A$2:$B997,2,TRUE)</f>
         <v>Filterable Reactive Phosphate</v>
       </c>
       <c r="E64" s="17" t="s">
@@ -14956,7 +17117,7 @@
         <v>235</v>
       </c>
       <c r="D65" s="2" t="str">
-        <f>VLOOKUP(C65,Key!$A$2:$B1004,2,TRUE)</f>
+        <f>VLOOKUP(C65,Key!$A$2:$B998,2,TRUE)</f>
         <v>Particulate Organic Carbon</v>
       </c>
       <c r="E65" s="17" t="s">
@@ -14974,7 +17135,7 @@
         <v>210</v>
       </c>
       <c r="D66" s="2" t="str">
-        <f>VLOOKUP(C66,Key!$A$2:$B1005,2,TRUE)</f>
+        <f>VLOOKUP(C66,Key!$A$2:$B999,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E66" s="17" t="s">
@@ -14992,7 +17153,7 @@
         <v>210</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f>VLOOKUP(C67,Key!$A$2:$B1006,2,TRUE)</f>
+        <f>VLOOKUP(C67,Key!$A$2:$B1000,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E67" s="17" t="s">
@@ -15010,7 +17171,7 @@
         <v>210</v>
       </c>
       <c r="D68" s="2" t="str">
-        <f>VLOOKUP(C68,Key!$A$2:$B1007,2,TRUE)</f>
+        <f>VLOOKUP(C68,Key!$A$2:$B1001,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E68" s="17" t="s">
@@ -15028,7 +17189,7 @@
         <v>210</v>
       </c>
       <c r="D69" s="2" t="str">
-        <f>VLOOKUP(C69,Key!$A$2:$B1008,2,TRUE)</f>
+        <f>VLOOKUP(C69,Key!$A$2:$B1002,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E69" s="17" t="s">
@@ -15046,7 +17207,7 @@
         <v>210</v>
       </c>
       <c r="D70" s="2" t="str">
-        <f>VLOOKUP(C70,Key!$A$2:$B1009,2,TRUE)</f>
+        <f>VLOOKUP(C70,Key!$A$2:$B1003,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E70" s="17" t="s">
@@ -15064,7 +17225,7 @@
         <v>210</v>
       </c>
       <c r="D71" s="2" t="str">
-        <f>VLOOKUP(C71,Key!$A$2:$B1010,2,TRUE)</f>
+        <f>VLOOKUP(C71,Key!$A$2:$B1004,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E71" s="17" t="s">
@@ -15082,7 +17243,7 @@
         <v>210</v>
       </c>
       <c r="D72" s="2" t="str">
-        <f>VLOOKUP(C72,Key!$A$2:$B1011,2,TRUE)</f>
+        <f>VLOOKUP(C72,Key!$A$2:$B1005,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E72" s="17" t="s">
@@ -15100,7 +17261,7 @@
         <v>210</v>
       </c>
       <c r="D73" s="2" t="str">
-        <f>VLOOKUP(C73,Key!$A$2:$B1012,2,TRUE)</f>
+        <f>VLOOKUP(C73,Key!$A$2:$B1006,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E73" s="17" t="s">
@@ -15118,7 +17279,7 @@
         <v>1071</v>
       </c>
       <c r="D74" s="2" t="e">
-        <f>VLOOKUP(C74,Key!$A$2:$B1013,2,TRUE)</f>
+        <f>VLOOKUP(C74,Key!$A$2:$B1007,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E74" s="17" t="s">
@@ -15136,7 +17297,7 @@
         <v>1071</v>
       </c>
       <c r="D75" s="2" t="e">
-        <f>VLOOKUP(C75,Key!$A$2:$B1014,2,TRUE)</f>
+        <f>VLOOKUP(C75,Key!$A$2:$B1008,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E75" s="17" t="s">
@@ -15154,7 +17315,7 @@
         <v>407</v>
       </c>
       <c r="D76" s="2" t="str">
-        <f>VLOOKUP(C76,Key!$A$2:$B1015,2,TRUE)</f>
+        <f>VLOOKUP(C76,Key!$A$2:$B1009,2,TRUE)</f>
         <v>Secchi depth</v>
       </c>
       <c r="E76" s="17" t="s">
@@ -15172,7 +17333,7 @@
         <v>1071</v>
       </c>
       <c r="D77" s="2" t="e">
-        <f>VLOOKUP(C77,Key!$A$2:$B1016,2,TRUE)</f>
+        <f>VLOOKUP(C77,Key!$A$2:$B1010,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E77" s="17" t="s">
@@ -15190,7 +17351,7 @@
         <v>1071</v>
       </c>
       <c r="D78" s="2" t="e">
-        <f>VLOOKUP(C78,Key!$A$2:$B1017,2,TRUE)</f>
+        <f>VLOOKUP(C78,Key!$A$2:$B1011,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E78" s="17" t="s">
@@ -15208,7 +17369,7 @@
         <v>407</v>
       </c>
       <c r="D79" s="2" t="str">
-        <f>VLOOKUP(C79,Key!$A$2:$B1018,2,TRUE)</f>
+        <f>VLOOKUP(C79,Key!$A$2:$B1012,2,TRUE)</f>
         <v>Secchi depth</v>
       </c>
       <c r="E79" s="17" t="s">
@@ -15226,7 +17387,7 @@
         <v>1071</v>
       </c>
       <c r="D80" s="2" t="e">
-        <f>VLOOKUP(C80,Key!$A$2:$B1019,2,TRUE)</f>
+        <f>VLOOKUP(C80,Key!$A$2:$B1013,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E80" s="17" t="s">
@@ -15244,7 +17405,7 @@
         <v>211</v>
       </c>
       <c r="D81" s="2" t="str">
-        <f>VLOOKUP(C81,Key!$A$2:$B1020,2,TRUE)</f>
+        <f>VLOOKUP(C81,Key!$A$2:$B1014,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E81" s="17" t="s">
@@ -15262,7 +17423,7 @@
         <v>211</v>
       </c>
       <c r="D82" s="2" t="str">
-        <f>VLOOKUP(C82,Key!$A$2:$B1021,2,TRUE)</f>
+        <f>VLOOKUP(C82,Key!$A$2:$B1015,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E82" s="17" t="s">
@@ -15280,7 +17441,7 @@
         <v>211</v>
       </c>
       <c r="D83" s="2" t="str">
-        <f>VLOOKUP(C83,Key!$A$2:$B1022,2,TRUE)</f>
+        <f>VLOOKUP(C83,Key!$A$2:$B1016,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E83" s="17" t="s">
@@ -15298,7 +17459,7 @@
         <v>211</v>
       </c>
       <c r="D84" s="2" t="str">
-        <f>VLOOKUP(C84,Key!$A$2:$B1023,2,TRUE)</f>
+        <f>VLOOKUP(C84,Key!$A$2:$B1017,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E84" s="17" t="s">
@@ -15316,7 +17477,7 @@
         <v>211</v>
       </c>
       <c r="D85" s="2" t="str">
-        <f>VLOOKUP(C85,Key!$A$2:$B1024,2,TRUE)</f>
+        <f>VLOOKUP(C85,Key!$A$2:$B1018,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E85" s="17" t="s">
@@ -15334,7 +17495,7 @@
         <v>211</v>
       </c>
       <c r="D86" s="2" t="str">
-        <f>VLOOKUP(C86,Key!$A$2:$B1025,2,TRUE)</f>
+        <f>VLOOKUP(C86,Key!$A$2:$B1019,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E86" s="17" t="s">
@@ -15353,7 +17514,7 @@
         <v>213</v>
       </c>
       <c r="D87" s="2" t="str">
-        <f>VLOOKUP(C87,Key!$A$2:$B1026,2,TRUE)</f>
+        <f>VLOOKUP(C87,Key!$A$2:$B1020,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
       <c r="E87" s="17" t="s">
@@ -15372,7 +17533,7 @@
         <v>213</v>
       </c>
       <c r="D88" s="2" t="str">
-        <f>VLOOKUP(C88,Key!$A$2:$B1027,2,TRUE)</f>
+        <f>VLOOKUP(C88,Key!$A$2:$B1021,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
       <c r="E88" s="17" t="s">
@@ -15391,7 +17552,7 @@
         <v>213</v>
       </c>
       <c r="D89" s="2" t="str">
-        <f>VLOOKUP(C89,Key!$A$2:$B1028,2,TRUE)</f>
+        <f>VLOOKUP(C89,Key!$A$2:$B1022,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
       <c r="E89" s="17" t="s">
@@ -15410,7 +17571,7 @@
         <v>214</v>
       </c>
       <c r="D90" s="2" t="str">
-        <f>VLOOKUP(C90,Key!$A$2:$B1029,2,TRUE)</f>
+        <f>VLOOKUP(C90,Key!$A$2:$B1023,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="E90" s="17" t="s">
@@ -15429,7 +17590,7 @@
         <v>214</v>
       </c>
       <c r="D91" s="2" t="str">
-        <f>VLOOKUP(C91,Key!$A$2:$B1030,2,TRUE)</f>
+        <f>VLOOKUP(C91,Key!$A$2:$B1024,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="E91" s="17" t="s">
@@ -15448,7 +17609,7 @@
         <v>214</v>
       </c>
       <c r="D92" s="2" t="str">
-        <f>VLOOKUP(C92,Key!$A$2:$B1031,2,TRUE)</f>
+        <f>VLOOKUP(C92,Key!$A$2:$B1025,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="E92" s="17" t="s">
@@ -15467,7 +17628,7 @@
         <v>214</v>
       </c>
       <c r="D93" s="2" t="str">
-        <f>VLOOKUP(C93,Key!$A$2:$B1032,2,TRUE)</f>
+        <f>VLOOKUP(C93,Key!$A$2:$B1026,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
       <c r="E93" s="17" t="s">
@@ -15485,7 +17646,7 @@
         <v>216</v>
       </c>
       <c r="D94" s="2" t="str">
-        <f>VLOOKUP(C94,Key!$A$2:$B1033,2,TRUE)</f>
+        <f>VLOOKUP(C94,Key!$A$2:$B1027,2,TRUE)</f>
         <v>Total Suspended Solids</v>
       </c>
       <c r="E94" s="17" t="s">
@@ -15503,7 +17664,7 @@
         <v>217</v>
       </c>
       <c r="D95" s="2" t="str">
-        <f>VLOOKUP(C95,Key!$A$2:$B1034,2,TRUE)</f>
+        <f>VLOOKUP(C95,Key!$A$2:$B1028,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
       <c r="E95" s="17" t="s">
@@ -15521,7 +17682,7 @@
         <v>217</v>
       </c>
       <c r="D96" s="2" t="str">
-        <f>VLOOKUP(C96,Key!$A$2:$B1035,2,TRUE)</f>
+        <f>VLOOKUP(C96,Key!$A$2:$B1029,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
       <c r="E96" s="17" t="s">
@@ -15539,7 +17700,7 @@
         <v>1071</v>
       </c>
       <c r="D97" s="2" t="e">
-        <f>VLOOKUP(C97,Key!$A$2:$B1036,2,TRUE)</f>
+        <f>VLOOKUP(C97,Key!$A$2:$B1030,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E97" s="17" t="s">
@@ -15557,7 +17718,7 @@
         <v>1071</v>
       </c>
       <c r="D98" s="2" t="e">
-        <f>VLOOKUP(C98,Key!$A$2:$B1037,2,TRUE)</f>
+        <f>VLOOKUP(C98,Key!$A$2:$B1031,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E98" s="17" t="s">
@@ -15575,7 +17736,7 @@
         <v>1071</v>
       </c>
       <c r="D99" s="2" t="e">
-        <f>VLOOKUP(C99,Key!$A$2:$B1038,2,TRUE)</f>
+        <f>VLOOKUP(C99,Key!$A$2:$B1032,2,TRUE)</f>
         <v>#N/A</v>
       </c>
       <c r="E99" s="17" t="s">
@@ -15593,7 +17754,7 @@
         <v>400</v>
       </c>
       <c r="D100" s="2" t="str">
-        <f>VLOOKUP(C100,Key!$A$2:$B1039,2,TRUE)</f>
+        <f>VLOOKUP(C100,Key!$A$2:$B1033,2,TRUE)</f>
         <v>pH</v>
       </c>
       <c r="E100" s="17" t="s">
@@ -15611,7 +17772,7 @@
         <v>400</v>
       </c>
       <c r="D101" s="2" t="str">
-        <f>VLOOKUP(C101,Key!$A$2:$B1040,2,TRUE)</f>
+        <f>VLOOKUP(C101,Key!$A$2:$B1034,2,TRUE)</f>
         <v>pH</v>
       </c>
       <c r="E101" s="17" t="s">
@@ -15629,7 +17790,7 @@
         <v>210</v>
       </c>
       <c r="D102" s="2" t="str">
-        <f>VLOOKUP(C102,Key!$A$2:$B1041,2,TRUE)</f>
+        <f>VLOOKUP(C102,Key!$A$2:$B1035,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E102" s="17" t="s">
@@ -15647,7 +17808,7 @@
         <v>210</v>
       </c>
       <c r="D103" s="2" t="str">
-        <f>VLOOKUP(C103,Key!$A$2:$B1042,2,TRUE)</f>
+        <f>VLOOKUP(C103,Key!$A$2:$B1036,2,TRUE)</f>
         <v>Salinity</v>
       </c>
       <c r="E103" s="17" t="s">
@@ -15665,7 +17826,7 @@
         <v>211</v>
       </c>
       <c r="D104" s="2" t="str">
-        <f>VLOOKUP(C104,Key!$A$2:$B1043,2,TRUE)</f>
+        <f>VLOOKUP(C104,Key!$A$2:$B1037,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E104" s="17" t="s">
@@ -15683,7 +17844,7 @@
         <v>211</v>
       </c>
       <c r="D105" s="2" t="str">
-        <f>VLOOKUP(C105,Key!$A$2:$B1044,2,TRUE)</f>
+        <f>VLOOKUP(C105,Key!$A$2:$B1038,2,TRUE)</f>
         <v>Temperature</v>
       </c>
       <c r="E105" s="17" t="s">
@@ -15697,11 +17858,1766 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AD1D0B-ECF7-4309-8F1E-D29C7C0B24A7}">
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,Key!$A$2:$B934,2,TRUE)</f>
+        <v>Secchi depth</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="17" t="str">
+        <f>VLOOKUP(C3,Key!$A$2:$B935,2,TRUE)</f>
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D4" s="17" t="e">
+        <f>VLOOKUP(C4,Key!$A$2:$B936,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1.2000000048E-2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D5" s="17" t="str">
+        <f>VLOOKUP(C5,Key!$A$2:$B937,2,TRUE)</f>
+        <v>DIC</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D6" s="17" t="e">
+        <f>VLOOKUP(C6,Key!$A$2:$B938,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D7" s="17" t="str">
+        <f>VLOOKUP(C7,Key!$A$2:$B939,2,TRUE)</f>
+        <v>Total Alkalinity</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D8" s="17" t="e">
+        <f>VLOOKUP(C8,Key!$A$2:$B940,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B9">
+        <f>32/1000</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="17" t="str">
+        <f>VLOOKUP(C9,Key!$A$2:$B941,2,TRUE)</f>
+        <v>Oxygen</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D10" s="17" t="e">
+        <f>VLOOKUP(C10,Key!$A$2:$B942,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="17" t="str">
+        <f>VLOOKUP(C11,Key!$A$2:$B943,2,TRUE)</f>
+        <v>Ammonium</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D12" s="17" t="e">
+        <f>VLOOKUP(C12,Key!$A$2:$B944,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="17" t="str">
+        <f>VLOOKUP(C13,Key!$A$2:$B945,2,TRUE)</f>
+        <v>Nitrate</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D14" s="17" t="e">
+        <f>VLOOKUP(C14,Key!$A$2:$B946,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B15" s="16">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D15" s="17" t="str">
+        <f>VLOOKUP(C15,Key!$A$2:$B947,2,TRUE)</f>
+        <v>Nitrite</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D16" s="17" t="e">
+        <f>VLOOKUP(C16,Key!$A$2:$B948,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B17" s="17">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="17" t="str">
+        <f>VLOOKUP(C17,Key!$A$2:$B949,2,TRUE)</f>
+        <v>Filterable Reactive Phosphate</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D18" s="17" t="e">
+        <f>VLOOKUP(C18,Key!$A$2:$B950,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B19" s="17">
+        <v>2.81E-2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="17" t="str">
+        <f>VLOOKUP(C19,Key!$A$2:$B951,2,TRUE)</f>
+        <v>Reactive Silica</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D20" s="17" t="e">
+        <f>VLOOKUP(C20,Key!$A$2:$B952,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D21" s="17" t="str">
+        <f>VLOOKUP(C21,Key!$A$2:$B953,2,TRUE)</f>
+        <v>TSSorganic</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D22" s="17" t="str">
+        <f>VLOOKUP(C22,Key!$A$2:$B954,2,TRUE)</f>
+        <v>TSSinorganic</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="17" t="str">
+        <f>VLOOKUP(C23,Key!$A$2:$B955,2,TRUE)</f>
+        <v>Total Suspended Solids</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B24" s="17">
+        <v>1</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D24" s="17" t="e">
+        <f>VLOOKUP(C24,Key!$A$2:$B956,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D25" s="17" t="str">
+        <f>VLOOKUP(C25,Key!$A$2:$B957,2,TRUE)</f>
+        <v>Prochlorococcus</v>
+      </c>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B26" s="17">
+        <v>1</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D26" s="17" t="e">
+        <f>VLOOKUP(C26,Key!$A$2:$B958,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B27" s="17">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D27" s="17" t="str">
+        <f>VLOOKUP(C27,Key!$A$2:$B959,2,TRUE)</f>
+        <v>Synechococcus</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B28" s="17">
+        <v>1</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D28" s="17" t="e">
+        <f>VLOOKUP(C28,Key!$A$2:$B960,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B29" s="17">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D29" s="17" t="str">
+        <f>VLOOKUP(C29,Key!$A$2:$B961,2,TRUE)</f>
+        <v>Picoeukaryotes</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B30" s="17">
+        <v>1</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D30" s="17" t="e">
+        <f>VLOOKUP(C30,Key!$A$2:$B962,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B31" s="17">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D31" s="17" t="str">
+        <f>VLOOKUP(C31,Key!$A$2:$B963,2,TRUE)</f>
+        <v>Allo</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D32" s="17" t="str">
+        <f>VLOOKUP(C32,Key!$A$2:$B964,2,TRUE)</f>
+        <v>AlphaBetaCar</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B33" s="17">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D33" s="17" t="str">
+        <f>VLOOKUP(C33,Key!$A$2:$B965,2,TRUE)</f>
+        <v>Anth</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B34" s="17">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D34" s="17" t="str">
+        <f>VLOOKUP(C34,Key!$A$2:$B966,2,TRUE)</f>
+        <v>Asta</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B35" s="17">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D35" s="17" t="str">
+        <f>VLOOKUP(C35,Key!$A$2:$B967,2,TRUE)</f>
+        <v>BetaBetaCar</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B36" s="17">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D36" s="17" t="str">
+        <f>VLOOKUP(C36,Key!$A$2:$B968,2,TRUE)</f>
+        <v>BetaEpiCar</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B37" s="17">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D37" s="17" t="str">
+        <f>VLOOKUP(C37,Key!$A$2:$B969,2,TRUE)</f>
+        <v>Butfuco</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B38" s="17">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D38" s="17" t="str">
+        <f>VLOOKUP(C38,Key!$A$2:$B970,2,TRUE)</f>
+        <v>Cantha</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B39" s="17">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D39" s="17" t="str">
+        <f>VLOOKUP(C39,Key!$A$2:$B971,2,TRUE)</f>
+        <v>CphlA</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B40" s="17">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D40" s="17" t="str">
+        <f>VLOOKUP(C40,Key!$A$2:$B972,2,TRUE)</f>
+        <v>CphlB</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B41" s="17">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D41" s="17" t="str">
+        <f>VLOOKUP(C41,Key!$A$2:$B973,2,TRUE)</f>
+        <v>CphlC1</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B42" s="17">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D42" s="17" t="str">
+        <f>VLOOKUP(C42,Key!$A$2:$B974,2,TRUE)</f>
+        <v>CphlC2</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B43" s="17">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D43" s="17" t="str">
+        <f>VLOOKUP(C43,Key!$A$2:$B975,2,TRUE)</f>
+        <v>CphlC3</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B44" s="17">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D44" s="17" t="str">
+        <f>VLOOKUP(C44,Key!$A$2:$B976,2,TRUE)</f>
+        <v>CphlC1C2</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B45" s="17">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D45" s="17" t="str">
+        <f>VLOOKUP(C45,Key!$A$2:$B977,2,TRUE)</f>
+        <v>CphlideA</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B46" s="17">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D46" s="17" t="str">
+        <f>VLOOKUP(C46,Key!$A$2:$B978,2,TRUE)</f>
+        <v>Diadchr</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B47" s="17">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D47" s="17" t="str">
+        <f>VLOOKUP(C47,Key!$A$2:$B979,2,TRUE)</f>
+        <v>Diadino</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B48" s="17">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D48" s="17" t="str">
+        <f>VLOOKUP(C48,Key!$A$2:$B980,2,TRUE)</f>
+        <v>Diato</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B49" s="17">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D49" s="17" t="str">
+        <f>VLOOKUP(C49,Key!$A$2:$B981,2,TRUE)</f>
+        <v>Dino</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B50" s="17">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D50" s="17" t="str">
+        <f>VLOOKUP(C50,Key!$A$2:$B982,2,TRUE)</f>
+        <v>DvCphlA+CphlA</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B51" s="17">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D51" s="17" t="str">
+        <f>VLOOKUP(C51,Key!$A$2:$B983,2,TRUE)</f>
+        <v>DvCphlA</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B52" s="17">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D52" s="17" t="str">
+        <f>VLOOKUP(C52,Key!$A$2:$B984,2,TRUE)</f>
+        <v>DvCphlB+CphlB</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B53" s="17">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D53" s="17" t="str">
+        <f>VLOOKUP(C53,Key!$A$2:$B985,2,TRUE)</f>
+        <v>DvCphlB</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B54" s="17">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D54" s="17" t="str">
+        <f>VLOOKUP(C54,Key!$A$2:$B986,2,TRUE)</f>
+        <v>Echin</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B55" s="17">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D55" s="17" t="str">
+        <f>VLOOKUP(C55,Key!$A$2:$B987,2,TRUE)</f>
+        <v>Fuco</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B56" s="17">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D56" s="17" t="str">
+        <f>VLOOKUP(C56,Key!$A$2:$B988,2,TRUE)</f>
+        <v>Gyro</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B57" s="17">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D57" s="17" t="str">
+        <f>VLOOKUP(C57,Key!$A$2:$B989,2,TRUE)</f>
+        <v>Hexfuco</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B58" s="17">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D58" s="17" t="str">
+        <f>VLOOKUP(C58,Key!$A$2:$B990,2,TRUE)</f>
+        <v>Ketohexfuco</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="17"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B59" s="17">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D59" s="17" t="str">
+        <f>VLOOKUP(C59,Key!$A$2:$B991,2,TRUE)</f>
+        <v>Lut</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="17"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B60" s="17">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D60" s="17" t="str">
+        <f>VLOOKUP(C60,Key!$A$2:$B992,2,TRUE)</f>
+        <v>Lyco</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="17"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B61" s="17">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D61" s="17" t="str">
+        <f>VLOOKUP(C61,Key!$A$2:$B993,2,TRUE)</f>
+        <v>MgDvp</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="17"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B62" s="17">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D62" s="17" t="str">
+        <f>VLOOKUP(C62,Key!$A$2:$B994,2,TRUE)</f>
+        <v>Neo</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B63" s="17">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D63" s="17" t="str">
+        <f>VLOOKUP(C63,Key!$A$2:$B995,2,TRUE)</f>
+        <v>Perid</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="17"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B64" s="17">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D64" s="17" t="str">
+        <f>VLOOKUP(C64,Key!$A$2:$B996,2,TRUE)</f>
+        <v>PhideA</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B65" s="17">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D65" s="17" t="str">
+        <f>VLOOKUP(C65,Key!$A$2:$B997,2,TRUE)</f>
+        <v>PhytinA</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="17"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B66" s="17">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D66" s="17" t="str">
+        <f>VLOOKUP(C66,Key!$A$2:$B998,2,TRUE)</f>
+        <v>PhytinB</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="17"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B67" s="17">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D67" s="17" t="str">
+        <f>VLOOKUP(C67,Key!$A$2:$B999,2,TRUE)</f>
+        <v>Pras</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="17"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B68" s="17">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D68" s="17" t="str">
+        <f>VLOOKUP(C68,Key!$A$2:$B1000,2,TRUE)</f>
+        <v>PyrophideA</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="17"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B69" s="17">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D69" s="17" t="str">
+        <f>VLOOKUP(C69,Key!$A$2:$B1001,2,TRUE)</f>
+        <v>PyrophytinA</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B70" s="17">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D70" s="17" t="str">
+        <f>VLOOKUP(C70,Key!$A$2:$B1002,2,TRUE)</f>
+        <v>Viola</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B71" s="17">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D71" s="17" t="str">
+        <f>VLOOKUP(C71,Key!$A$2:$B1003,2,TRUE)</f>
+        <v>Zea</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B72" s="17">
+        <v>1</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D72" s="17" t="e">
+        <f>VLOOKUP(C72,Key!$A$2:$B1004,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B73" s="17">
+        <v>1</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D73" s="17" t="e">
+        <f>VLOOKUP(C73,Key!$A$2:$B1005,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F3350C-7CCF-4B4A-9A9A-12B7BE46DA49}">
+  <dimension ref="A1:D87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D2" s="17" t="str">
+        <f>VLOOKUP(C2,Key!$A$2:$B934,2,TRUE)</f>
+        <v>PRESSURE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D3" s="17" t="e">
+        <f>VLOOKUP(C3,Key!$A$2:$B935,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="17" t="str">
+        <f>VLOOKUP(C4,Key!$A$2:$B936,2,TRUE)</f>
+        <v>Temperature</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D5" s="17" t="e">
+        <f>VLOOKUP(C5,Key!$A$2:$B937,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="17" t="str">
+        <f>VLOOKUP(C6,Key!$A$2:$B938,2,TRUE)</f>
+        <v>Salinity</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D7" s="17" t="e">
+        <f>VLOOKUP(C7,Key!$A$2:$B939,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B8" s="17">
+        <f>32/1000</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="17" t="str">
+        <f>VLOOKUP(C8,Key!$A$2:$B940,2,TRUE)</f>
+        <v>Oxygen</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D9" s="17" t="e">
+        <f>VLOOKUP(C9,Key!$A$2:$B941,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="17" t="str">
+        <f>VLOOKUP(C10,Key!$A$2:$B942,2,TRUE)</f>
+        <v>Turbidity</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D11" s="17" t="e">
+        <f>VLOOKUP(C11,Key!$A$2:$B943,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D12" s="17" t="e">
+        <f>VLOOKUP(C12,Key!$A$2:$B944,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D13" s="17" t="e">
+        <f>VLOOKUP(C13,Key!$A$2:$B945,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D14" s="17" t="e">
+        <f>VLOOKUP(C14,Key!$A$2:$B946,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D15" s="17" t="e">
+        <f>VLOOKUP(C15,Key!$A$2:$B947,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="17" t="str">
+        <f>VLOOKUP(C16,Key!$A$2:$B948,2,TRUE)</f>
+        <v>Chlorophyll-a</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D17" s="17" t="e">
+        <f>VLOOKUP(C17,Key!$A$2:$B949,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D18" s="17" t="str">
+        <f>VLOOKUP(C18,Key!$A$2:$B950,2,TRUE)</f>
+        <v>Conductivity</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B19" s="17">
+        <v>1</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D19" s="17" t="e">
+        <f>VLOOKUP(C19,Key!$A$2:$B951,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B20" s="17">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D20" s="17" t="e">
+        <f>VLOOKUP(C20,Key!$A$2:$B952,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B21" s="17">
+        <v>1</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D21" s="17" t="e">
+        <f>VLOOKUP(C21,Key!$A$2:$B953,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D22" s="17" t="str">
+        <f>VLOOKUP(C22,Key!$A$2:$B954,2,TRUE)</f>
+        <v>density</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B23" s="17">
+        <v>1</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D23" s="17" t="e">
+        <f>VLOOKUP(C23,Key!$A$2:$B955,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="17"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="17"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="17"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="17"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FB3BD-BFAE-4A57-9EA4-1FE2FC61EC11}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15735,7 +19651,7 @@
         <v>460</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>VLOOKUP(C2,Key!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C2,Key!$A$2:$B934,2,TRUE)</f>
         <v>Air Temperature</v>
       </c>
     </row>
@@ -15750,7 +19666,7 @@
         <v>211</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>VLOOKUP(C3,Key!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C3,Key!$A$2:$B935,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -15765,7 +19681,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>VLOOKUP(C4,Key!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C4,Key!$A$2:$B936,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
     </row>
@@ -15780,7 +19696,7 @@
         <v>210</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>VLOOKUP(C5,Key!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C5,Key!$A$2:$B937,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -15795,7 +19711,7 @@
         <v>227</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>VLOOKUP(C6,Key!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C6,Key!$A$2:$B938,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -15810,7 +19726,7 @@
         <v>289</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>VLOOKUP(C7,Key!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C7,Key!$A$2:$B939,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
     </row>
@@ -15825,7 +19741,7 @@
         <v>400</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>VLOOKUP(C8,Key!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C8,Key!$A$2:$B940,2,TRUE)</f>
         <v>pH</v>
       </c>
     </row>
@@ -15840,7 +19756,7 @@
         <v>212</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>VLOOKUP(C9,Key!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C9,Key!$A$2:$B941,2,TRUE)</f>
         <v>Depth</v>
       </c>
     </row>
@@ -15855,7 +19771,7 @@
         <v>903</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f>VLOOKUP(C10,Key!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C10,Key!$A$2:$B942,2,TRUE)</f>
         <v>Tilt</v>
       </c>
     </row>
@@ -15870,7 +19786,7 @@
         <v>904</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f>VLOOKUP(C11,Key!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C11,Key!$A$2:$B943,2,TRUE)</f>
         <v>WL - 410</v>
       </c>
     </row>
@@ -15885,7 +19801,7 @@
         <v>905</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>VLOOKUP(C12,Key!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C12,Key!$A$2:$B944,2,TRUE)</f>
         <v>WL - 440</v>
       </c>
     </row>
@@ -15900,7 +19816,7 @@
         <v>906</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f>VLOOKUP(C13,Key!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C13,Key!$A$2:$B945,2,TRUE)</f>
         <v>WL - 490</v>
       </c>
     </row>
@@ -15915,7 +19831,7 @@
         <v>907</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f>VLOOKUP(C14,Key!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C14,Key!$A$2:$B946,2,TRUE)</f>
         <v>WL - 510</v>
       </c>
     </row>
@@ -15930,7 +19846,7 @@
         <v>908</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f>VLOOKUP(C15,Key!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C15,Key!$A$2:$B947,2,TRUE)</f>
         <v>WL - 550</v>
       </c>
     </row>
@@ -15945,7 +19861,7 @@
         <v>909</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f>VLOOKUP(C16,Key!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C16,Key!$A$2:$B948,2,TRUE)</f>
         <v>WL - 590</v>
       </c>
     </row>
@@ -15960,7 +19876,7 @@
         <v>910</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f>VLOOKUP(C17,Key!$A$2:$B955,2,TRUE)</f>
+        <f>VLOOKUP(C17,Key!$A$2:$B949,2,TRUE)</f>
         <v>WL - 635</v>
       </c>
     </row>
@@ -15975,7 +19891,7 @@
         <v>911</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f>VLOOKUP(C18,Key!$A$2:$B956,2,TRUE)</f>
+        <f>VLOOKUP(C18,Key!$A$2:$B950,2,TRUE)</f>
         <v>WL - 660</v>
       </c>
     </row>
@@ -15990,7 +19906,7 @@
         <v>912</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f>VLOOKUP(C19,Key!$A$2:$B957,2,TRUE)</f>
+        <f>VLOOKUP(C19,Key!$A$2:$B951,2,TRUE)</f>
         <v>WL - 700</v>
       </c>
     </row>
@@ -16005,7 +19921,7 @@
         <v>900</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f>VLOOKUP(C20,Key!$A$2:$B958,2,TRUE)</f>
+        <f>VLOOKUP(C20,Key!$A$2:$B952,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -16020,7 +19936,7 @@
         <v>900</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f>VLOOKUP(C21,Key!$A$2:$B959,2,TRUE)</f>
+        <f>VLOOKUP(C21,Key!$A$2:$B953,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -16035,7 +19951,7 @@
         <v>391</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f>VLOOKUP(C22,Key!$A$2:$B960,2,TRUE)</f>
+        <f>VLOOKUP(C22,Key!$A$2:$B954,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -16050,7 +19966,7 @@
         <v>289</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f>VLOOKUP(C23,Key!$A$2:$B961,2,TRUE)</f>
+        <f>VLOOKUP(C23,Key!$A$2:$B955,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
     </row>
@@ -16065,7 +19981,7 @@
         <v>925</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f>VLOOKUP(C24,Key!$A$2:$B962,2,TRUE)</f>
+        <f>VLOOKUP(C24,Key!$A$2:$B956,2,TRUE)</f>
         <v>ACCELERATIONX</v>
       </c>
     </row>
@@ -16080,7 +19996,7 @@
         <v>926</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f>VLOOKUP(C25,Key!$A$2:$B963,2,TRUE)</f>
+        <f>VLOOKUP(C25,Key!$A$2:$B957,2,TRUE)</f>
         <v>ACCELERATIONY</v>
       </c>
     </row>
@@ -16095,7 +20011,7 @@
         <v>927</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f>VLOOKUP(C26,Key!$A$2:$B964,2,TRUE)</f>
+        <f>VLOOKUP(C26,Key!$A$2:$B958,2,TRUE)</f>
         <v>ACCELERATIONZ</v>
       </c>
     </row>
@@ -16110,7 +20026,7 @@
         <v>928</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f>VLOOKUP(C27,Key!$A$2:$B965,2,TRUE)</f>
+        <f>VLOOKUP(C27,Key!$A$2:$B959,2,TRUE)</f>
         <v>AMPLITUDE1</v>
       </c>
     </row>
@@ -16125,7 +20041,7 @@
         <v>929</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f>VLOOKUP(C28,Key!$A$2:$B966,2,TRUE)</f>
+        <f>VLOOKUP(C28,Key!$A$2:$B960,2,TRUE)</f>
         <v>AMPLITUDE2</v>
       </c>
     </row>
@@ -16140,7 +20056,7 @@
         <v>930</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f>VLOOKUP(C29,Key!$A$2:$B967,2,TRUE)</f>
+        <f>VLOOKUP(C29,Key!$A$2:$B961,2,TRUE)</f>
         <v>AMPLITUDE3</v>
       </c>
     </row>
@@ -16155,7 +20071,7 @@
         <v>931</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f>VLOOKUP(C30,Key!$A$2:$B968,2,TRUE)</f>
+        <f>VLOOKUP(C30,Key!$A$2:$B962,2,TRUE)</f>
         <v>CELL</v>
       </c>
     </row>
@@ -16170,7 +20086,7 @@
         <v>391</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f>VLOOKUP(C31,Key!$A$2:$B969,2,TRUE)</f>
+        <f>VLOOKUP(C31,Key!$A$2:$B963,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -16185,7 +20101,7 @@
         <v>934</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f>VLOOKUP(C32,Key!$A$2:$B970,2,TRUE)</f>
+        <f>VLOOKUP(C32,Key!$A$2:$B964,2,TRUE)</f>
         <v>DENSITY ANOMALY</v>
       </c>
     </row>
@@ -16200,7 +20116,7 @@
         <v>212</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f>VLOOKUP(C33,Key!$A$2:$B971,2,TRUE)</f>
+        <f>VLOOKUP(C33,Key!$A$2:$B965,2,TRUE)</f>
         <v>Depth</v>
       </c>
     </row>
@@ -16215,7 +20131,7 @@
         <v>227</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f>VLOOKUP(C34,Key!$A$2:$B972,2,TRUE)</f>
+        <f>VLOOKUP(C34,Key!$A$2:$B966,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -16230,7 +20146,7 @@
         <v>938</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f>VLOOKUP(C35,Key!$A$2:$B973,2,TRUE)</f>
+        <f>VLOOKUP(C35,Key!$A$2:$B967,2,TRUE)</f>
         <v>HEADING</v>
       </c>
     </row>
@@ -16245,7 +20161,7 @@
         <v>939</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f>VLOOKUP(C36,Key!$A$2:$B974,2,TRUE)</f>
+        <f>VLOOKUP(C36,Key!$A$2:$B968,2,TRUE)</f>
         <v>LOWER_UCUR</v>
       </c>
     </row>
@@ -16260,7 +20176,7 @@
         <v>940</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f>VLOOKUP(C37,Key!$A$2:$B975,2,TRUE)</f>
+        <f>VLOOKUP(C37,Key!$A$2:$B969,2,TRUE)</f>
         <v>LOWER_VCUR</v>
       </c>
     </row>
@@ -16275,7 +20191,7 @@
         <v>941</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f>VLOOKUP(C38,Key!$A$2:$B976,2,TRUE)</f>
+        <f>VLOOKUP(C38,Key!$A$2:$B970,2,TRUE)</f>
         <v>MIDDLE_UCUR</v>
       </c>
     </row>
@@ -16290,7 +20206,7 @@
         <v>942</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f>VLOOKUP(C39,Key!$A$2:$B977,2,TRUE)</f>
+        <f>VLOOKUP(C39,Key!$A$2:$B971,2,TRUE)</f>
         <v>MIDDLE_VCUR</v>
       </c>
     </row>
@@ -16305,7 +20221,7 @@
         <v>900</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f>VLOOKUP(C40,Key!$A$2:$B978,2,TRUE)</f>
+        <f>VLOOKUP(C40,Key!$A$2:$B972,2,TRUE)</f>
         <v>PAR</v>
       </c>
     </row>
@@ -16320,7 +20236,7 @@
         <v>944</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f>VLOOKUP(C41,Key!$A$2:$B979,2,TRUE)</f>
+        <f>VLOOKUP(C41,Key!$A$2:$B973,2,TRUE)</f>
         <v>Pitch</v>
       </c>
     </row>
@@ -16335,7 +20251,7 @@
         <v>947</v>
       </c>
       <c r="D42" s="2" t="str">
-        <f>VLOOKUP(C42,Key!$A$2:$B980,2,TRUE)</f>
+        <f>VLOOKUP(C42,Key!$A$2:$B974,2,TRUE)</f>
         <v>PRESSURE</v>
       </c>
     </row>
@@ -16350,7 +20266,7 @@
         <v>948</v>
       </c>
       <c r="D43" s="2" t="str">
-        <f>VLOOKUP(C43,Key!$A$2:$B981,2,TRUE)</f>
+        <f>VLOOKUP(C43,Key!$A$2:$B975,2,TRUE)</f>
         <v>PRESSURE_SENSOR_DEPTH</v>
       </c>
     </row>
@@ -16365,7 +20281,7 @@
         <v>950</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f>VLOOKUP(C44,Key!$A$2:$B982,2,TRUE)</f>
+        <f>VLOOKUP(C44,Key!$A$2:$B976,2,TRUE)</f>
         <v>ROLL</v>
       </c>
     </row>
@@ -16380,7 +20296,7 @@
         <v>210</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f>VLOOKUP(C45,Key!$A$2:$B983,2,TRUE)</f>
+        <f>VLOOKUP(C45,Key!$A$2:$B977,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -16395,7 +20311,7 @@
         <v>391</v>
       </c>
       <c r="D46" s="2" t="str">
-        <f>VLOOKUP(C46,Key!$A$2:$B984,2,TRUE)</f>
+        <f>VLOOKUP(C46,Key!$A$2:$B978,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -16410,7 +20326,7 @@
         <v>951</v>
       </c>
       <c r="D47" s="2" t="str">
-        <f>VLOOKUP(C47,Key!$A$2:$B985,2,TRUE)</f>
+        <f>VLOOKUP(C47,Key!$A$2:$B979,2,TRUE)</f>
         <v>SPEED_OF_SOUND</v>
       </c>
     </row>
@@ -16425,7 +20341,7 @@
         <v>211</v>
       </c>
       <c r="D48" s="2" t="str">
-        <f>VLOOKUP(C48,Key!$A$2:$B986,2,TRUE)</f>
+        <f>VLOOKUP(C48,Key!$A$2:$B980,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -16440,7 +20356,7 @@
         <v>903</v>
       </c>
       <c r="D49" s="2" t="str">
-        <f>VLOOKUP(C49,Key!$A$2:$B987,2,TRUE)</f>
+        <f>VLOOKUP(C49,Key!$A$2:$B981,2,TRUE)</f>
         <v>Tilt</v>
       </c>
     </row>
@@ -16455,7 +20371,7 @@
         <v>952</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f>VLOOKUP(C50,Key!$A$2:$B988,2,TRUE)</f>
+        <f>VLOOKUP(C50,Key!$A$2:$B982,2,TRUE)</f>
         <v>UCUR</v>
       </c>
     </row>
@@ -16470,7 +20386,7 @@
         <v>953</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f>VLOOKUP(C51,Key!$A$2:$B989,2,TRUE)</f>
+        <f>VLOOKUP(C51,Key!$A$2:$B983,2,TRUE)</f>
         <v>UPPER_UCUR</v>
       </c>
     </row>
@@ -16485,7 +20401,7 @@
         <v>954</v>
       </c>
       <c r="D52" s="2" t="str">
-        <f>VLOOKUP(C52,Key!$A$2:$B990,2,TRUE)</f>
+        <f>VLOOKUP(C52,Key!$A$2:$B984,2,TRUE)</f>
         <v>UPPER_VCUR</v>
       </c>
     </row>
@@ -16500,7 +20416,7 @@
         <v>955</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f>VLOOKUP(C53,Key!$A$2:$B991,2,TRUE)</f>
+        <f>VLOOKUP(C53,Key!$A$2:$B985,2,TRUE)</f>
         <v>VCUR</v>
       </c>
     </row>
@@ -16515,7 +20431,7 @@
         <v>956</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f>VLOOKUP(C54,Key!$A$2:$B992,2,TRUE)</f>
+        <f>VLOOKUP(C54,Key!$A$2:$B986,2,TRUE)</f>
         <v>WCUR</v>
       </c>
     </row>
@@ -16525,7 +20441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B891FCC8-6932-42EA-B0A0-1A3A06F7421B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -16566,7 +20482,7 @@
         <v>494</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>VLOOKUP(C2,Key!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C2,Key!$A$2:$B934,2,TRUE)</f>
         <v>Tidal Height</v>
       </c>
     </row>
@@ -16576,7 +20492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618D0C58-8C8E-440E-A497-ABAD71259CF4}">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -16619,7 +20535,7 @@
         <v>459</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>VLOOKUP(C2,Key!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C2,Key!$A$2:$B934,2,TRUE)</f>
         <v>Precipitation</v>
       </c>
     </row>
@@ -16634,7 +20550,7 @@
         <v>460</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>VLOOKUP(C3,Key!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C3,Key!$A$2:$B936,2,TRUE)</f>
         <v>Air Temperature</v>
       </c>
     </row>
@@ -16649,7 +20565,7 @@
         <v>461</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>VLOOKUP(C4,Key!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C4,Key!$A$2:$B938,2,TRUE)</f>
         <v>Wet Bulb Air Temperature</v>
       </c>
     </row>
@@ -16664,7 +20580,7 @@
         <v>462</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>VLOOKUP(C5,Key!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C5,Key!$A$2:$B940,2,TRUE)</f>
         <v>Dew Point Temperature</v>
       </c>
     </row>
@@ -16679,7 +20595,7 @@
         <v>463</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>VLOOKUP(C6,Key!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C6,Key!$A$2:$B942,2,TRUE)</f>
         <v>Relative Humidity</v>
       </c>
     </row>
@@ -16695,7 +20611,7 @@
         <v>380</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>VLOOKUP(C7,Key!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C7,Key!$A$2:$B944,2,TRUE)</f>
         <v>Wind Speed</v>
       </c>
     </row>
@@ -16710,7 +20626,7 @@
         <v>379</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>VLOOKUP(C8,Key!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C8,Key!$A$2:$B946,2,TRUE)</f>
         <v>Wind Direction</v>
       </c>
     </row>
@@ -16726,7 +20642,7 @@
         <v>464</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>VLOOKUP(C9,Key!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C9,Key!$A$2:$B948,2,TRUE)</f>
         <v>Max Wind Speed</v>
       </c>
     </row>
@@ -16741,7 +20657,7 @@
         <v>465</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f>VLOOKUP(C10,Key!$A$2:$B956,2,TRUE)</f>
+        <f>VLOOKUP(C10,Key!$A$2:$B950,2,TRUE)</f>
         <v>Cloud amount of first group in eighths</v>
       </c>
     </row>
@@ -16756,7 +20672,7 @@
         <v>466</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f>VLOOKUP(C11,Key!$A$2:$B958,2,TRUE)</f>
+        <f>VLOOKUP(C11,Key!$A$2:$B952,2,TRUE)</f>
         <v>Cloud height of first group</v>
       </c>
     </row>
@@ -16771,7 +20687,7 @@
         <v>467</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>VLOOKUP(C12,Key!$A$2:$B960,2,TRUE)</f>
+        <f>VLOOKUP(C12,Key!$A$2:$B954,2,TRUE)</f>
         <v>Cloud amount of second group in eighths</v>
       </c>
     </row>
@@ -16786,7 +20702,7 @@
         <v>468</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f>VLOOKUP(C13,Key!$A$2:$B962,2,TRUE)</f>
+        <f>VLOOKUP(C13,Key!$A$2:$B956,2,TRUE)</f>
         <v>Cloud height of second group</v>
       </c>
     </row>
@@ -16801,7 +20717,7 @@
         <v>469</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f>VLOOKUP(C14,Key!$A$2:$B964,2,TRUE)</f>
+        <f>VLOOKUP(C14,Key!$A$2:$B958,2,TRUE)</f>
         <v>Cloud amount of third group in eighths</v>
       </c>
     </row>
@@ -16816,7 +20732,7 @@
         <v>470</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f>VLOOKUP(C15,Key!$A$2:$B966,2,TRUE)</f>
+        <f>VLOOKUP(C15,Key!$A$2:$B960,2,TRUE)</f>
         <v>Cloud height of third group</v>
       </c>
     </row>
@@ -16831,7 +20747,7 @@
         <v>471</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f>VLOOKUP(C16,Key!$A$2:$B968,2,TRUE)</f>
+        <f>VLOOKUP(C16,Key!$A$2:$B962,2,TRUE)</f>
         <v>Cloud amount of fourth group in eighths</v>
       </c>
     </row>
@@ -16846,7 +20762,7 @@
         <v>472</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f>VLOOKUP(C17,Key!$A$2:$B970,2,TRUE)</f>
+        <f>VLOOKUP(C17,Key!$A$2:$B964,2,TRUE)</f>
         <v>Cloud height of fourth group</v>
       </c>
     </row>
@@ -16861,7 +20777,7 @@
         <v>473</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f>VLOOKUP(C18,Key!$A$2:$B972,2,TRUE)</f>
+        <f>VLOOKUP(C18,Key!$A$2:$B966,2,TRUE)</f>
         <v>Ceilometer cloud amount of first group</v>
       </c>
     </row>
@@ -16876,7 +20792,7 @@
         <v>474</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f>VLOOKUP(C19,Key!$A$2:$B974,2,TRUE)</f>
+        <f>VLOOKUP(C19,Key!$A$2:$B968,2,TRUE)</f>
         <v>Ceilometer cloud height of first group</v>
       </c>
     </row>
@@ -16891,7 +20807,7 @@
         <v>475</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f>VLOOKUP(C20,Key!$A$2:$B976,2,TRUE)</f>
+        <f>VLOOKUP(C20,Key!$A$2:$B970,2,TRUE)</f>
         <v>Ceilometer cloud amount of second group</v>
       </c>
     </row>
@@ -16906,7 +20822,7 @@
         <v>476</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f>VLOOKUP(C21,Key!$A$2:$B978,2,TRUE)</f>
+        <f>VLOOKUP(C21,Key!$A$2:$B972,2,TRUE)</f>
         <v>Ceilometer cloud height of second group</v>
       </c>
     </row>
@@ -16921,7 +20837,7 @@
         <v>477</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f>VLOOKUP(C22,Key!$A$2:$B980,2,TRUE)</f>
+        <f>VLOOKUP(C22,Key!$A$2:$B974,2,TRUE)</f>
         <v>Ceilometer cloud amount of third group</v>
       </c>
     </row>
@@ -16936,7 +20852,7 @@
         <v>478</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f>VLOOKUP(C23,Key!$A$2:$B982,2,TRUE)</f>
+        <f>VLOOKUP(C23,Key!$A$2:$B976,2,TRUE)</f>
         <v>Ceilometer cloud height of third group</v>
       </c>
     </row>
@@ -16951,7 +20867,7 @@
         <v>479</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f>VLOOKUP(C24,Key!$A$2:$B984,2,TRUE)</f>
+        <f>VLOOKUP(C24,Key!$A$2:$B978,2,TRUE)</f>
         <v>Ceilometer sky clear flag</v>
       </c>
     </row>
@@ -16966,7 +20882,7 @@
         <v>480</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f>VLOOKUP(C25,Key!$A$2:$B985,2,TRUE)</f>
+        <f>VLOOKUP(C25,Key!$A$2:$B979,2,TRUE)</f>
         <v>Horizontal visibility</v>
       </c>
     </row>
@@ -16981,7 +20897,7 @@
         <v>481</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f>VLOOKUP(C26,Key!$A$2:$B987,2,TRUE)</f>
+        <f>VLOOKUP(C26,Key!$A$2:$B981,2,TRUE)</f>
         <v>AWS visibility</v>
       </c>
     </row>
@@ -16996,7 +20912,7 @@
         <v>482</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f>VLOOKUP(C27,Key!$A$2:$B989,2,TRUE)</f>
+        <f>VLOOKUP(C27,Key!$A$2:$B983,2,TRUE)</f>
         <v>Present weather in code</v>
       </c>
     </row>
@@ -17011,7 +20927,7 @@
         <v>483</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f>VLOOKUP(C28,Key!$A$2:$B991,2,TRUE)</f>
+        <f>VLOOKUP(C28,Key!$A$2:$B985,2,TRUE)</f>
         <v>Mean sea level pressure</v>
       </c>
     </row>
@@ -17026,7 +20942,7 @@
         <v>484</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f>VLOOKUP(C29,Key!$A$2:$B993,2,TRUE)</f>
+        <f>VLOOKUP(C29,Key!$A$2:$B987,2,TRUE)</f>
         <v>Station level pressure</v>
       </c>
     </row>
@@ -17036,12 +20952,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F53C71-6126-496F-BF12-2421C1B2ABC6}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17077,7 +20993,7 @@
         <v>405</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>VLOOKUP(C2,Key!$A$2:$B940,2,TRUE)</f>
+        <f>VLOOKUP(C2,Key!$A$2:$B934,2,TRUE)</f>
         <v>Total Alkalinity</v>
       </c>
     </row>
@@ -17092,7 +21008,7 @@
         <v>492</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>VLOOKUP(C3,Key!$A$2:$B941,2,TRUE)</f>
+        <f>VLOOKUP(C3,Key!$A$2:$B935,2,TRUE)</f>
         <v>Bottom Depth</v>
       </c>
     </row>
@@ -17107,7 +21023,7 @@
         <v>233</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>VLOOKUP(C4,Key!$A$2:$B942,2,TRUE)</f>
+        <f>VLOOKUP(C4,Key!$A$2:$B936,2,TRUE)</f>
         <v>Dissolved Organic Carbon</v>
       </c>
     </row>
@@ -17116,13 +21032,13 @@
         <v>336</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>VLOOKUP(C5,Key!$A$2:$B943,2,TRUE)</f>
+        <f>VLOOKUP(C5,Key!$A$2:$B937,2,TRUE)</f>
         <v>Chlorophyll-a</v>
       </c>
     </row>
@@ -17131,13 +21047,13 @@
         <v>337</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>385</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>VLOOKUP(C6,Key!$A$2:$B944,2,TRUE)</f>
+        <f>VLOOKUP(C6,Key!$A$2:$B938,2,TRUE)</f>
         <v>Chlorophyll-b</v>
       </c>
     </row>
@@ -17146,13 +21062,13 @@
         <v>338</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>386</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>VLOOKUP(C7,Key!$A$2:$B945,2,TRUE)</f>
+        <f>VLOOKUP(C7,Key!$A$2:$B939,2,TRUE)</f>
         <v>Chlorophyll-c</v>
       </c>
     </row>
@@ -17167,7 +21083,7 @@
         <v>485</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>VLOOKUP(C8,Key!$A$2:$B946,2,TRUE)</f>
+        <f>VLOOKUP(C8,Key!$A$2:$B940,2,TRUE)</f>
         <v>Chlorophyll sample volume</v>
       </c>
     </row>
@@ -17182,7 +21098,7 @@
         <v>388</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>VLOOKUP(C9,Key!$A$2:$B947,2,TRUE)</f>
+        <f>VLOOKUP(C9,Key!$A$2:$B941,2,TRUE)</f>
         <v>Cloud Cover</v>
       </c>
     </row>
@@ -17197,7 +21113,7 @@
         <v>391</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f>VLOOKUP(C10,Key!$A$2:$B948,2,TRUE)</f>
+        <f>VLOOKUP(C10,Key!$A$2:$B942,2,TRUE)</f>
         <v>Conductivity</v>
       </c>
     </row>
@@ -17212,7 +21128,7 @@
         <v>394</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f>VLOOKUP(C11,Key!$A$2:$B949,2,TRUE)</f>
+        <f>VLOOKUP(C11,Key!$A$2:$B943,2,TRUE)</f>
         <v>Flow Status</v>
       </c>
     </row>
@@ -17228,7 +21144,7 @@
         <v>236</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>VLOOKUP(C12,Key!$A$2:$B950,2,TRUE)</f>
+        <f>VLOOKUP(C12,Key!$A$2:$B944,2,TRUE)</f>
         <v>Dissolved Organic Nitrogen</v>
       </c>
     </row>
@@ -17244,7 +21160,7 @@
         <v>230</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f>VLOOKUP(C13,Key!$A$2:$B951,2,TRUE)</f>
+        <f>VLOOKUP(C13,Key!$A$2:$B945,2,TRUE)</f>
         <v>Nitrate</v>
       </c>
     </row>
@@ -17260,7 +21176,7 @@
         <v>396</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f>VLOOKUP(C14,Key!$A$2:$B952,2,TRUE)</f>
+        <f>VLOOKUP(C14,Key!$A$2:$B946,2,TRUE)</f>
         <v>Total TKN</v>
       </c>
     </row>
@@ -17276,7 +21192,7 @@
         <v>213</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f>VLOOKUP(C15,Key!$A$2:$B953,2,TRUE)</f>
+        <f>VLOOKUP(C15,Key!$A$2:$B947,2,TRUE)</f>
         <v>Total Nitrogen</v>
       </c>
     </row>
@@ -17292,7 +21208,7 @@
         <v>229</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f>VLOOKUP(C16,Key!$A$2:$B954,2,TRUE)</f>
+        <f>VLOOKUP(C16,Key!$A$2:$B948,2,TRUE)</f>
         <v>Ammonium</v>
       </c>
     </row>
@@ -17307,7 +21223,7 @@
         <v>289</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f>VLOOKUP(C17,Key!$A$2:$B955,2,TRUE)</f>
+        <f>VLOOKUP(C17,Key!$A$2:$B949,2,TRUE)</f>
         <v>O2 Saturation</v>
       </c>
     </row>
@@ -17322,7 +21238,7 @@
         <v>227</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f>VLOOKUP(C18,Key!$A$2:$B956,2,TRUE)</f>
+        <f>VLOOKUP(C18,Key!$A$2:$B950,2,TRUE)</f>
         <v>Oxygen</v>
       </c>
     </row>
@@ -17338,7 +21254,7 @@
         <v>214</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f>VLOOKUP(C19,Key!$A$2:$B957,2,TRUE)</f>
+        <f>VLOOKUP(C19,Key!$A$2:$B951,2,TRUE)</f>
         <v>Total Phosphorus</v>
       </c>
     </row>
@@ -17353,7 +21269,7 @@
         <v>400</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f>VLOOKUP(C20,Key!$A$2:$B958,2,TRUE)</f>
+        <f>VLOOKUP(C20,Key!$A$2:$B952,2,TRUE)</f>
         <v>pH</v>
       </c>
     </row>
@@ -17368,7 +21284,7 @@
         <v>402</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f>VLOOKUP(C21,Key!$A$2:$B959,2,TRUE)</f>
+        <f>VLOOKUP(C21,Key!$A$2:$B953,2,TRUE)</f>
         <v>Phaeophytin a</v>
       </c>
     </row>
@@ -17384,7 +21300,7 @@
         <v>231</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f>VLOOKUP(C22,Key!$A$2:$B960,2,TRUE)</f>
+        <f>VLOOKUP(C22,Key!$A$2:$B954,2,TRUE)</f>
         <v>Filterable Reactive Phosphate</v>
       </c>
     </row>
@@ -17399,7 +21315,7 @@
         <v>210</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f>VLOOKUP(C23,Key!$A$2:$B961,2,TRUE)</f>
+        <f>VLOOKUP(C23,Key!$A$2:$B955,2,TRUE)</f>
         <v>Salinity</v>
       </c>
     </row>
@@ -17414,7 +21330,7 @@
         <v>407</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f>VLOOKUP(C24,Key!$A$2:$B962,2,TRUE)</f>
+        <f>VLOOKUP(C24,Key!$A$2:$B956,2,TRUE)</f>
         <v>Secchi depth</v>
       </c>
     </row>
@@ -17430,7 +21346,7 @@
         <v>228</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f>VLOOKUP(C25,Key!$A$2:$B963,2,TRUE)</f>
+        <f>VLOOKUP(C25,Key!$A$2:$B957,2,TRUE)</f>
         <v>Reactive Silica</v>
       </c>
     </row>
@@ -17445,7 +21361,7 @@
         <v>216</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f>VLOOKUP(C26,Key!$A$2:$B964,2,TRUE)</f>
+        <f>VLOOKUP(C26,Key!$A$2:$B958,2,TRUE)</f>
         <v>Total Suspended Solids</v>
       </c>
     </row>
@@ -17460,7 +21376,7 @@
         <v>211</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f>VLOOKUP(C27,Key!$A$2:$B965,2,TRUE)</f>
+        <f>VLOOKUP(C27,Key!$A$2:$B959,2,TRUE)</f>
         <v>Temperature</v>
       </c>
     </row>
@@ -17475,7 +21391,7 @@
         <v>409</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f>VLOOKUP(C28,Key!$A$2:$B966,2,TRUE)</f>
+        <f>VLOOKUP(C28,Key!$A$2:$B960,2,TRUE)</f>
         <v>Tide status</v>
       </c>
     </row>
@@ -17490,7 +21406,7 @@
         <v>217</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f>VLOOKUP(C29,Key!$A$2:$B967,2,TRUE)</f>
+        <f>VLOOKUP(C29,Key!$A$2:$B961,2,TRUE)</f>
         <v>Turbidity</v>
       </c>
     </row>
@@ -17505,7 +21421,7 @@
         <v>379</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f>VLOOKUP(C30,Key!$A$2:$B968,2,TRUE)</f>
+        <f>VLOOKUP(C30,Key!$A$2:$B962,2,TRUE)</f>
         <v>Wind Direction</v>
       </c>
     </row>
@@ -17521,7 +21437,7 @@
         <v>380</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f>VLOOKUP(C31,Key!$A$2:$B969,2,TRUE)</f>
+        <f>VLOOKUP(C31,Key!$A$2:$B963,2,TRUE)</f>
         <v>Wind Speed</v>
       </c>
     </row>
@@ -17536,7 +21452,7 @@
         <v>421</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f>VLOOKUP(C32,Key!$A$2:$B970,2,TRUE)</f>
+        <f>VLOOKUP(C32,Key!$A$2:$B964,2,TRUE)</f>
         <v>Max Discharge</v>
       </c>
     </row>
@@ -17551,7 +21467,7 @@
         <v>422</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f>VLOOKUP(C33,Key!$A$2:$B971,2,TRUE)</f>
+        <f>VLOOKUP(C33,Key!$A$2:$B965,2,TRUE)</f>
         <v>Mean Discharge</v>
       </c>
     </row>
@@ -17566,7 +21482,7 @@
         <v>423</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f>VLOOKUP(C34,Key!$A$2:$B972,2,TRUE)</f>
+        <f>VLOOKUP(C34,Key!$A$2:$B966,2,TRUE)</f>
         <v>Min Discharge</v>
       </c>
     </row>
@@ -17581,7 +21497,7 @@
         <v>424</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f>VLOOKUP(C35,Key!$A$2:$B973,2,TRUE)</f>
+        <f>VLOOKUP(C35,Key!$A$2:$B967,2,TRUE)</f>
         <v>Discharge</v>
       </c>
     </row>
@@ -17596,7 +21512,7 @@
         <v>425</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f>VLOOKUP(C36,Key!$A$2:$B974,2,TRUE)</f>
+        <f>VLOOKUP(C36,Key!$A$2:$B968,2,TRUE)</f>
         <v>Max Stage Height CTF</v>
       </c>
     </row>
@@ -17611,7 +21527,7 @@
         <v>426</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f>VLOOKUP(C37,Key!$A$2:$B975,2,TRUE)</f>
+        <f>VLOOKUP(C37,Key!$A$2:$B969,2,TRUE)</f>
         <v>Mean Stage Height CTF</v>
       </c>
     </row>
@@ -17626,7 +21542,7 @@
         <v>427</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f>VLOOKUP(C38,Key!$A$2:$B976,2,TRUE)</f>
+        <f>VLOOKUP(C38,Key!$A$2:$B970,2,TRUE)</f>
         <v>Min Stage Height CTF</v>
       </c>
     </row>
@@ -17641,7 +21557,7 @@
         <v>428</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f>VLOOKUP(C39,Key!$A$2:$B977,2,TRUE)</f>
+        <f>VLOOKUP(C39,Key!$A$2:$B971,2,TRUE)</f>
         <v>Max Stage Height</v>
       </c>
     </row>
@@ -17656,7 +21572,7 @@
         <v>429</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f>VLOOKUP(C40,Key!$A$2:$B978,2,TRUE)</f>
+        <f>VLOOKUP(C40,Key!$A$2:$B972,2,TRUE)</f>
         <v>Mean Stage Height</v>
       </c>
     </row>
@@ -17671,7 +21587,7 @@
         <v>430</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f>VLOOKUP(C41,Key!$A$2:$B979,2,TRUE)</f>
+        <f>VLOOKUP(C41,Key!$A$2:$B973,2,TRUE)</f>
         <v>Min Stage Height</v>
       </c>
     </row>
@@ -17679,32 +21595,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B6692B-9920-4E77-9D5B-6B101F30D414}">
-  <dimension ref="A3:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>839</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>